--- a/qmuen.xlsx
+++ b/qmuen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lap trinh\QMun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A69BAED-25C0-4FCC-B8BE-A5E6BBFA95CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3002AA-736E-43D0-9F6E-AA155F7B0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="817">
   <si>
     <t>一</t>
   </si>
@@ -376,21 +376,12 @@
     <t>㕦</t>
   </si>
   <si>
-    <t>𡹚</t>
-  </si>
-  <si>
     <t>kêmh</t>
   </si>
   <si>
     <t>mŭnh</t>
   </si>
   <si>
-    <t>tượng hình: hình ảnh một người đang đứng dang tay</t>
-  </si>
-  <si>
-    <t>hội ý: 林山</t>
-  </si>
-  <si>
     <t>字</t>
   </si>
   <si>
@@ -1801,13 +1792,694 @@
     <t>xour</t>
   </si>
   <si>
-    <t>裡</t>
-  </si>
-  <si>
     <t>giax</t>
   </si>
   <si>
     <t>里</t>
+  </si>
+  <si>
+    <t>裏</t>
+  </si>
+  <si>
+    <t>盤王</t>
+  </si>
+  <si>
+    <t>Fanh Hungh</t>
+  </si>
+  <si>
+    <t>鱉</t>
+  </si>
+  <si>
+    <t>pĭts</t>
+  </si>
+  <si>
+    <t>鼋</t>
+  </si>
+  <si>
+    <t>nhŭnh</t>
+  </si>
+  <si>
+    <t>鰐</t>
+  </si>
+  <si>
+    <t>ngŭkc</t>
+  </si>
+  <si>
+    <t>魂</t>
+  </si>
+  <si>
+    <t>honh</t>
+  </si>
+  <si>
+    <t>wănh</t>
+  </si>
+  <si>
+    <t>漆</t>
+  </si>
+  <si>
+    <t>炭</t>
+  </si>
+  <si>
+    <t>thanz</t>
+  </si>
+  <si>
+    <t>燈</t>
+  </si>
+  <si>
+    <t>tongr</t>
+  </si>
+  <si>
+    <t>tăngr</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>tongh</t>
+  </si>
+  <si>
+    <t>膽</t>
+  </si>
+  <si>
+    <t>tamd</t>
+  </si>
+  <si>
+    <t>蒜</t>
+  </si>
+  <si>
+    <t>thŭnz</t>
+  </si>
+  <si>
+    <t>讀</t>
+  </si>
+  <si>
+    <t>toc</t>
+  </si>
+  <si>
+    <t>dŏkc</t>
+  </si>
+  <si>
+    <t>賭</t>
+  </si>
+  <si>
+    <t>toud</t>
+  </si>
+  <si>
+    <t>踏</t>
+  </si>
+  <si>
+    <t>tapc</t>
+  </si>
+  <si>
+    <t>dapc</t>
+  </si>
+  <si>
+    <t>踢</t>
+  </si>
+  <si>
+    <t>thil</t>
+  </si>
+  <si>
+    <t>蹄</t>
+  </si>
+  <si>
+    <t>teih</t>
+  </si>
+  <si>
+    <t>釣</t>
+  </si>
+  <si>
+    <t>tius</t>
+  </si>
+  <si>
+    <t>頭</t>
+  </si>
+  <si>
+    <t>tăuh</t>
+  </si>
+  <si>
+    <t>乳</t>
+  </si>
+  <si>
+    <t>nud</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>xĕnz,kiĕns</t>
+  </si>
+  <si>
+    <t>săns</t>
+  </si>
+  <si>
+    <t>假</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>兩</t>
+  </si>
+  <si>
+    <t>gungx</t>
+  </si>
+  <si>
+    <t>冠</t>
+  </si>
+  <si>
+    <t>gŏnr</t>
+  </si>
+  <si>
+    <t>利</t>
+  </si>
+  <si>
+    <t>giăic</t>
+  </si>
+  <si>
+    <t>lic</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>pêur</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>fans</t>
+  </si>
+  <si>
+    <t>厚</t>
+  </si>
+  <si>
+    <t>hôx</t>
+  </si>
+  <si>
+    <t>咘</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>hình thanh: 口布</t>
+  </si>
+  <si>
+    <t>咭</t>
+  </si>
+  <si>
+    <t>kiĕts</t>
+  </si>
+  <si>
+    <t>hình thanh: 口吉</t>
+  </si>
+  <si>
+    <t>善</t>
+  </si>
+  <si>
+    <t>dênc</t>
+  </si>
+  <si>
+    <t>𩄏</t>
+  </si>
+  <si>
+    <t>bŭngc</t>
+  </si>
+  <si>
+    <t>hình thanh: 雨風</t>
+  </si>
+  <si>
+    <t>雹</t>
+  </si>
+  <si>
+    <t>pioc</t>
+  </si>
+  <si>
+    <t>鹺</t>
+  </si>
+  <si>
+    <t>daih</t>
+  </si>
+  <si>
+    <t>甑</t>
+  </si>
+  <si>
+    <t>săngs</t>
+  </si>
+  <si>
+    <t>鐺</t>
+  </si>
+  <si>
+    <t>chengl</t>
+  </si>
+  <si>
+    <t>𨪀</t>
+  </si>
+  <si>
+    <t>mud</t>
+  </si>
+  <si>
+    <t>炒</t>
+  </si>
+  <si>
+    <t>chaub</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>khiĕnl</t>
+  </si>
+  <si>
+    <t>炙</t>
+  </si>
+  <si>
+    <t>xir</t>
+  </si>
+  <si>
+    <t>收</t>
+  </si>
+  <si>
+    <t>xoul</t>
+  </si>
+  <si>
+    <t>熟</t>
+  </si>
+  <si>
+    <t>xuc</t>
+  </si>
+  <si>
+    <t>除</t>
+  </si>
+  <si>
+    <t>zŭih</t>
+  </si>
+  <si>
+    <t>家私</t>
+  </si>
+  <si>
+    <t>kiar sir</t>
+  </si>
+  <si>
+    <t>私</t>
+  </si>
+  <si>
+    <t>氣</t>
+  </si>
+  <si>
+    <t>xiz</t>
+  </si>
+  <si>
+    <t>hiz</t>
+  </si>
+  <si>
+    <t>京</t>
+  </si>
+  <si>
+    <t>横</t>
+  </si>
+  <si>
+    <t>wengh</t>
+  </si>
+  <si>
+    <t>庭</t>
+  </si>
+  <si>
+    <t>dĕngh</t>
+  </si>
+  <si>
+    <t>溏</t>
+  </si>
+  <si>
+    <t>dongh</t>
+  </si>
+  <si>
+    <t>陰</t>
+  </si>
+  <si>
+    <t>yŏmr,ŭmr</t>
+  </si>
+  <si>
+    <t>陽</t>
+  </si>
+  <si>
+    <t>央</t>
+  </si>
+  <si>
+    <t>yangl</t>
+  </si>
+  <si>
+    <t>中央</t>
+  </si>
+  <si>
+    <t>cŏngr yangl</t>
+  </si>
+  <si>
+    <t>管</t>
+  </si>
+  <si>
+    <t>kŭnd</t>
+  </si>
+  <si>
+    <t>學</t>
+  </si>
+  <si>
+    <t>hoc</t>
+  </si>
+  <si>
+    <t>hakc</t>
+  </si>
+  <si>
+    <t>旱</t>
+  </si>
+  <si>
+    <t>hanx</t>
+  </si>
+  <si>
+    <t>害</t>
+  </si>
+  <si>
+    <t>hoic</t>
+  </si>
+  <si>
+    <t>合</t>
+  </si>
+  <si>
+    <t>hopc</t>
+  </si>
+  <si>
+    <t>可憐</t>
+  </si>
+  <si>
+    <t>houb lênh</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>hob</t>
+  </si>
+  <si>
+    <t>lênh</t>
+  </si>
+  <si>
+    <t>憐</t>
+  </si>
+  <si>
+    <t>mouc,mŏkc</t>
+  </si>
+  <si>
+    <t>mŏkc</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>木瓜</t>
+  </si>
+  <si>
+    <t>mouc kuar</t>
+  </si>
+  <si>
+    <t>香</t>
+  </si>
+  <si>
+    <t>hungl</t>
+  </si>
+  <si>
+    <t>閹</t>
+  </si>
+  <si>
+    <t>ĭmr</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>sĭmr</t>
+  </si>
+  <si>
+    <t>sămr</t>
+  </si>
+  <si>
+    <t>sĭmr tăuh</t>
+  </si>
+  <si>
+    <t>心頭</t>
+  </si>
+  <si>
+    <t>肝</t>
+  </si>
+  <si>
+    <t>giĕnl</t>
+  </si>
+  <si>
+    <t>konr</t>
+  </si>
+  <si>
+    <t>圈</t>
+  </si>
+  <si>
+    <t>khwĭnl</t>
+  </si>
+  <si>
+    <t>鎖</t>
+  </si>
+  <si>
+    <t>節氣</t>
+  </si>
+  <si>
+    <t>節</t>
+  </si>
+  <si>
+    <t>kiar,sêtr</t>
+  </si>
+  <si>
+    <t>sêtr</t>
+  </si>
+  <si>
+    <t>kiar xiz</t>
+  </si>
+  <si>
+    <t>筋</t>
+  </si>
+  <si>
+    <t>xanr</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>隻</t>
+  </si>
+  <si>
+    <t>xar</t>
+  </si>
+  <si>
+    <t>cekr</t>
+  </si>
+  <si>
+    <t>枝</t>
+  </si>
+  <si>
+    <t>ceir</t>
+  </si>
+  <si>
+    <t>房</t>
+  </si>
+  <si>
+    <t>bôngh</t>
+  </si>
+  <si>
+    <t>銀行</t>
+  </si>
+  <si>
+    <t>ngănh hangh</t>
+  </si>
+  <si>
+    <t>䀟</t>
+  </si>
+  <si>
+    <t>fŏtc</t>
+  </si>
+  <si>
+    <t>望</t>
+  </si>
+  <si>
+    <t>mangc</t>
+  </si>
+  <si>
+    <t>môngc</t>
+  </si>
+  <si>
+    <t>駡</t>
+  </si>
+  <si>
+    <t>mab</t>
+  </si>
+  <si>
+    <t>怨</t>
+  </si>
+  <si>
+    <t>yôns</t>
+  </si>
+  <si>
+    <t>咒</t>
+  </si>
+  <si>
+    <t>căus</t>
+  </si>
+  <si>
+    <t>𫧇</t>
+  </si>
+  <si>
+    <t>năngb</t>
+  </si>
+  <si>
+    <t>tượng hình: hai vật giống nhau</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>kiaus</t>
+  </si>
+  <si>
+    <t>立</t>
+  </si>
+  <si>
+    <t>lăpc</t>
+  </si>
+  <si>
+    <t>giŏpc</t>
+  </si>
+  <si>
+    <t>笠</t>
+  </si>
+  <si>
+    <t>帳</t>
+  </si>
+  <si>
+    <t>xangs</t>
+  </si>
+  <si>
+    <t>席</t>
+  </si>
+  <si>
+    <t>xic</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>biatc,matc</t>
+  </si>
+  <si>
+    <t>筶</t>
+  </si>
+  <si>
+    <t>caus</t>
+  </si>
+  <si>
+    <t>盞</t>
+  </si>
+  <si>
+    <t>cend</t>
+  </si>
+  <si>
+    <t>cand</t>
+  </si>
+  <si>
+    <t>襪</t>
+  </si>
+  <si>
+    <t>mătc</t>
+  </si>
+  <si>
+    <t>迌</t>
+  </si>
+  <si>
+    <t>neux,neur</t>
+  </si>
+  <si>
+    <t>tượng hình: đứng trên cao đung đưa qua lại</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>pengh</t>
+  </si>
+  <si>
+    <t>bĕngh</t>
+  </si>
+  <si>
+    <t>朋</t>
+  </si>
+  <si>
+    <t>băngh</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>cŏngs</t>
+  </si>
+  <si>
+    <t>xŏngs,xŏngd</t>
+  </si>
+  <si>
+    <t>椅</t>
+  </si>
+  <si>
+    <t>eid</t>
+  </si>
+  <si>
+    <t>潤</t>
+  </si>
+  <si>
+    <t>nhŭnc</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>bvŏnd</t>
+  </si>
+  <si>
+    <t>末</t>
+  </si>
+  <si>
+    <t>没</t>
+  </si>
+  <si>
+    <t>mŭtc</t>
+  </si>
+  <si>
+    <t>băngh,bŭngh</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>lămh</t>
+  </si>
+  <si>
+    <t>Kêmh Mŭnh</t>
+  </si>
+  <si>
+    <t>林㕦</t>
+  </si>
+  <si>
+    <t>tượng hình: hình ảnh một người đang đứng dang tay;cách viết khác của 民</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +2665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2049,12 +2721,155 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2478,146 +3293,6 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2632,51 +3307,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D207" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:D207" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D296" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D296" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
   <tableColumns count="4">
-    <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{77BA3864-AFE3-4887-9F58-EAF950A7AD14}" name="字" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9ED7F791-A7D7-49E1-A911-0ADE90DE740A}" name="俗音" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{223E0980-A414-4516-926C-228A7723F59A}" name="標準音" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{77BA3864-AFE3-4887-9F58-EAF950A7AD14}" name="字" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9ED7F791-A7D7-49E1-A911-0ADE90DE740A}" name="俗音" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{223E0980-A414-4516-926C-228A7723F59A}" name="標準音" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D632DA2-FFAB-42A4-8D61-BB035AF54BBD}" name="Table24" displayName="Table24" ref="A1:D4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
-  <autoFilter ref="A1:D4" xr:uid="{1D632DA2-FFAB-42A4-8D61-BB035AF54BBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D632DA2-FFAB-42A4-8D61-BB035AF54BBD}" name="Table24" displayName="Table24" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+  <autoFilter ref="A1:D5" xr:uid="{1D632DA2-FFAB-42A4-8D61-BB035AF54BBD}"/>
   <tableColumns count="4">
-    <tableColumn id="7" xr3:uid="{A6FD7D5B-CD05-4800-A580-47F7C7213F7C}" name="常用度" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{DDCD3528-6D53-45B0-808B-4AB97F435EB2}" name="字" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{FD6A51BD-11CF-4B6F-9CFF-C64A098703D9}" name="俗音" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{F66A90D4-F6A6-4E45-9650-280ABDDFC5B8}" name="解字" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{A6FD7D5B-CD05-4800-A580-47F7C7213F7C}" name="常用度" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{DDCD3528-6D53-45B0-808B-4AB97F435EB2}" name="字" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{FD6A51BD-11CF-4B6F-9CFF-C64A098703D9}" name="俗音" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{F66A90D4-F6A6-4E45-9650-280ABDDFC5B8}" name="解字" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:D34" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D39" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A1:D39" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{09378F0C-E887-4A25-8D92-F2E090F546FC}" name="常用度" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C520B322-D4C5-499D-8776-6E4C84E0410B}" name="字" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{01B60DA7-6BE8-40DD-B77F-707CFEBB6857}" name="俗音" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3B6C0F94-0239-4798-81DD-F369404EEFE4}" name="解字" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{09378F0C-E887-4A25-8D92-F2E090F546FC}" name="常用度" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C520B322-D4C5-499D-8776-6E4C84E0410B}" name="字" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{01B60DA7-6BE8-40DD-B77F-707CFEBB6857}" name="俗音" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3B6C0F94-0239-4798-81DD-F369404EEFE4}" name="解字" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C9" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C9" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C18" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:C18" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7AC3F4C8-5FD1-4214-9B7A-F689A5C70CEC}" name="常用度" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{064FDE33-43CB-4142-B2B2-693F96D35F89}" name="字" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5A39990F-8689-4270-A434-4F98EDADA21E}" name="俗音" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7AC3F4C8-5FD1-4214-9B7A-F689A5C70CEC}" name="常用度" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{064FDE33-43CB-4142-B2B2-693F96D35F89}" name="字" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{5A39990F-8689-4270-A434-4F98EDADA21E}" name="俗音" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2979,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C37EFB-A8EE-4DC7-8A99-5510C4649B02}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2997,16 +3672,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3034,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3256,7 +3931,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3354,7 +4029,7 @@
         <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3396,7 +4071,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3424,7 +4099,7 @@
         <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3438,7 +4113,7 @@
         <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3470,10 +4145,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="23" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3524,10 +4199,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>113</v>
@@ -3535,193 +4210,193 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>67</v>
@@ -3729,881 +4404,881 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="D129" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>99</v>
@@ -4611,628 +5286,1577 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="D158" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>446</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C182" s="5"/>
       <c r="D182" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="D193" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="D194" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B196" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B199" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B200" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B201" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B202" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B203" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="D203" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="22"/>
-      <c r="B203" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="D203" s="24" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="22"/>
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B205" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C204" s="23" t="s">
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C206" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D204" s="24"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="22"/>
-      <c r="B205" s="22" t="s">
+      <c r="D206" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C205" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="D205" s="24"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="22"/>
-      <c r="B206" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="22"/>
-      <c r="B207" s="22" t="s">
+      <c r="C207" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="22"/>
+      <c r="B208" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="C207" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="D207" s="24" t="s">
-        <v>541</v>
+      <c r="C208" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="D208" s="24"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="22"/>
+      <c r="B209" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="D209" s="24"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="22"/>
+      <c r="B210" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="D210" s="24"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="22"/>
+      <c r="B211" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="D211" s="24" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="22"/>
+      <c r="B212" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212" s="24"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="22"/>
+      <c r="B213" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="D213" s="24"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="22"/>
+      <c r="B214" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="D214" s="24" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="22"/>
+      <c r="B215" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D215" s="24"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="22"/>
+      <c r="B216" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="D216" s="24"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="22"/>
+      <c r="B217" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="D217" s="24"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="22"/>
+      <c r="B218" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="D218" s="24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="22"/>
+      <c r="B219" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="D219" s="24"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="22"/>
+      <c r="B220" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="D220" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="22"/>
+      <c r="B221" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="D221" s="24"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="22"/>
+      <c r="B222" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="D222" s="24"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="22"/>
+      <c r="B223" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="D223" s="24"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="22"/>
+      <c r="B224" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C224" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="D224" s="24"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="22"/>
+      <c r="B225" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C225" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="D225" s="24"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="22"/>
+      <c r="B226" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="D226" s="24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="22"/>
+      <c r="B227" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="D227" s="24"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="22"/>
+      <c r="B228" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="C228" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="D228" s="24"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="22"/>
+      <c r="B229" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="C229" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="D229" s="24"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="22"/>
+      <c r="B230" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="C230" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D230" s="24"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="22"/>
+      <c r="B231" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C231" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D231" s="24" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="22"/>
+      <c r="B232" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="D232" s="24"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="22"/>
+      <c r="B233" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="C233" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="D233" s="24"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="22"/>
+      <c r="B234" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C234" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="D234" s="24"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="22"/>
+      <c r="B235" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C235" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="D235" s="24" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="22"/>
+      <c r="B236" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="C236" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="D236" s="24"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="22"/>
+      <c r="B237" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="C237" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="D237" s="24"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="22"/>
+      <c r="B238" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="C238" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D238" s="24"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="22"/>
+      <c r="B239" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="C239" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="D239" s="24"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="22"/>
+      <c r="B240" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="C240" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="D240" s="24"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="22"/>
+      <c r="B241" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="C241" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="D241" s="24"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="22"/>
+      <c r="B242" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="C242" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="D242" s="24"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="22"/>
+      <c r="B243" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="C243" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="D243" s="24"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="22"/>
+      <c r="B244" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="C244" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="D244" s="24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="22"/>
+      <c r="B245" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="C245" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="D245" s="24" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="22"/>
+      <c r="B246" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="C246" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="D246" s="24"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="22"/>
+      <c r="B247" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C247" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="D247" s="24" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="22"/>
+      <c r="B248" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="C248" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D248" s="24"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="22"/>
+      <c r="B249" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="C249" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="D249" s="24"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="22"/>
+      <c r="B250" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="C250" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="D250" s="24"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="22"/>
+      <c r="B251" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="C251" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="D251" s="24"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="22"/>
+      <c r="B252" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="C252" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="22"/>
+      <c r="B253" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="C253" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="22"/>
+      <c r="B254" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="C254" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="D254" s="24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="22"/>
+      <c r="B255" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="C255" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="D255" s="24"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="22"/>
+      <c r="B256" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="C256" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="D256" s="24" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="22"/>
+      <c r="B257" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C257" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="D257" s="24"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="22"/>
+      <c r="B258" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="C258" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="D258" s="24" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="22"/>
+      <c r="B259" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="C259" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="D259" s="24" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="22"/>
+      <c r="B260" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="C260" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D260" s="24" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="22"/>
+      <c r="B261" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="C261" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="D261" s="24"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="22"/>
+      <c r="B262" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="C262" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="D262" s="24" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="22"/>
+      <c r="B263" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="C263" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="D263" s="24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="22"/>
+      <c r="B264" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="C264" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="D264" s="24"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="22"/>
+      <c r="B265" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="C265" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="D265" s="24" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="22"/>
+      <c r="B266" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="C266" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="D266" s="24" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="22"/>
+      <c r="B267" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="C267" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="D267" s="24"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="22"/>
+      <c r="B268" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="C268" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D268" s="24"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="22"/>
+      <c r="B269" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="C269" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="D269" s="24" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="22"/>
+      <c r="B270" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C270" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="D270" s="24"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="22"/>
+      <c r="B271" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="C271" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="D271" s="24"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="22"/>
+      <c r="B272" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="C272" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="D272" s="24" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="22"/>
+      <c r="B273" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="C273" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="D273" s="24"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="22"/>
+      <c r="B274" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="C274" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="22"/>
+      <c r="B275" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="C275" s="23" t="s">
+        <v>761</v>
+      </c>
+      <c r="D275" s="24" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="22"/>
+      <c r="B276" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C276" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="D276" s="24"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="22"/>
+      <c r="B277" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="C277" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="D277" s="24"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="22"/>
+      <c r="B278" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="C278" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="D278" s="24"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="22"/>
+      <c r="B279" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C279" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="22"/>
+      <c r="B280" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C280" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="D280" s="24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="22"/>
+      <c r="B281" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="C281" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="D281" s="24"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="22"/>
+      <c r="B282" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C282" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="D282" s="24"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="22"/>
+      <c r="B283" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="C283" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="D283" s="24"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="22"/>
+      <c r="B284" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="C284" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="D284" s="24"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="22"/>
+      <c r="B285" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="C285" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="D285" s="24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="22"/>
+      <c r="B286" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="22"/>
+      <c r="B287" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="C287" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="D287" s="24"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="22"/>
+      <c r="B288" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="C288" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="D288" s="24" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="22"/>
+      <c r="B289" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="C289" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="22"/>
+      <c r="B290" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="22"/>
+      <c r="B291" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="C291" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="D291" s="24"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="22"/>
+      <c r="B292" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="C292" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="D292" s="24"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="22"/>
+      <c r="B293" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C293" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="D293" s="24"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="22"/>
+      <c r="B294" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="C294" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="D294" s="24"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="22"/>
+      <c r="B295" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="C295" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="D295" s="24"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="22"/>
+      <c r="B296" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="C296" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D296" s="24" t="s">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -5246,10 +6870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21DD8D8-59F9-4543-AA15-418E92C1059C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5263,16 +6887,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5308,13 +6932,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -5327,10 +6965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9E2CE-C9AF-4C2A-A516-EDCC9ADFAFC1}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -5344,16 +6982,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5434,43 +7072,40 @@
         <v>114</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
       <c r="B8" s="11" t="s">
-        <v>115</v>
+        <v>345</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
-        <v>251</v>
+        <v>349</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>252</v>
+        <v>350</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>351</v>
@@ -5478,21 +7113,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>355</v>
@@ -5500,28 +7135,28 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>421</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -5532,25 +7167,25 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="12" t="s">
-        <v>424</v>
+      <c r="B16" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -5566,13 +7201,13 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -5588,10 +7223,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>474</v>
+        <v>274</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>475</v>
@@ -5599,146 +7234,200 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>277</v>
+        <v>478</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>509</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>140</v>
+        <v>507</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="24"/>
-      <c r="B34" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>569</v>
+      <c r="B34" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>652</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>571</v>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -5751,28 +7440,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A1A9B7-25AD-4A8E-9D69-9C5CD27544E5}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A13" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -5780,55 +7469,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -5836,19 +7525,100 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -5864,7 +7634,7 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5886,49 +7656,49 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="15" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D9" s="13"/>
     </row>

--- a/qmuen.xlsx
+++ b/qmuen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lap trinh\QMun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3002AA-736E-43D0-9F6E-AA155F7B0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853DDCB-5C94-45D1-8A02-61C9C63CC491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" activeTab="2" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
   </bookViews>
   <sheets>
     <sheet name="漢" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1008">
   <si>
     <t>一</t>
   </si>
@@ -505,9 +505,6 @@
     <t>kôngd</t>
   </si>
   <si>
-    <t>kuăngd, kôngd</t>
-  </si>
-  <si>
     <t>黄</t>
   </si>
   <si>
@@ -1114,9 +1111,6 @@
     <t>chil</t>
   </si>
   <si>
-    <t>呷</t>
-  </si>
-  <si>
     <t>hŏpl</t>
   </si>
   <si>
@@ -2479,14 +2473,593 @@
     <t>林㕦</t>
   </si>
   <si>
-    <t>tượng hình: hình ảnh một người đang đứng dang tay;cách viết khác của 民</t>
+    <t>tượng hình: hình ảnh một người đang đứng dang tay</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>gingh</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>gŭir</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>稱</t>
+  </si>
+  <si>
+    <t>zăngz</t>
+  </si>
+  <si>
+    <t>蝠</t>
+  </si>
+  <si>
+    <t>buil</t>
+  </si>
+  <si>
+    <t>suc</t>
+  </si>
+  <si>
+    <t>鑿</t>
+  </si>
+  <si>
+    <t>嗆</t>
+  </si>
+  <si>
+    <t>khiangb</t>
+  </si>
+  <si>
+    <t>拍</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>dĕngc</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>淨</t>
+  </si>
+  <si>
+    <t>dăngl</t>
+  </si>
+  <si>
+    <t>thĕngl</t>
+  </si>
+  <si>
+    <t>脹</t>
+  </si>
+  <si>
+    <t>cungs</t>
+  </si>
+  <si>
+    <t>曲</t>
+  </si>
+  <si>
+    <t>khuĕkl</t>
+  </si>
+  <si>
+    <t>khŏkl</t>
+  </si>
+  <si>
+    <t>過</t>
+  </si>
+  <si>
+    <t>kŭis,kuais</t>
+  </si>
+  <si>
+    <t>獐</t>
+  </si>
+  <si>
+    <t>cungr</t>
+  </si>
+  <si>
+    <t>zac</t>
+  </si>
+  <si>
+    <t>yax</t>
+  </si>
+  <si>
+    <t>挖</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>wêtr</t>
+  </si>
+  <si>
+    <t>嫌</t>
+  </si>
+  <si>
+    <t>zêmh</t>
+  </si>
+  <si>
+    <t>散</t>
+  </si>
+  <si>
+    <t>danz,sand</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>klôd</t>
+  </si>
+  <si>
+    <t>kăud</t>
+  </si>
+  <si>
+    <t>龍</t>
+  </si>
+  <si>
+    <t>kungr</t>
+  </si>
+  <si>
+    <t>lŏngh</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
+    <t>槁</t>
+  </si>
+  <si>
+    <t>goud</t>
+  </si>
+  <si>
+    <t>染</t>
+  </si>
+  <si>
+    <t>nhŭmc</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>buis</t>
+  </si>
+  <si>
+    <t>pôs</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>gioud</t>
+  </si>
+  <si>
+    <t>soud</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>teic</t>
+  </si>
+  <si>
+    <t>dăid</t>
+  </si>
+  <si>
+    <t>屎</t>
+  </si>
+  <si>
+    <t>面</t>
+  </si>
+  <si>
+    <t>mĭnl</t>
+  </si>
+  <si>
+    <t>plăngx</t>
+  </si>
+  <si>
+    <t>崩</t>
+  </si>
+  <si>
+    <t>頹</t>
+  </si>
+  <si>
+    <t>tuih</t>
+  </si>
+  <si>
+    <t>biouh</t>
+  </si>
+  <si>
+    <t>băuh</t>
+  </si>
+  <si>
+    <t>浮</t>
+  </si>
+  <si>
+    <t>溜</t>
+  </si>
+  <si>
+    <t>giouc</t>
+  </si>
+  <si>
+    <t>筒</t>
+  </si>
+  <si>
+    <t>蠓</t>
+  </si>
+  <si>
+    <t>mŭngl</t>
+  </si>
+  <si>
+    <t>攪</t>
+  </si>
+  <si>
+    <t>kaud</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>wĭnl</t>
+  </si>
+  <si>
+    <t>xŏmr</t>
+  </si>
+  <si>
+    <t>客</t>
+  </si>
+  <si>
+    <t>chel</t>
+  </si>
+  <si>
+    <t>hekl</t>
+  </si>
+  <si>
+    <t>硬</t>
+  </si>
+  <si>
+    <t>ngengc</t>
+  </si>
+  <si>
+    <t>孵</t>
+  </si>
+  <si>
+    <t>puc</t>
+  </si>
+  <si>
+    <t>含</t>
+  </si>
+  <si>
+    <t>giomr</t>
+  </si>
+  <si>
+    <t>贏</t>
+  </si>
+  <si>
+    <t>hingh</t>
+  </si>
+  <si>
+    <t>sĭps</t>
+  </si>
+  <si>
+    <t>識</t>
+  </si>
+  <si>
+    <t>斟</t>
+  </si>
+  <si>
+    <t>chămb</t>
+  </si>
+  <si>
+    <t>遲</t>
+  </si>
+  <si>
+    <t>căih</t>
+  </si>
+  <si>
+    <t>懶</t>
+  </si>
+  <si>
+    <t>leic</t>
+  </si>
+  <si>
+    <t>牽</t>
+  </si>
+  <si>
+    <t>khĭnl</t>
+  </si>
+  <si>
+    <t>放</t>
+  </si>
+  <si>
+    <t>pŭngs</t>
+  </si>
+  <si>
+    <t>愛</t>
+  </si>
+  <si>
+    <t>ois</t>
+  </si>
+  <si>
+    <t>底</t>
+  </si>
+  <si>
+    <t>did,tăid</t>
+  </si>
+  <si>
+    <t>鬃</t>
+  </si>
+  <si>
+    <t>dŏngr</t>
+  </si>
+  <si>
+    <t>濁</t>
+  </si>
+  <si>
+    <t>gloc</t>
+  </si>
+  <si>
+    <t>雙</t>
+  </si>
+  <si>
+    <t>sungl</t>
+  </si>
+  <si>
+    <t>xôngl</t>
+  </si>
+  <si>
+    <t>脱</t>
+  </si>
+  <si>
+    <t>thŭtl</t>
+  </si>
+  <si>
+    <t>枕</t>
+  </si>
+  <si>
+    <t>zŏms</t>
+  </si>
+  <si>
+    <t>粥</t>
+  </si>
+  <si>
+    <t>xôr</t>
+  </si>
+  <si>
+    <t>抽</t>
+  </si>
+  <si>
+    <t>chăul</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
+    <t>xŭnl</t>
+  </si>
+  <si>
+    <t>耙</t>
+  </si>
+  <si>
+    <t>pah</t>
+  </si>
+  <si>
+    <t>造</t>
+  </si>
+  <si>
+    <t>doux</t>
+  </si>
+  <si>
+    <t>補</t>
+  </si>
+  <si>
+    <t>bvad,poud</t>
+  </si>
+  <si>
+    <t>蒸</t>
+  </si>
+  <si>
+    <t>xangr</t>
+  </si>
+  <si>
+    <t>秧</t>
+  </si>
+  <si>
+    <t>yangr</t>
+  </si>
+  <si>
+    <t>賣</t>
+  </si>
+  <si>
+    <t>maic</t>
+  </si>
+  <si>
+    <t>送</t>
+  </si>
+  <si>
+    <t>sŭngs</t>
+  </si>
+  <si>
+    <t>銼</t>
+  </si>
+  <si>
+    <t>douz,zouz</t>
+  </si>
+  <si>
+    <t>縮</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>鐮</t>
+  </si>
+  <si>
+    <t>lêmh</t>
+  </si>
+  <si>
+    <t>號</t>
+  </si>
+  <si>
+    <t>沉</t>
+  </si>
+  <si>
+    <t>cêmh</t>
+  </si>
+  <si>
+    <t>zămh</t>
+  </si>
+  <si>
+    <t>荅</t>
+  </si>
+  <si>
+    <t>dŭps,tŏpc</t>
+  </si>
+  <si>
+    <t>斜</t>
+  </si>
+  <si>
+    <t>zar</t>
+  </si>
+  <si>
+    <t>滑</t>
+  </si>
+  <si>
+    <t>gŏtc</t>
+  </si>
+  <si>
+    <t>蝸</t>
+  </si>
+  <si>
+    <t>kueir</t>
+  </si>
+  <si>
+    <t>醒</t>
+  </si>
+  <si>
+    <t>singd</t>
+  </si>
+  <si>
+    <t>聲</t>
+  </si>
+  <si>
+    <t>singl</t>
+  </si>
+  <si>
+    <t>竈</t>
+  </si>
+  <si>
+    <t>dôs</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>khial</t>
+  </si>
+  <si>
+    <t>lĕkc</t>
+  </si>
+  <si>
+    <t>摘</t>
+  </si>
+  <si>
+    <t>cer</t>
+  </si>
+  <si>
+    <t>拂</t>
+  </si>
+  <si>
+    <t>fŏtl</t>
+  </si>
+  <si>
+    <t>報</t>
+  </si>
+  <si>
+    <t>薄</t>
+  </si>
+  <si>
+    <t>fac</t>
+  </si>
+  <si>
+    <t>錫</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>舌</t>
+  </si>
+  <si>
+    <t>biĕtc</t>
+  </si>
+  <si>
+    <t>淋</t>
+  </si>
+  <si>
+    <t>giŏmh</t>
+  </si>
+  <si>
+    <t>織</t>
+  </si>
+  <si>
+    <t>眨</t>
+  </si>
+  <si>
+    <t>zĭps</t>
+  </si>
+  <si>
+    <t>擦</t>
+  </si>
+  <si>
+    <t>sŏtl,chatl</t>
+  </si>
+  <si>
+    <t>披</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>接</t>
+  </si>
+  <si>
+    <t>杍</t>
+  </si>
+  <si>
+    <t>giăngs</t>
+  </si>
+  <si>
+    <t>hình thanh: 木子</t>
+  </si>
+  <si>
+    <t>䇭</t>
+  </si>
+  <si>
+    <t>lăub</t>
+  </si>
+  <si>
+    <t>hình thanh: 竹老</t>
+  </si>
+  <si>
+    <t>tŏngs,cŏngr</t>
+  </si>
+  <si>
+    <t>kuăngd,kôngd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2544,6 +3117,15 @@
     <font>
       <sz val="11"/>
       <name val="Plangothic P1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2662,10 +3244,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2721,155 +3304,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3293,6 +3740,146 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3307,51 +3894,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D296" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D296" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D393" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D393" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D345">
+    <sortCondition ref="C1:C345"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{77BA3864-AFE3-4887-9F58-EAF950A7AD14}" name="字" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9ED7F791-A7D7-49E1-A911-0ADE90DE740A}" name="俗音" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{223E0980-A414-4516-926C-228A7723F59A}" name="標準音" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{77BA3864-AFE3-4887-9F58-EAF950A7AD14}" name="字" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{9ED7F791-A7D7-49E1-A911-0ADE90DE740A}" name="俗音" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{223E0980-A414-4516-926C-228A7723F59A}" name="標準音" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D632DA2-FFAB-42A4-8D61-BB035AF54BBD}" name="Table24" displayName="Table24" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D632DA2-FFAB-42A4-8D61-BB035AF54BBD}" name="Table24" displayName="Table24" ref="A1:D5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:D5" xr:uid="{1D632DA2-FFAB-42A4-8D61-BB035AF54BBD}"/>
   <tableColumns count="4">
-    <tableColumn id="7" xr3:uid="{A6FD7D5B-CD05-4800-A580-47F7C7213F7C}" name="常用度" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{DDCD3528-6D53-45B0-808B-4AB97F435EB2}" name="字" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{FD6A51BD-11CF-4B6F-9CFF-C64A098703D9}" name="俗音" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{F66A90D4-F6A6-4E45-9650-280ABDDFC5B8}" name="解字" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{A6FD7D5B-CD05-4800-A580-47F7C7213F7C}" name="常用度" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{DDCD3528-6D53-45B0-808B-4AB97F435EB2}" name="字" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{FD6A51BD-11CF-4B6F-9CFF-C64A098703D9}" name="俗音" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{F66A90D4-F6A6-4E45-9650-280ABDDFC5B8}" name="解字" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D39" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A1:D39" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:D41" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{09378F0C-E887-4A25-8D92-F2E090F546FC}" name="常用度" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C520B322-D4C5-499D-8776-6E4C84E0410B}" name="字" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{01B60DA7-6BE8-40DD-B77F-707CFEBB6857}" name="俗音" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3B6C0F94-0239-4798-81DD-F369404EEFE4}" name="解字" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{09378F0C-E887-4A25-8D92-F2E090F546FC}" name="常用度" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C520B322-D4C5-499D-8776-6E4C84E0410B}" name="字" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{01B60DA7-6BE8-40DD-B77F-707CFEBB6857}" name="俗音" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3B6C0F94-0239-4798-81DD-F369404EEFE4}" name="解字" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C18" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C18" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C18" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7AC3F4C8-5FD1-4214-9B7A-F689A5C70CEC}" name="常用度" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{064FDE33-43CB-4142-B2B2-693F96D35F89}" name="字" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5A39990F-8689-4270-A434-4F98EDADA21E}" name="俗音" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7AC3F4C8-5FD1-4214-9B7A-F689A5C70CEC}" name="常用度" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{064FDE33-43CB-4142-B2B2-693F96D35F89}" name="字" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5A39990F-8689-4270-A434-4F98EDADA21E}" name="俗音" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3654,10 +4244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C37EFB-A8EE-4DC7-8A99-5510C4649B02}">
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285"/>
+    <sheetView topLeftCell="A250" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3672,434 +4262,326 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>510</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>795</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>809</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>780</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>752</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>753</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>446</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>447</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>804</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>805</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>634</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>782</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>783</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>765</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
       <c r="B26" s="4" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>535</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>3</v>
-      </c>
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
       <c r="B28" s="4" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>3</v>
-      </c>
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>750</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>784</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>97</v>
+        <v>785</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>343</v>
+        <v>786</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4107,2763 +4589,3819 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>536</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
       <c r="B33" s="4" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>99</v>
+        <v>1006</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B35" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>401</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>404</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="2"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>670</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>130</v>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>666</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
+      <c r="B64" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="D64" s="24"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D81" s="24"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="D94" s="24"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="D97" s="24"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="D105" s="24"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D110" s="24"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="4" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>1</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>1</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="22"/>
+      <c r="B120" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="D120" s="24"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="22"/>
+      <c r="B130" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B139" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C139" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="5" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="22"/>
+      <c r="B143" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="D143" s="24"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="22"/>
+      <c r="B145" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="22"/>
+      <c r="B146" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="D146" s="24"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>1</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="22"/>
+      <c r="B151" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D151" s="24"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="22"/>
+      <c r="B152" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B153" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B155" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B156" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B157" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>1</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B160" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>3</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>1</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B167" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B171" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="22"/>
+      <c r="B174" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="D174" s="24"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B175" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B177" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B178" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="22"/>
+      <c r="B179" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="D179" s="24"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B180" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B181" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="22"/>
+      <c r="B182" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D182" s="24"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B183" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B184" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B186" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B187" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B188" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
+      <c r="C188" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B135" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="D188" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>1</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137" s="4" t="s">
+      <c r="C190" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B139" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B140" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B141" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B142" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B143" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B144" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B145" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B146" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B147" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B148" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B149" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B150" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B151" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B152" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B153" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B154" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B155" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B156" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B157" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B158" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B159" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B160" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B161" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B162" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B163" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B164" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B165" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B166" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B167" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B168" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B169" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B170" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B171" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B172" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B173" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B174" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B175" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B176" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B177" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B178" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B179" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B180" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B181" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B182" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B183" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B184" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B185" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B186" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B187" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B188" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B189" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B190" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
-        <v>488</v>
+        <v>627</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
-        <v>494</v>
+        <v>127</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>495</v>
+        <v>128</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>496</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
-        <v>497</v>
+        <v>343</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>500</v>
+        <v>342</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>543</v>
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B194" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>502</v>
-      </c>
+      <c r="A194" s="22"/>
+      <c r="B194" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="D194" s="24"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
-        <v>499</v>
+        <v>315</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>504</v>
+        <v>316</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>1</v>
+      </c>
       <c r="B196" s="4" t="s">
-        <v>548</v>
+        <v>7</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>549</v>
+        <v>32</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
-        <v>550</v>
+        <v>317</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>551</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>553</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
+        <v>1</v>
+      </c>
       <c r="B199" s="4" t="s">
-        <v>554</v>
+        <v>90</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>555</v>
+        <v>97</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>555</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
+        <v>1</v>
+      </c>
       <c r="B200" s="4" t="s">
-        <v>556</v>
+        <v>92</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>557</v>
+        <v>99</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
+        <v>1</v>
+      </c>
       <c r="B201" s="4" t="s">
-        <v>558</v>
+        <v>22</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>1</v>
+      </c>
       <c r="B202" s="4" t="s">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="D202" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="4">
+        <v>1</v>
+      </c>
       <c r="B203" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>564</v>
+        <v>23</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>565</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
-        <v>583</v>
+        <v>373</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="D204" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B205" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="D205" s="2"/>
+      <c r="A205" s="22"/>
+      <c r="B205" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="D205" s="24"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
-        <v>589</v>
+        <v>802</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>538</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B207" s="4" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>538</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="22"/>
-      <c r="B208" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="C208" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="D208" s="24"/>
+      <c r="B208" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="22"/>
-      <c r="B209" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="D209" s="24"/>
+      <c r="B209" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="22"/>
-      <c r="B210" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="D210" s="24"/>
+      <c r="B210" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="22"/>
-      <c r="B211" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="D211" s="24" t="s">
-        <v>600</v>
-      </c>
+      <c r="B211" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D211" s="2"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="22"/>
-      <c r="B212" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D212" s="24"/>
+      <c r="B212" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="22"/>
-      <c r="B213" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="D213" s="24"/>
+      <c r="B213" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="22"/>
-      <c r="B214" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="D214" s="24" t="s">
-        <v>606</v>
+      <c r="B214" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="22"/>
-      <c r="B215" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="D215" s="24"/>
+      <c r="B215" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="22"/>
-      <c r="B216" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="D216" s="24"/>
+      <c r="A216" s="4">
+        <v>1</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="22"/>
-      <c r="B217" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="D217" s="24"/>
+      <c r="A217" s="4">
+        <v>1</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="22"/>
-      <c r="B218" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="C218" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="D218" s="24" t="s">
-        <v>615</v>
-      </c>
+      <c r="B218" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="22"/>
-      <c r="B219" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="C219" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="D219" s="24"/>
+      <c r="B219" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="22"/>
-      <c r="B220" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="C220" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="D220" s="24" t="s">
-        <v>620</v>
-      </c>
+      <c r="B220" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="22"/>
       <c r="B221" s="22" t="s">
-        <v>621</v>
+        <v>878</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>622</v>
+        <v>877</v>
       </c>
       <c r="D221" s="24"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="22"/>
-      <c r="B222" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C222" s="23" t="s">
-        <v>624</v>
-      </c>
-      <c r="D222" s="24"/>
+      <c r="B222" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="22"/>
       <c r="B223" s="22" t="s">
-        <v>625</v>
+        <v>899</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>626</v>
+        <v>900</v>
       </c>
       <c r="D223" s="24"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="22"/>
-      <c r="B224" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="C224" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="D224" s="24"/>
+      <c r="B224" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="22"/>
-      <c r="B225" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="C225" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="D225" s="24"/>
+      <c r="B225" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D225" s="2"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="22"/>
-      <c r="B226" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="C226" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="D226" s="24" t="s">
-        <v>633</v>
+      <c r="A226" s="4">
+        <v>1</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="22"/>
-      <c r="B227" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="C227" s="23" t="s">
-        <v>635</v>
-      </c>
-      <c r="D227" s="24"/>
+      <c r="B227" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="22"/>
-      <c r="B228" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="C228" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="D228" s="24"/>
+      <c r="B228" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="22"/>
-      <c r="B229" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="C229" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="D229" s="24"/>
+      <c r="B229" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="22"/>
-      <c r="B230" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="C230" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="D230" s="24"/>
+      <c r="B230" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D230" s="2"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="22"/>
-      <c r="B231" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="C231" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D231" s="24" t="s">
-        <v>644</v>
+      <c r="B231" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="22"/>
-      <c r="B232" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="C232" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="D232" s="24"/>
+      <c r="B232" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D232" s="2"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="22"/>
-      <c r="B233" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="C233" s="23" t="s">
-        <v>648</v>
-      </c>
-      <c r="D233" s="24"/>
+      <c r="A233" s="4">
+        <v>1</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="22"/>
-      <c r="B234" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="C234" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="D234" s="24"/>
+      <c r="B234" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="22"/>
-      <c r="B235" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C235" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="D235" s="24" t="s">
-        <v>658</v>
-      </c>
+      <c r="B235" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D235" s="2"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="22"/>
-      <c r="B236" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="C236" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="D236" s="24"/>
+      <c r="B236" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="22"/>
-      <c r="B237" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="C237" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="D237" s="24"/>
+      <c r="B237" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="22"/>
       <c r="B238" s="22" t="s">
-        <v>666</v>
+        <v>728</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="D238" s="24"/>
+        <v>729</v>
+      </c>
+      <c r="D238" s="24" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="22"/>
-      <c r="B239" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="C239" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="D239" s="24"/>
+      <c r="B239" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="22"/>
-      <c r="B240" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="C240" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="D240" s="24"/>
+      <c r="B240" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="22"/>
-      <c r="B241" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="C241" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="D241" s="24"/>
+      <c r="A241" s="4">
+        <v>1</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="22"/>
-      <c r="B242" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="C242" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="D242" s="24"/>
+      <c r="B242" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D242" s="2"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="22"/>
-      <c r="B243" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="C243" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="D243" s="24"/>
+      <c r="B243" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="22"/>
-      <c r="B244" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="C244" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="D244" s="24" t="s">
-        <v>615</v>
-      </c>
+      <c r="B244" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D244" s="2"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="22"/>
-      <c r="B245" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="C245" s="23" t="s">
-        <v>683</v>
-      </c>
-      <c r="D245" s="24" t="s">
-        <v>683</v>
+      <c r="B245" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="22"/>
-      <c r="B246" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="C246" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="D246" s="24"/>
+      <c r="B246" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="22"/>
-      <c r="B247" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="C247" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="D247" s="24" t="s">
-        <v>689</v>
+      <c r="B247" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="22"/>
       <c r="B248" s="22" t="s">
-        <v>690</v>
+        <v>825</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>374</v>
+        <v>824</v>
       </c>
       <c r="D248" s="24"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="22"/>
-      <c r="B249" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="C249" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="D249" s="24"/>
+      <c r="B249" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="22"/>
-      <c r="B250" s="22" t="s">
-        <v>693</v>
-      </c>
-      <c r="C250" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="D250" s="24"/>
+      <c r="B250" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="22"/>
-      <c r="B251" s="22" t="s">
-        <v>695</v>
-      </c>
-      <c r="C251" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="D251" s="24"/>
+      <c r="B251" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="C252" s="23" t="s">
-        <v>698</v>
-      </c>
-      <c r="D252" s="24" t="s">
-        <v>383</v>
+      <c r="B252" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="22"/>
-      <c r="B253" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="C253" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D253" s="24" t="s">
-        <v>82</v>
+      <c r="B253" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="22"/>
-      <c r="B254" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="C254" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="D254" s="24" t="s">
-        <v>701</v>
+      <c r="A254" s="4">
+        <v>3</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="22"/>
-      <c r="B255" s="22" t="s">
-        <v>704</v>
-      </c>
-      <c r="C255" s="23" t="s">
-        <v>705</v>
-      </c>
-      <c r="D255" s="24"/>
+      <c r="B255" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="22"/>
-      <c r="B256" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="C256" s="23" t="s">
-        <v>707</v>
-      </c>
-      <c r="D256" s="24" t="s">
-        <v>708</v>
+      <c r="B256" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="22"/>
-      <c r="B257" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="C257" s="23" t="s">
-        <v>710</v>
-      </c>
-      <c r="D257" s="24"/>
+      <c r="B257" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="22"/>
       <c r="B258" s="22" t="s">
-        <v>711</v>
+        <v>871</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>712</v>
+        <v>872</v>
       </c>
       <c r="D258" s="24" t="s">
-        <v>712</v>
+        <v>113</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="22"/>
-      <c r="B259" s="22" t="s">
-        <v>713</v>
-      </c>
-      <c r="C259" s="23" t="s">
-        <v>714</v>
-      </c>
-      <c r="D259" s="24" t="s">
-        <v>714</v>
-      </c>
+      <c r="B259" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="22"/>
       <c r="B260" s="22" t="s">
-        <v>717</v>
+        <v>621</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D260" s="24" t="s">
-        <v>718</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D260" s="24"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="22"/>
-      <c r="B261" s="22" t="s">
-        <v>720</v>
-      </c>
-      <c r="C261" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="D261" s="24"/>
+      <c r="B261" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="22"/>
-      <c r="B262" s="22" t="s">
-        <v>723</v>
+      <c r="B262" s="25" t="s">
+        <v>817</v>
       </c>
       <c r="C262" s="23" t="s">
-        <v>721</v>
-      </c>
-      <c r="D262" s="24" t="s">
-        <v>722</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="D262" s="24"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="22"/>
-      <c r="B263" s="22" t="s">
-        <v>726</v>
-      </c>
-      <c r="C263" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="D263" s="24" t="s">
-        <v>701</v>
+      <c r="A263" s="4">
+        <v>1</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="22"/>
-      <c r="B264" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="C264" s="23" t="s">
-        <v>729</v>
-      </c>
-      <c r="D264" s="24"/>
+      <c r="B264" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="22"/>
-      <c r="B265" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="C265" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="D265" s="24" t="s">
-        <v>732</v>
+      <c r="B265" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="22"/>
-      <c r="B266" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="C266" s="23" t="s">
-        <v>736</v>
-      </c>
-      <c r="D266" s="24" t="s">
-        <v>737</v>
-      </c>
+      <c r="B266" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="22"/>
-      <c r="B267" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="C267" s="23" t="s">
-        <v>739</v>
-      </c>
-      <c r="D267" s="24"/>
+      <c r="B267" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D267" s="2"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="22"/>
-      <c r="B268" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="C268" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D268" s="24"/>
+      <c r="B268" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D268" s="2"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="22"/>
-      <c r="B269" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="C269" s="23" t="s">
-        <v>743</v>
-      </c>
-      <c r="D269" s="24" t="s">
-        <v>744</v>
-      </c>
+      <c r="B269" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D269" s="2"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="22"/>
-      <c r="B270" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="C270" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="D270" s="24"/>
+      <c r="B270" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D270" s="2"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="22"/>
-      <c r="B271" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="C271" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="D271" s="24"/>
+      <c r="B271" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="22"/>
-      <c r="B272" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="C272" s="23" t="s">
-        <v>750</v>
-      </c>
-      <c r="D272" s="24" t="s">
-        <v>751</v>
+      <c r="B272" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="22"/>
-      <c r="B273" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="C273" s="23" t="s">
-        <v>753</v>
-      </c>
-      <c r="D273" s="24"/>
+      <c r="B273" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="22"/>
-      <c r="B274" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="C274" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>755</v>
+      <c r="B274" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="22"/>
-      <c r="B275" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="C275" s="23" t="s">
-        <v>761</v>
-      </c>
-      <c r="D275" s="24" t="s">
-        <v>762</v>
+      <c r="B275" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="22"/>
-      <c r="B276" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="C276" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="D276" s="24"/>
+      <c r="B276" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="22"/>
       <c r="B277" s="22" t="s">
-        <v>765</v>
+        <v>879</v>
       </c>
       <c r="C277" s="23" t="s">
-        <v>766</v>
+        <v>880</v>
       </c>
       <c r="D277" s="24"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="22"/>
-      <c r="B278" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="C278" s="23" t="s">
-        <v>768</v>
-      </c>
-      <c r="D278" s="24"/>
+      <c r="B278" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="22"/>
-      <c r="B279" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="C279" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="D279" s="24" t="s">
-        <v>773</v>
+      <c r="B279" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="22"/>
-      <c r="B280" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="C280" s="23" t="s">
-        <v>776</v>
-      </c>
-      <c r="D280" s="24" t="s">
-        <v>775</v>
-      </c>
+      <c r="B280" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="22"/>
-      <c r="B281" s="22" t="s">
-        <v>777</v>
-      </c>
-      <c r="C281" s="23" t="s">
-        <v>776</v>
-      </c>
-      <c r="D281" s="24"/>
+      <c r="B281" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="22"/>
-      <c r="B282" s="22" t="s">
-        <v>778</v>
-      </c>
-      <c r="C282" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="D282" s="24"/>
+      <c r="B282" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="22"/>
-      <c r="B283" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="C283" s="23" t="s">
-        <v>781</v>
-      </c>
-      <c r="D283" s="24"/>
+      <c r="B283" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="22"/>
-      <c r="B284" s="22" t="s">
-        <v>782</v>
-      </c>
-      <c r="C284" s="23" t="s">
-        <v>783</v>
-      </c>
-      <c r="D284" s="24"/>
+      <c r="B284" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="22"/>
-      <c r="B285" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="C285" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="D285" s="24" t="s">
-        <v>773</v>
+      <c r="A285" s="4">
+        <v>1</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="22"/>
-      <c r="B286" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="C286" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="D286" s="24" t="s">
-        <v>788</v>
-      </c>
+      <c r="B286" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D286" s="2"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="22"/>
-      <c r="B287" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="C287" s="23" t="s">
-        <v>790</v>
-      </c>
-      <c r="D287" s="24"/>
+      <c r="B287" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="22"/>
-      <c r="B288" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="C288" s="23" t="s">
-        <v>795</v>
-      </c>
-      <c r="D288" s="24" t="s">
-        <v>796</v>
-      </c>
+      <c r="B288" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D288" s="2"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="22"/>
-      <c r="B289" s="22" t="s">
-        <v>797</v>
-      </c>
-      <c r="C289" s="23" t="s">
-        <v>811</v>
-      </c>
-      <c r="D289" s="24" t="s">
-        <v>798</v>
-      </c>
+      <c r="B289" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D289" s="2"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="22"/>
-      <c r="B290" s="22" t="s">
-        <v>799</v>
-      </c>
-      <c r="C290" s="23" t="s">
-        <v>801</v>
-      </c>
-      <c r="D290" s="24" t="s">
-        <v>800</v>
+      <c r="B290" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="22"/>
-      <c r="B291" s="22" t="s">
-        <v>802</v>
+      <c r="B291" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C291" s="23" t="s">
-        <v>803</v>
+        <v>184</v>
       </c>
       <c r="D291" s="24"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="22"/>
-      <c r="B292" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="C292" s="23" t="s">
-        <v>805</v>
-      </c>
-      <c r="D292" s="24"/>
+      <c r="B292" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="22"/>
-      <c r="B293" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="C293" s="23" t="s">
-        <v>807</v>
-      </c>
-      <c r="D293" s="24"/>
+      <c r="B293" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="22"/>
-      <c r="B294" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="C294" s="23" t="s">
-        <v>790</v>
-      </c>
-      <c r="D294" s="24"/>
+      <c r="B294" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D294" s="2"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="22"/>
-      <c r="B295" s="22" t="s">
-        <v>809</v>
-      </c>
-      <c r="C295" s="23" t="s">
-        <v>810</v>
-      </c>
-      <c r="D295" s="24"/>
+      <c r="B295" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="22"/>
-      <c r="B296" s="22" t="s">
-        <v>812</v>
-      </c>
-      <c r="C296" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>813</v>
-      </c>
+      <c r="B296" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="22"/>
+      <c r="B297" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="C297" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="D297" s="24"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="22"/>
+      <c r="B298" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="C298" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="D298" s="24"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B299" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B300" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B301" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B302" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B303" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B304" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="22"/>
+      <c r="B305" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="C305" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="D305" s="24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B306" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B308" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B309" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="4">
+        <v>1</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B311" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B312" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B313" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B314" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="22"/>
+      <c r="B315" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="C315" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="D315" s="24"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B316" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="22"/>
+      <c r="B317" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C317" s="23" t="s">
+        <v>893</v>
+      </c>
+      <c r="D317" s="24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="4">
+        <v>1</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B319" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="4">
+        <v>1</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B321" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B322" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B323" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B324" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B325" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B326" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="4">
+        <v>1</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B328" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B330" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B331" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B332" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B333" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="4">
+        <v>2</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B335" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="22"/>
+      <c r="B336" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="C336" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="D336" s="24" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B337" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="22"/>
+      <c r="B338" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="C338" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="D338" s="24"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="22"/>
+      <c r="B340" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="C340" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="D340" s="24"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B341" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B342" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B344" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C344" s="5"/>
+      <c r="D344" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C345" s="5"/>
+      <c r="D345" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="22"/>
+      <c r="B346" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="C346" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="D346" s="24"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="22"/>
+      <c r="B347" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="C347" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="D347" s="24"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="22"/>
+      <c r="B348" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="C348" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="D348" s="24"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="22"/>
+      <c r="B349" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="D349" s="24"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="22"/>
+      <c r="B350" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="C350" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="D350" s="24"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="22"/>
+      <c r="B351" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="C351" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="D351" s="24"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="22"/>
+      <c r="B352" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C352" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="D352" s="24"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="22"/>
+      <c r="B353" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="C353" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="D353" s="24"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="22"/>
+      <c r="B354" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="C354" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="D354" s="24"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="22"/>
+      <c r="B355" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="C355" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="D355" s="24"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="22"/>
+      <c r="B356" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="C356" s="23" t="s">
+        <v>924</v>
+      </c>
+      <c r="D356" s="24"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="22"/>
+      <c r="B357" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="C357" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="D357" s="24" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="22"/>
+      <c r="B358" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="C358" s="23" t="s">
+        <v>929</v>
+      </c>
+      <c r="D358" s="24"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="22"/>
+      <c r="B359" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="C359" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="D359" s="24"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="22"/>
+      <c r="B360" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="C360" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="D360" s="24"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="22"/>
+      <c r="B361" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="C361" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="D361" s="24"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="22"/>
+      <c r="B362" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="C362" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="D362" s="24"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="22"/>
+      <c r="B363" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="C363" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="D363" s="24"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="22"/>
+      <c r="B364" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="C364" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="D364" s="24" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="22"/>
+      <c r="B365" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="C365" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="D365" s="24"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="22"/>
+      <c r="B366" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="C366" s="23" t="s">
+        <v>945</v>
+      </c>
+      <c r="D366" s="24"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="22"/>
+      <c r="B367" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C367" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="D367" s="24"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="22"/>
+      <c r="B368" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="C368" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="D368" s="24"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="22"/>
+      <c r="B369" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="C369" s="23" t="s">
+        <v>951</v>
+      </c>
+      <c r="D369" s="24"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="22"/>
+      <c r="B370" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="C370" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="D370" s="24"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="22"/>
+      <c r="B371" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="C371" s="23" t="s">
+        <v>955</v>
+      </c>
+      <c r="D371" s="24"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="22"/>
+      <c r="B372" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="C372" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="D372" s="24"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="22"/>
+      <c r="B373" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="C373" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D373" s="24"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="22"/>
+      <c r="B374" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="C374" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="D374" s="24" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="22"/>
+      <c r="B375" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="C375" s="23" t="s">
+        <v>963</v>
+      </c>
+      <c r="D375" s="24"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="22"/>
+      <c r="B376" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="C376" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="D376" s="24"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="22"/>
+      <c r="B377" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="C377" s="23" t="s">
+        <v>967</v>
+      </c>
+      <c r="D377" s="24"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="22"/>
+      <c r="B378" s="22" t="s">
+        <v>968</v>
+      </c>
+      <c r="C378" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="D378" s="24"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="22"/>
+      <c r="B379" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="C379" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="D379" s="24"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="22"/>
+      <c r="B380" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="C380" s="23" t="s">
+        <v>973</v>
+      </c>
+      <c r="D380" s="24"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="22"/>
+      <c r="B381" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="C381" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="D381" s="24"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="22"/>
+      <c r="B382" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="C382" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="D382" s="24" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="22"/>
+      <c r="B383" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="C383" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="D383" s="24"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="22"/>
+      <c r="B384" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="C384" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="D384" s="24"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="22"/>
+      <c r="B385" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="C385" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="D385" s="24"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="22"/>
+      <c r="B386" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="C386" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="D386" s="24"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="22"/>
+      <c r="B387" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="C387" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="D387" s="24"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="22"/>
+      <c r="B388" s="22" t="s">
+        <v>988</v>
+      </c>
+      <c r="C388" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="D388" s="24"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="22"/>
+      <c r="B389" s="22" t="s">
+        <v>990</v>
+      </c>
+      <c r="C389" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="D389" s="24"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="22"/>
+      <c r="B390" s="22" t="s">
+        <v>992</v>
+      </c>
+      <c r="C390" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="D390" s="24"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="22"/>
+      <c r="B391" s="22" t="s">
+        <v>993</v>
+      </c>
+      <c r="C391" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="D391" s="24"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="22"/>
+      <c r="B392" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="C392" s="23" t="s">
+        <v>996</v>
+      </c>
+      <c r="D392" s="24"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="22"/>
+      <c r="B393" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C393" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="D393" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B262" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
+    <hyperlink ref="B315" r:id="rId2" location="Chinese" tooltip="炙" display="https://en.wiktionary.org/wiki/%E7%82%99 - Chinese" xr:uid="{3B2915AD-EB41-4981-A81B-13043D1ACD90}"/>
+    <hyperlink ref="B13" r:id="rId3" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
+    <hyperlink ref="B6" r:id="rId4" location="Chinese" tooltip="拍" display="https://en.wiktionary.org/wiki/%E6%8B%8D - Chinese" xr:uid="{4720F63B-AB11-46A2-B0DB-301C28EB4467}"/>
+    <hyperlink ref="B305" r:id="rId5" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
+    <hyperlink ref="B152" r:id="rId6" location="Chinese" tooltip="曲" display="https://en.wiktionary.org/wiki/%E6%9B%B2 - Chinese" xr:uid="{EA3B65E7-2053-4AE2-92E5-0446FF2C2C24}"/>
+    <hyperlink ref="B143" r:id="rId7" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
+    <hyperlink ref="B182" r:id="rId8" location="Chinese" tooltip="弩" display="https://en.wiktionary.org/wiki/%E5%BC%A9 - Chinese" xr:uid="{BC88329A-0225-48C8-9840-6DFBB20087F4}"/>
+    <hyperlink ref="B291" r:id="rId9" location="Chinese" tooltip="烏" display="https://en.wiktionary.org/wiki/%E7%83%8F - Chinese" xr:uid="{50BC03FC-8827-4C4E-BE29-75698A3D776E}"/>
+    <hyperlink ref="B43" r:id="rId10" location="Chinese" tooltip="獐" display="https://en.wiktionary.org/wiki/%E7%8D%90 - Chinese" xr:uid="{B2F710A0-F1D7-4D0E-B970-C71BD1159FE0}"/>
+    <hyperlink ref="B297" r:id="rId11" tooltip="挖" display="https://en.wiktionary.org/wiki/%E6%8C%96" xr:uid="{9E027813-4ED7-4788-8449-1A2B1185B401}"/>
+    <hyperlink ref="B340" r:id="rId12" location="Chinese" tooltip="嫌" display="https://en.wiktionary.org/wiki/%E5%AB%8C - Chinese" xr:uid="{715ACB68-9DD0-4FCC-92ED-0DEB24C8B46C}"/>
+    <hyperlink ref="B54" r:id="rId13" location="Chinese" tooltip="散" display="https://en.wiktionary.org/wiki/%E6%95%A3 - Chinese" xr:uid="{78494AF0-E2B4-49A8-9327-42D21549AE0F}"/>
+    <hyperlink ref="B130" r:id="rId14" location="Chinese" tooltip="狗" display="https://en.wiktionary.org/wiki/%E7%8B%97 - Chinese" xr:uid="{6673E652-C2C0-40D1-B778-8BC7868C8253}"/>
+    <hyperlink ref="B145" r:id="rId15" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
+    <hyperlink ref="B77" r:id="rId16" location="Chinese" tooltip="渴" display="https://en.wiktionary.org/wiki/%E6%B8%B4 - Chinese" xr:uid="{BA50169C-CC12-4B8B-897A-538C7836FD04}"/>
+    <hyperlink ref="B174" r:id="rId17" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
+    <hyperlink ref="B64" r:id="rId18" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
+    <hyperlink ref="B120" r:id="rId19" location="Chinese" tooltip="攪" display="https://en.wiktionary.org/wiki/%E6%94%AA - Chinese" xr:uid="{EC616AFB-DFE3-464E-8578-12AFEA4E414A}"/>
+    <hyperlink ref="B347" r:id="rId20" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
+    <hyperlink ref="B366" r:id="rId21" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
+    <hyperlink ref="B381" r:id="rId22" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6887,16 +8425,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6932,27 +8470,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>493</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -6965,10 +8503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9E2CE-C9AF-4C2A-A516-EDCC9ADFAFC1}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -6982,16 +8520,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7075,359 +8613,377 @@
         <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>271</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C34" s="26" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25" t="s">
+      <c r="D35" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>656</v>
-      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>661</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25" t="s">
-        <v>670</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>671</v>
+      <c r="B37" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25" t="s">
-        <v>758</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>759</v>
+      <c r="B38" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>771</v>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="24"/>
+      <c r="B40" s="26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="24"/>
+      <c r="B41" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -7455,13 +9011,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -7469,55 +9025,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -7525,100 +9081,100 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -7656,49 +9212,49 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D9" s="13"/>
     </row>

--- a/qmuen.xlsx
+++ b/qmuen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lap trinh\QMun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853DDCB-5C94-45D1-8A02-61C9C63CC491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A8BE2-8112-4C1A-8E15-34C866089EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" activeTab="2" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1187">
   <si>
     <t>一</t>
   </si>
@@ -817,9 +817,6 @@
     <t>沸</t>
   </si>
   <si>
-    <t>beis</t>
-  </si>
-  <si>
     <t>父</t>
   </si>
   <si>
@@ -3053,6 +3050,546 @@
   </si>
   <si>
     <t>kuăngd,kôngd</t>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>huil</t>
+  </si>
+  <si>
+    <t>賊</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>塞</t>
+  </si>
+  <si>
+    <t>săks</t>
+  </si>
+  <si>
+    <t>săkl</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>屄</t>
+  </si>
+  <si>
+    <t>bic</t>
+  </si>
+  <si>
+    <t>把</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>束</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+  <si>
+    <t>鉢</t>
+  </si>
+  <si>
+    <t>殻</t>
+  </si>
+  <si>
+    <t>khul</t>
+  </si>
+  <si>
+    <t>毞</t>
+  </si>
+  <si>
+    <t>hình thanh: 比毛</t>
+  </si>
+  <si>
+    <t>bveis</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>youh</t>
+  </si>
+  <si>
+    <t>泡</t>
+  </si>
+  <si>
+    <t>biaux</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>khoib</t>
+  </si>
+  <si>
+    <t>hoib</t>
+  </si>
+  <si>
+    <t>游</t>
+  </si>
+  <si>
+    <t>kiouh</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>zauh</t>
+  </si>
+  <si>
+    <t>準</t>
+  </si>
+  <si>
+    <t>cănd</t>
+  </si>
+  <si>
+    <t>滅</t>
+  </si>
+  <si>
+    <t>mêtc</t>
+  </si>
+  <si>
+    <t>照</t>
+  </si>
+  <si>
+    <t>cius</t>
+  </si>
+  <si>
+    <t>爬</t>
+  </si>
+  <si>
+    <t>phôl</t>
+  </si>
+  <si>
+    <t>牙</t>
+  </si>
+  <si>
+    <t>nhah</t>
+  </si>
+  <si>
+    <t>犁</t>
+  </si>
+  <si>
+    <t>giăih</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>meur,mauh</t>
+  </si>
+  <si>
+    <t>痹</t>
+  </si>
+  <si>
+    <t>砍</t>
+  </si>
+  <si>
+    <t>khŭmz</t>
+  </si>
+  <si>
+    <t>碗</t>
+  </si>
+  <si>
+    <t>wănd</t>
+  </si>
+  <si>
+    <t>bval</t>
+  </si>
+  <si>
+    <t>糧</t>
+  </si>
+  <si>
+    <t>guangh</t>
+  </si>
+  <si>
+    <t>穩</t>
+  </si>
+  <si>
+    <t>wŏnd</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>khungz</t>
+  </si>
+  <si>
+    <t>hŏngl</t>
+  </si>
+  <si>
+    <t>算</t>
+  </si>
+  <si>
+    <t>sŭns</t>
+  </si>
+  <si>
+    <t>粕</t>
+  </si>
+  <si>
+    <t>糞</t>
+  </si>
+  <si>
+    <t>fŏns</t>
+  </si>
+  <si>
+    <t>緊</t>
+  </si>
+  <si>
+    <t>xĕnd</t>
+  </si>
+  <si>
+    <t>澡</t>
+  </si>
+  <si>
+    <t>daus</t>
+  </si>
+  <si>
+    <t>濃</t>
+  </si>
+  <si>
+    <t>nŭngh</t>
+  </si>
+  <si>
+    <t>腥</t>
+  </si>
+  <si>
+    <t>dingl</t>
+  </si>
+  <si>
+    <t>膿</t>
+  </si>
+  <si>
+    <t>nŭngc</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>芉</t>
+  </si>
+  <si>
+    <t>ganr</t>
+  </si>
+  <si>
+    <t>hình thanh: 艸干</t>
+  </si>
+  <si>
+    <t>壞</t>
+  </si>
+  <si>
+    <t>hôc</t>
+  </si>
+  <si>
+    <t>菴</t>
+  </si>
+  <si>
+    <t>蓋</t>
+  </si>
+  <si>
+    <t>gais</t>
+  </si>
+  <si>
+    <t>bvis</t>
+  </si>
+  <si>
+    <t>葱</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>褲</t>
+  </si>
+  <si>
+    <t>khuaz</t>
+  </si>
+  <si>
+    <t>裙</t>
+  </si>
+  <si>
+    <t>cŭnh</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>căid,kaid</t>
+  </si>
+  <si>
+    <t>買</t>
+  </si>
+  <si>
+    <t>maix</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>luc</t>
+  </si>
+  <si>
+    <t>kaid</t>
+  </si>
+  <si>
+    <t>跿</t>
+  </si>
+  <si>
+    <t>săus</t>
+  </si>
+  <si>
+    <t>hình thanh: 艸奄</t>
+  </si>
+  <si>
+    <t>hình thanh: 足走;hội ý: đôi chân thích chạy nhảy</t>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>sĭnl</t>
+  </si>
+  <si>
+    <t>sănl</t>
+  </si>
+  <si>
+    <t>輸</t>
+  </si>
+  <si>
+    <t>seil</t>
+  </si>
+  <si>
+    <t>郎</t>
+  </si>
+  <si>
+    <t>langh</t>
+  </si>
+  <si>
+    <t>翻</t>
+  </si>
+  <si>
+    <t>plănc,fanr,bănc</t>
+  </si>
+  <si>
+    <t>針</t>
+  </si>
+  <si>
+    <t>sĭml</t>
+  </si>
+  <si>
+    <t>捏</t>
+  </si>
+  <si>
+    <t>nepr</t>
+  </si>
+  <si>
+    <t>鋼</t>
+  </si>
+  <si>
+    <t>kongr</t>
+  </si>
+  <si>
+    <t>鑽</t>
+  </si>
+  <si>
+    <t>sŭnl</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>goil,khoil</t>
+  </si>
+  <si>
+    <t>hoil</t>
+  </si>
+  <si>
+    <t>閑</t>
+  </si>
+  <si>
+    <t>hênh</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>kuanr</t>
+  </si>
+  <si>
+    <t>kŏnr,kuanr</t>
+  </si>
+  <si>
+    <t>零</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>songl</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>飽</t>
+  </si>
+  <si>
+    <t>pêud</t>
+  </si>
+  <si>
+    <t>鴉</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>ur al</t>
+  </si>
+  <si>
+    <t>烏鴉</t>
+  </si>
+  <si>
+    <t>鴿</t>
+  </si>
+  <si>
+    <t>鵝</t>
+  </si>
+  <si>
+    <t>ngah</t>
+  </si>
+  <si>
+    <t>齊</t>
+  </si>
+  <si>
+    <t>doih,xăih</t>
+  </si>
+  <si>
+    <t>㚢</t>
+  </si>
+  <si>
+    <t>nhouh</t>
+  </si>
+  <si>
+    <t>hình thanh: 人女</t>
+  </si>
+  <si>
+    <t>㓓</t>
+  </si>
+  <si>
+    <t>năms</t>
+  </si>
+  <si>
+    <t>hình thanh: 氷南</t>
+  </si>
+  <si>
+    <t>萳</t>
+  </si>
+  <si>
+    <t>nomh</t>
+  </si>
+  <si>
+    <t>hình thanh: 艹南</t>
+  </si>
+  <si>
+    <t>㕥</t>
+  </si>
+  <si>
+    <t>nhĭnc</t>
+  </si>
+  <si>
+    <t>hình thanh: 口人</t>
+  </si>
+  <si>
+    <t>芥</t>
+  </si>
+  <si>
+    <t>kiais</t>
+  </si>
+  <si>
+    <t>䅤</t>
+  </si>
+  <si>
+    <t>chĭpl,thĭpl</t>
+  </si>
+  <si>
+    <t>䏤</t>
+  </si>
+  <si>
+    <t>hình thanh: 肉司</t>
+  </si>
+  <si>
+    <t>𠈠</t>
+  </si>
+  <si>
+    <t>nănh</t>
+  </si>
+  <si>
+    <t>hình thanh: 人年</t>
+  </si>
+  <si>
+    <t>𠖄</t>
+  </si>
+  <si>
+    <t>dŏngs</t>
+  </si>
+  <si>
+    <t>hình thanh: 冖同</t>
+  </si>
+  <si>
+    <t>𠱂</t>
+  </si>
+  <si>
+    <t>dutr</t>
+  </si>
+  <si>
+    <t>hình thanh: 口凸</t>
+  </si>
+  <si>
+    <t>鬧</t>
+  </si>
+  <si>
+    <t>nhaub</t>
+  </si>
+  <si>
+    <t>泵</t>
+  </si>
+  <si>
+    <t>pŭms</t>
+  </si>
+  <si>
+    <t>𡉿</t>
+  </si>
+  <si>
+    <t>mŏks</t>
+  </si>
+  <si>
+    <t>hình thanh: 土木</t>
+  </si>
+  <si>
+    <t>𡚼</t>
+  </si>
+  <si>
+    <t>zix</t>
+  </si>
+  <si>
+    <t>hình thanh: 女氏</t>
+  </si>
+  <si>
+    <t>㞌</t>
+  </si>
+  <si>
+    <t>teid</t>
+  </si>
+  <si>
+    <t>hình thanh: 尸子</t>
   </si>
 </sst>
 </file>
@@ -3299,14 +3836,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3894,10 +4431,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D393" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:D393" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D345">
-    <sortCondition ref="C1:C345"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D462" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D462" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D344">
+    <sortCondition ref="C1:C344"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="25"/>
@@ -3923,8 +4460,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:D41" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D56" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:D56" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{09378F0C-E887-4A25-8D92-F2E090F546FC}" name="常用度" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{C520B322-D4C5-499D-8776-6E4C84E0410B}" name="字" dataDxfId="8"/>
@@ -3936,8 +4473,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C18" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C18" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C19" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C19" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7AC3F4C8-5FD1-4214-9B7A-F689A5C70CEC}" name="常用度" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{064FDE33-43CB-4142-B2B2-693F96D35F89}" name="字" dataDxfId="1"/>
@@ -4244,10 +4781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C37EFB-A8EE-4DC7-8A99-5510C4649B02}">
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView topLeftCell="A454" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4262,16 +4799,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4299,13 +4836,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4313,111 +4850,107 @@
         <v>261</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>262</v>
+        <v>1026</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>781</v>
-      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
-        <v>883</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>753</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>448</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>823</v>
-      </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>805</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -4434,22 +4967,22 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4460,27 +4993,27 @@
         <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>783</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4499,10 +5032,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -4555,10 +5088,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -4575,13 +5108,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4601,7 +5134,7 @@
         <v>234</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>233</v>
@@ -4618,10 +5151,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -4647,28 +5180,28 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -4688,62 +5221,59 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>843</v>
-      </c>
-      <c r="D43" s="24"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>671</v>
-      </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="D46" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -4756,78 +5286,76 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>392</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>663</v>
-      </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="25" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="D54" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22" t="s">
-        <v>874</v>
-      </c>
-      <c r="C55" s="23" t="s">
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="D55" s="24"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>117</v>
       </c>
@@ -4838,102 +5366,99 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22" t="s">
-        <v>831</v>
-      </c>
-      <c r="C58" s="23" t="s">
+      <c r="D58" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>694</v>
-      </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="D64" s="24"/>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -4948,28 +5473,28 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -4981,7 +5506,7 @@
         <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4995,18 +5520,18 @@
         <v>65</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -5017,7 +5542,7 @@
         <v>232</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5031,7 +5556,7 @@
         <v>80</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -5044,14 +5569,13 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D77" s="24"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
@@ -5072,34 +5596,33 @@
         <v>218</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>639</v>
-      </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="D81" s="24"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -5129,68 +5652,67 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="C85" s="23" t="s">
+      <c r="B85" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>504</v>
+      <c r="C85" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -5204,80 +5726,76 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>735</v>
-      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="C94" s="23" t="s">
-        <v>902</v>
-      </c>
-      <c r="D94" s="24"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="C97" s="23" t="s">
-        <v>885</v>
-      </c>
-      <c r="D97" s="24"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22" t="s">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="D98" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="D98" s="24" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>142</v>
       </c>
@@ -5288,34 +5806,34 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>708</v>
-      </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>203</v>
       </c>
@@ -5326,7 +5844,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
         <v>109</v>
       </c>
@@ -5335,71 +5853,69 @@
       </c>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="C105" s="23" t="s">
-        <v>904</v>
-      </c>
-      <c r="D105" s="24"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="4" t="s">
+      <c r="C109" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>712</v>
-      </c>
       <c r="D109" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="D110" s="24"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
         <v>145</v>
       </c>
@@ -5410,32 +5926,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -5469,74 +5985,73 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>725</v>
-      </c>
       <c r="D117" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>890</v>
-      </c>
-      <c r="D120" s="24"/>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="D121" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,7 +6067,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>120</v>
@@ -5572,48 +6087,47 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="22"/>
-      <c r="B130" s="25" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="D130" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>201</v>
       </c>
@@ -5622,7 +6136,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>154</v>
       </c>
@@ -5633,7 +6147,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>102</v>
       </c>
@@ -5644,7 +6158,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>254</v>
       </c>
@@ -5655,67 +6169,67 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B137" s="4" t="s">
+      <c r="C137" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="D138" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>219</v>
       </c>
@@ -5724,62 +6238,59 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="22"/>
-      <c r="B143" s="25" t="s">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="C143" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="D143" s="24"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>703</v>
-      </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="22"/>
-      <c r="B145" s="25" t="s">
+      <c r="B145" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="D145" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="D145" s="24" t="s">
-        <v>859</v>
-      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="C146" s="23" t="s">
-        <v>827</v>
-      </c>
-      <c r="D146" s="24"/>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -5799,7 +6310,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>34</v>
@@ -5808,92 +6319,90 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="22"/>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C151" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D151" s="24"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="22"/>
-      <c r="B152" s="25" t="s">
+      <c r="B152" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="D152" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>551</v>
-      </c>
       <c r="D154" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>547</v>
-      </c>
       <c r="D156" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -5913,13 +6422,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -5981,19 +6490,19 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -6005,7 +6514,7 @@
         <v>260</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -6021,87 +6530,86 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="D173" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="22"/>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="C174" s="23" t="s">
-        <v>876</v>
-      </c>
-      <c r="D174" s="24"/>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="D175" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C177" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,42 +6624,40 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="22"/>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="C179" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="D179" s="24"/>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>807</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="22"/>
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C182" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="D182" s="24"/>
+      <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
@@ -6177,7 +6683,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>129</v>
@@ -6188,19 +6694,19 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B187" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -6231,19 +6737,19 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="D191" s="2"/>
     </row>
@@ -6260,34 +6766,33 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="22"/>
-      <c r="B194" s="22" t="s">
+      <c r="B194" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="C194" s="23" t="s">
-        <v>898</v>
-      </c>
-      <c r="D194" s="24"/>
+      <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>316</v>
-      </c>
       <c r="D195" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -6306,19 +6811,19 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -6333,7 +6838,7 @@
         <v>97</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -6375,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -6394,80 +6899,79 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C204" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>374</v>
-      </c>
       <c r="D204" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="22"/>
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="C205" s="23" t="s">
-        <v>864</v>
-      </c>
-      <c r="D205" s="24"/>
+      <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C206" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>803</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B207" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B208" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C208" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="D208" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C210" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="D210" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B211" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C211" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -6484,35 +6988,35 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B213" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>553</v>
-      </c>
       <c r="D213" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B214" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="D214" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B215" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="D215" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -6545,40 +7049,39 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>644</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B219" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C219" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C220" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>591</v>
-      </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="22"/>
-      <c r="B221" s="22" t="s">
-        <v>878</v>
-      </c>
-      <c r="C221" s="23" t="s">
+      <c r="B221" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="D221" s="24"/>
+      <c r="C221" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
@@ -6592,30 +7095,29 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="22"/>
-      <c r="B223" s="22" t="s">
+      <c r="B223" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="C223" s="23" t="s">
-        <v>900</v>
-      </c>
-      <c r="D223" s="24"/>
+      <c r="D223" s="2"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B225" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C225" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -6635,22 +7137,22 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C228" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="D228" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -6666,7 +7168,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>138</v>
@@ -6675,21 +7177,21 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="D231" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C232" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="D232" s="2"/>
     </row>
@@ -6720,358 +7222,351 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B235" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="D235" s="2"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B236" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C236" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="D236" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B237" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="D237" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>730</v>
-      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="22"/>
-      <c r="B238" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="C238" s="23" t="s">
-        <v>729</v>
-      </c>
-      <c r="D238" s="24" t="s">
-        <v>730</v>
+      <c r="B238" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B239" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>1</v>
+      </c>
       <c r="B240" s="4" t="s">
-        <v>309</v>
+        <v>89</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>308</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="4">
-        <v>1</v>
-      </c>
       <c r="B241" s="4" t="s">
-        <v>89</v>
+        <v>683</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D241" s="2"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B242" s="4" t="s">
-        <v>684</v>
+        <v>495</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D242" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B243" s="4" t="s">
-        <v>496</v>
+        <v>386</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>500</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D243" s="2"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B244" s="4" t="s">
-        <v>387</v>
+        <v>494</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D244" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B245" s="4" t="s">
-        <v>495</v>
+        <v>290</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>498</v>
+        <v>291</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
-        <v>291</v>
+        <v>421</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>292</v>
+        <v>422</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>293</v>
+        <v>423</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B247" s="4" t="s">
-        <v>422</v>
+        <v>824</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>424</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="D247" s="2"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="22"/>
-      <c r="B248" s="22" t="s">
-        <v>825</v>
-      </c>
-      <c r="C248" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="D248" s="24"/>
+      <c r="B248" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
-        <v>492</v>
+        <v>181</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>493</v>
+        <v>182</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>494</v>
+        <v>182</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B250" s="4" t="s">
-        <v>181</v>
+        <v>606</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="D250" s="2"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="4" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D251" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
-        <v>616</v>
+        <v>270</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>617</v>
+        <v>271</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>618</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>3</v>
+      </c>
       <c r="B253" s="4" t="s">
-        <v>271</v>
+        <v>88</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>273</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="4">
-        <v>3</v>
-      </c>
       <c r="B254" s="4" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D254" s="2"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B255" s="4" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D255" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B256" s="4" t="s">
-        <v>304</v>
+        <v>624</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="D256" s="2"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B257" s="4" t="s">
-        <v>625</v>
+        <v>870</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="D257" s="2"/>
+        <v>871</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="22"/>
-      <c r="B258" s="22" t="s">
-        <v>871</v>
-      </c>
-      <c r="C258" s="23" t="s">
-        <v>872</v>
-      </c>
-      <c r="D258" s="24" t="s">
-        <v>113</v>
-      </c>
+      <c r="B258" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B259" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B260" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B261" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>1</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B263" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="22"/>
-      <c r="B260" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="C260" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="D260" s="24"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B261" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="22"/>
-      <c r="B262" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="C262" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="D262" s="24"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="4">
-        <v>1</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="C263" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="D263" s="2"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B264" s="4" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D264" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B265" s="4" t="s">
-        <v>611</v>
+        <v>288</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>613</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B266" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B267" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D267" s="2"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B268" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>295</v>
@@ -7080,583 +7575,578 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B269" s="4" t="s">
-        <v>297</v>
+        <v>604</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>296</v>
+        <v>605</v>
       </c>
       <c r="D269" s="2"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B270" s="4" t="s">
-        <v>605</v>
+        <v>236</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="D270" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B271" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B272" s="4" t="s">
-        <v>237</v>
+        <v>601</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>238</v>
+        <v>602</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B273" s="4" t="s">
-        <v>602</v>
+        <v>132</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>603</v>
+        <v>130</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>604</v>
+        <v>130</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B274" s="4" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B275" s="4" t="s">
-        <v>239</v>
+        <v>613</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D275" s="2"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B276" s="4" t="s">
-        <v>614</v>
+        <v>878</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>615</v>
+        <v>879</v>
       </c>
       <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="22"/>
-      <c r="B277" s="22" t="s">
-        <v>879</v>
-      </c>
-      <c r="C277" s="23" t="s">
-        <v>880</v>
-      </c>
-      <c r="D277" s="24"/>
+      <c r="B277" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B278" s="4" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D278" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B279" s="4" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D279" s="2"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B280" s="4" t="s">
-        <v>225</v>
+        <v>599</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>226</v>
+        <v>600</v>
       </c>
       <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B281" s="4" t="s">
-        <v>600</v>
+        <v>221</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>601</v>
+        <v>222</v>
       </c>
       <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B282" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B283" s="4" t="s">
-        <v>223</v>
+        <v>618</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>224</v>
+        <v>619</v>
       </c>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="4">
+        <v>1</v>
+      </c>
       <c r="B284" s="4" t="s">
-        <v>619</v>
+        <v>16</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D284" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="4">
-        <v>1</v>
-      </c>
       <c r="B285" s="4" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D285" s="2"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B286" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D286" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B287" s="4" t="s">
-        <v>174</v>
+        <v>608</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="D287" s="2"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B288" s="4" t="s">
-        <v>609</v>
+        <v>227</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>610</v>
+        <v>228</v>
       </c>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="4" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D289" s="2"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B290" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B290" s="22" t="s">
         <v>183</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="22"/>
-      <c r="B291" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C291" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D291" s="24"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B291" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" s="4" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D294" s="2"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" s="4" t="s">
-        <v>158</v>
+        <v>688</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B296" s="4" t="s">
         <v>689</v>
       </c>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B296" s="22" t="s">
+        <v>845</v>
+      </c>
       <c r="C296" s="5" t="s">
-        <v>690</v>
+        <v>847</v>
       </c>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="22"/>
-      <c r="B297" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="C297" s="23" t="s">
-        <v>848</v>
-      </c>
-      <c r="D297" s="24"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="22"/>
-      <c r="B298" s="22" t="s">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B297" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="C298" s="23" t="s">
-        <v>892</v>
-      </c>
-      <c r="D298" s="24"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B298" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" s="4" t="s">
-        <v>431</v>
+        <v>189</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" s="4" t="s">
-        <v>189</v>
+        <v>743</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="C301" s="5" t="s">
-        <v>745</v>
-      </c>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B303" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B303" s="4" t="s">
-        <v>776</v>
-      </c>
       <c r="C303" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B304" s="4" t="s">
         <v>747</v>
       </c>
+      <c r="D303" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B304" s="22" t="s">
+        <v>746</v>
+      </c>
       <c r="C304" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>749</v>
-      </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="22"/>
-      <c r="B305" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="C305" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="D305" s="24" t="s">
-        <v>749</v>
+      <c r="B305" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="4" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>141</v>
+        <v>444</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B307" s="4" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D307" s="2"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B308" s="4" t="s">
-        <v>429</v>
+        <v>560</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="D308" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="4">
+        <v>1</v>
+      </c>
       <c r="B309" s="4" t="s">
-        <v>561</v>
+        <v>85</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>562</v>
+        <v>86</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>563</v>
+        <v>87</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="4">
-        <v>1</v>
-      </c>
       <c r="B310" s="4" t="s">
-        <v>85</v>
+        <v>628</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>86</v>
+        <v>629</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>87</v>
+        <v>630</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B311" s="4" t="s">
-        <v>629</v>
+        <v>103</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>630</v>
+        <v>104</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>631</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B312" s="4" t="s">
-        <v>103</v>
+        <v>777</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B313" s="4" t="s">
-        <v>778</v>
+        <v>673</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>779</v>
+        <v>674</v>
       </c>
       <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B314" s="4" t="s">
+      <c r="B314" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="C314" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="C314" s="5" t="s">
-        <v>675</v>
-      </c>
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="22"/>
-      <c r="B315" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="C315" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="D315" s="24"/>
+      <c r="B315" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B316" s="4" t="s">
-        <v>685</v>
+        <v>91</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>686</v>
+        <v>892</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>687</v>
+        <v>533</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="22"/>
-      <c r="B317" s="22" t="s">
+      <c r="A317" s="4">
+        <v>1</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C317" s="23" t="s">
-        <v>893</v>
-      </c>
-      <c r="D317" s="24" t="s">
-        <v>534</v>
+      <c r="C317" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="4">
+      <c r="B318" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="4">
         <v>1</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B319" s="4" t="s">
-        <v>797</v>
+        <v>12</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>799</v>
+        <v>13</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>798</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="4">
-        <v>1</v>
-      </c>
       <c r="B320" s="4" t="s">
-        <v>12</v>
+        <v>675</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B321" s="4" t="s">
-        <v>676</v>
+        <v>582</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>677</v>
+        <v>583</v>
       </c>
       <c r="D321" s="2"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B322" s="4" t="s">
-        <v>583</v>
+        <v>191</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="D322" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B323" s="4" t="s">
-        <v>191</v>
+        <v>677</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>192</v>
+        <v>678</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>192</v>
+        <v>612</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B324" s="4" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>679</v>
+        <v>82</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>613</v>
+        <v>82</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -7664,40 +8154,40 @@
         <v>697</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>82</v>
+        <v>698</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>82</v>
+        <v>698</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>1</v>
+      </c>
       <c r="B326" s="4" t="s">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>699</v>
+        <v>1</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="4">
-        <v>1</v>
-      </c>
       <c r="B327" s="4" t="s">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>1</v>
+        <v>379</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B328" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>380</v>
@@ -7708,686 +8198,1338 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B329" s="4" t="s">
-        <v>375</v>
+        <v>694</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>381</v>
+        <v>695</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B330" s="4" t="s">
-        <v>695</v>
+        <v>375</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>696</v>
+        <v>377</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B331" s="4" t="s">
-        <v>376</v>
+        <v>762</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>379</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D331" s="2"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B332" s="4" t="s">
-        <v>763</v>
+        <v>553</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="D332" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="4">
+        <v>2</v>
+      </c>
       <c r="B333" s="4" t="s">
-        <v>554</v>
+        <v>78</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D333" s="5" t="s">
-        <v>555</v>
+        <v>81</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="4">
-        <v>2</v>
-      </c>
       <c r="B334" s="4" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B335" s="4" t="s">
-        <v>171</v>
+        <v>846</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>172</v>
+        <v>843</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>173</v>
+        <v>844</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="22"/>
-      <c r="B336" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="C336" s="23" t="s">
-        <v>844</v>
-      </c>
-      <c r="D336" s="24" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B336" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B337" s="4" t="s">
-        <v>770</v>
+        <v>819</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="22"/>
-      <c r="B338" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="C338" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="D338" s="24"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B339" s="4" t="s">
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="C338" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="22" t="s">
+        <v>848</v>
+      </c>
       <c r="C339" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="22"/>
-      <c r="B340" s="25" t="s">
         <v>849</v>
       </c>
-      <c r="C340" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="D340" s="24"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B341" s="4" t="s">
-        <v>581</v>
+        <v>448</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>582</v>
+        <v>449</v>
       </c>
       <c r="D341" s="2"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B342" s="4" t="s">
-        <v>449</v>
+        <v>679</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B343" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C343" s="5"/>
       <c r="D343" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B344" s="4" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B345" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C345" s="5"/>
-      <c r="D345" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="22"/>
+        <v>998</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B346" s="22" t="s">
-        <v>999</v>
-      </c>
-      <c r="C346" s="23" t="s">
         <v>905</v>
       </c>
-      <c r="D346" s="24"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="22"/>
-      <c r="B347" s="25" t="s">
+      <c r="C346" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="C347" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="D347" s="24"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="22"/>
-      <c r="B348" s="22" t="s">
+      <c r="C347" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="C348" s="23" t="s">
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B348" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D348" s="24"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="22"/>
-      <c r="B349" s="22" t="s">
+      <c r="C348" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="C349" s="23" t="s">
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B349" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="D349" s="24"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="22"/>
-      <c r="B350" s="22" t="s">
+      <c r="C349" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="C350" s="23" t="s">
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="D350" s="24"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" s="22"/>
-      <c r="B351" s="22" t="s">
+      <c r="C350" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="C351" s="23" t="s">
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="D351" s="24"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="22"/>
-      <c r="B352" s="22" t="s">
+      <c r="C351" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="C352" s="23" t="s">
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D352" s="24"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" s="22"/>
-      <c r="B353" s="22" t="s">
+      <c r="C352" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="C353" s="23" t="s">
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B353" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D353" s="24"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="22"/>
-      <c r="B354" s="22" t="s">
+      <c r="C353" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="C354" s="23" t="s">
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B354" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="D354" s="24"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="22"/>
-      <c r="B355" s="22" t="s">
+      <c r="C354" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="C355" s="23" t="s">
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B355" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D355" s="24"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="22"/>
-      <c r="B356" s="22" t="s">
+      <c r="C355" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="C356" s="23" t="s">
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B356" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="D356" s="24"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="22"/>
-      <c r="B357" s="22" t="s">
+      <c r="C356" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="C357" s="23" t="s">
+      <c r="D356" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="D357" s="24" t="s">
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B357" s="4" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" s="22"/>
-      <c r="B358" s="22" t="s">
+      <c r="C357" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="C358" s="23" t="s">
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B358" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="D358" s="24"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="22"/>
-      <c r="B359" s="22" t="s">
+      <c r="C358" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="C359" s="23" t="s">
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B359" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="D359" s="24"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="22"/>
-      <c r="B360" s="22" t="s">
+      <c r="C359" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="C360" s="23" t="s">
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B360" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="D360" s="24"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="22"/>
-      <c r="B361" s="22" t="s">
+      <c r="C360" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="C361" s="23" t="s">
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B361" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="D361" s="24"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="22"/>
-      <c r="B362" s="22" t="s">
+      <c r="C361" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="C362" s="23" t="s">
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B362" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="D362" s="24"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="22"/>
-      <c r="B363" s="22" t="s">
+      <c r="C362" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="C363" s="23" t="s">
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B363" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="D363" s="24"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="22"/>
-      <c r="B364" s="22" t="s">
+      <c r="C363" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="C364" s="23" t="s">
+      <c r="D363" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B364" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="D364" s="24" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="22"/>
+      <c r="C364" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B365" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="C365" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="D365" s="24"/>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="22"/>
-      <c r="B366" s="25" t="s">
+      <c r="C365" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="C366" s="23" t="s">
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B366" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="D366" s="24"/>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="22"/>
-      <c r="B367" s="22" t="s">
+      <c r="C366" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="C367" s="23" t="s">
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B367" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="D367" s="24"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="22"/>
-      <c r="B368" s="22" t="s">
+      <c r="C367" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="C368" s="23" t="s">
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B368" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="D368" s="24"/>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="22"/>
-      <c r="B369" s="22" t="s">
+      <c r="C368" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="C369" s="23" t="s">
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B369" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="D369" s="24"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="22"/>
-      <c r="B370" s="22" t="s">
+      <c r="C369" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="C370" s="23" t="s">
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="D370" s="24"/>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371" s="22"/>
-      <c r="B371" s="22" t="s">
+      <c r="C370" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="C371" s="23" t="s">
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B371" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D371" s="24"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372" s="22"/>
-      <c r="B372" s="22" t="s">
+      <c r="C371" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="C372" s="23" t="s">
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B372" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="D372" s="24"/>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="22"/>
-      <c r="B373" s="22" t="s">
+      <c r="C372" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B373" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="C373" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D373" s="24"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374" s="22"/>
-      <c r="B374" s="22" t="s">
+      <c r="C373" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="C374" s="23" t="s">
+      <c r="D373" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="D374" s="24" t="s">
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B374" s="4" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="22"/>
-      <c r="B375" s="22" t="s">
+      <c r="C374" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="C375" s="23" t="s">
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B375" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="D375" s="24"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" s="22"/>
-      <c r="B376" s="22" t="s">
+      <c r="C375" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="C376" s="23" t="s">
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B376" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="D376" s="24"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" s="22"/>
-      <c r="B377" s="22" t="s">
+      <c r="C376" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="C377" s="23" t="s">
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B377" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="D377" s="24"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="22"/>
-      <c r="B378" s="22" t="s">
+      <c r="C377" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="C378" s="23" t="s">
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B378" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="D378" s="24"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379" s="22"/>
-      <c r="B379" s="22" t="s">
+      <c r="C378" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="C379" s="23" t="s">
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B379" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="D379" s="24"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" s="22"/>
+      <c r="C379" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B380" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="C380" s="23" t="s">
         <v>973</v>
       </c>
-      <c r="D380" s="24"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" s="22"/>
-      <c r="B381" s="25" t="s">
+      <c r="C380" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="C381" s="23" t="s">
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B381" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="D381" s="24"/>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382" s="22"/>
-      <c r="B382" s="22" t="s">
+      <c r="C381" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="C382" s="23" t="s">
+      <c r="D381" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="D382" s="24" t="s">
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B382" s="4" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22" t="s">
+      <c r="C382" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="C383" s="23" t="s">
+      <c r="D382" s="2"/>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B383" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="D383" s="24"/>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384" s="22"/>
-      <c r="B384" s="22" t="s">
+      <c r="C383" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="C384" s="23" t="s">
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B384" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="D384" s="24"/>
+      <c r="C384" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D384" s="2"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" s="22"/>
-      <c r="B385" s="22" t="s">
+      <c r="B385" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="C385" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="D385" s="24"/>
+      <c r="C385" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="D385" s="2"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386" s="22"/>
-      <c r="B386" s="22" t="s">
-        <v>984</v>
-      </c>
-      <c r="C386" s="23" t="s">
+      <c r="B386" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D386" s="24"/>
+      <c r="C386" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="D386" s="2"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387" s="22"/>
-      <c r="B387" s="22" t="s">
-        <v>986</v>
-      </c>
-      <c r="C387" s="23" t="s">
+      <c r="B387" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="D387" s="24"/>
+      <c r="C387" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D387" s="2"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A388" s="22"/>
-      <c r="B388" s="22" t="s">
-        <v>988</v>
-      </c>
-      <c r="C388" s="23" t="s">
+      <c r="B388" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="D388" s="24"/>
+      <c r="C388" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D388" s="2"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" s="22"/>
-      <c r="B389" s="22" t="s">
-        <v>990</v>
-      </c>
-      <c r="C389" s="23" t="s">
+      <c r="B389" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="D389" s="24"/>
+      <c r="C389" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D389" s="2"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390" s="22"/>
-      <c r="B390" s="22" t="s">
+      <c r="B390" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="C390" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="D390" s="24"/>
+      <c r="C390" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D390" s="2"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391" s="22"/>
-      <c r="B391" s="22" t="s">
-        <v>993</v>
-      </c>
-      <c r="C391" s="23" t="s">
+      <c r="B391" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="D391" s="24"/>
+      <c r="C391" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D391" s="2"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" s="22"/>
-      <c r="B392" s="22" t="s">
-        <v>995</v>
-      </c>
-      <c r="C392" s="23" t="s">
+      <c r="B392" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="D392" s="24"/>
+      <c r="C392" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D392" s="2"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393" s="22"/>
-      <c r="B393" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="C393" s="23" t="s">
-        <v>998</v>
-      </c>
-      <c r="D393" s="24"/>
+      <c r="A393" s="23"/>
+      <c r="B393" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C393" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D393" s="25"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="23"/>
+      <c r="B394" s="23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C394" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D394" s="25"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="23"/>
+      <c r="B395" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C395" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D395" s="25"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="23"/>
+      <c r="B396" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C396" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D396" s="25"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="23"/>
+      <c r="B397" s="23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C397" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D397" s="25"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="23"/>
+      <c r="B398" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C398" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D398" s="25"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="23"/>
+      <c r="B399" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C399" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D399" s="25"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="23"/>
+      <c r="B400" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C400" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D400" s="25"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="23"/>
+      <c r="B401" s="23" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C401" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="D401" s="25"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="23"/>
+      <c r="B402" s="23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C402" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D402" s="25"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="23"/>
+      <c r="B403" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C403" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D403" s="25"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="23"/>
+      <c r="B404" s="23" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C404" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D404" s="25"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="23"/>
+      <c r="B405" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C405" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D405" s="25" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="23"/>
+      <c r="B406" s="23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C406" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D406" s="25"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="23"/>
+      <c r="B407" s="23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C407" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D407" s="25"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="23"/>
+      <c r="B408" s="23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C408" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D408" s="25"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="23"/>
+      <c r="B409" s="23" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C409" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D409" s="25"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="23"/>
+      <c r="B410" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="C410" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="D410" s="25"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="23"/>
+      <c r="B411" s="23" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C411" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D411" s="25"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="23"/>
+      <c r="B412" s="23" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C412" s="24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D412" s="25"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="23"/>
+      <c r="B413" s="23" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C413" s="24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D413" s="25"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="23"/>
+      <c r="B414" s="23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C414" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D414" s="25"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="23"/>
+      <c r="B415" s="23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C415" s="24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D415" s="25"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="23"/>
+      <c r="B416" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C416" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D416" s="25"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="23"/>
+      <c r="B417" s="23" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C417" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D417" s="25"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="23"/>
+      <c r="B418" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C418" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D418" s="25"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="23"/>
+      <c r="B419" s="23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C419" s="24" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D419" s="25"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="23"/>
+      <c r="B420" s="23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C420" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D420" s="25"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="23"/>
+      <c r="B421" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C421" s="24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D421" s="25" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="23"/>
+      <c r="B422" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C422" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D422" s="25"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="23"/>
+      <c r="B423" s="23" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C423" s="24" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D423" s="25"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="23"/>
+      <c r="B424" s="23" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C424" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D424" s="25"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="23"/>
+      <c r="B425" s="23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C425" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D425" s="25"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="23"/>
+      <c r="B426" s="23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C426" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D426" s="25"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="23"/>
+      <c r="B427" s="23" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C427" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D427" s="25"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="23"/>
+      <c r="B428" s="23" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C428" s="24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D428" s="25"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="23"/>
+      <c r="B429" s="23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C429" s="24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D429" s="25"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="23"/>
+      <c r="B430" s="23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C430" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D430" s="25"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="23"/>
+      <c r="B431" s="23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C431" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D431" s="25"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="23"/>
+      <c r="B432" s="23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C432" s="24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D432" s="25"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="23"/>
+      <c r="B433" s="23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C433" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D433" s="25"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="23"/>
+      <c r="B434" s="23" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C434" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D434" s="25"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="23"/>
+      <c r="B435" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C435" s="24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D435" s="25"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="23"/>
+      <c r="B436" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C436" s="24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D436" s="25"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="23"/>
+      <c r="B437" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C437" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D437" s="25" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="23"/>
+      <c r="B438" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C438" s="24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D438" s="25"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="23"/>
+      <c r="B439" s="23" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C439" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D439" s="25" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="23"/>
+      <c r="B440" s="23" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C440" s="24" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D440" s="25" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="23"/>
+      <c r="B441" s="23" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C441" s="24" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D441" s="25"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="23"/>
+      <c r="B442" s="23" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C442" s="24" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D442" s="25"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="23"/>
+      <c r="B443" s="23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C443" s="24" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D443" s="25"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="23"/>
+      <c r="B444" s="23" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C444" s="24" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D444" s="25"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="23"/>
+      <c r="B445" s="23" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C445" s="24" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D445" s="25"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="23"/>
+      <c r="B446" s="23" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C446" s="24" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D446" s="25"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="23"/>
+      <c r="B447" s="23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C447" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D447" s="25"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="23"/>
+      <c r="B448" s="23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C448" s="24" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D448" s="25" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="23"/>
+      <c r="B449" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C449" s="24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D449" s="25"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="23"/>
+      <c r="B450" s="23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C450" s="24" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D450" s="25" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="23"/>
+      <c r="B451" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C451" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="D451" s="25"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="23"/>
+      <c r="B452" s="23" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C452" s="24" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D452" s="25"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="23"/>
+      <c r="B453" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C453" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="D453" s="25"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="23"/>
+      <c r="B454" s="23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C454" s="24" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D454" s="25"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="23"/>
+      <c r="B455" s="23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C455" s="24" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D455" s="25"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="23"/>
+      <c r="B456" s="23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C456" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="D456" s="25"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="23"/>
+      <c r="B457" s="23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C457" s="24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D457" s="25"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="23"/>
+      <c r="B458" s="23" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C458" s="24" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D458" s="25"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="23"/>
+      <c r="B459" s="23" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C459" s="24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D459" s="25"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="23"/>
+      <c r="B460" s="23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C460" s="24" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D460" s="25"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="23"/>
+      <c r="B461" s="23" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C461" s="24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D461" s="25"/>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="23"/>
+      <c r="B462" s="23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C462" s="24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D462" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B262" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
-    <hyperlink ref="B315" r:id="rId2" location="Chinese" tooltip="炙" display="https://en.wiktionary.org/wiki/%E7%82%99 - Chinese" xr:uid="{3B2915AD-EB41-4981-A81B-13043D1ACD90}"/>
+    <hyperlink ref="B261" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
+    <hyperlink ref="B314" r:id="rId2" location="Chinese" tooltip="炙" display="https://en.wiktionary.org/wiki/%E7%82%99 - Chinese" xr:uid="{3B2915AD-EB41-4981-A81B-13043D1ACD90}"/>
     <hyperlink ref="B13" r:id="rId3" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
     <hyperlink ref="B6" r:id="rId4" location="Chinese" tooltip="拍" display="https://en.wiktionary.org/wiki/%E6%8B%8D - Chinese" xr:uid="{4720F63B-AB11-46A2-B0DB-301C28EB4467}"/>
-    <hyperlink ref="B305" r:id="rId5" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
+    <hyperlink ref="B304" r:id="rId5" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
     <hyperlink ref="B152" r:id="rId6" location="Chinese" tooltip="曲" display="https://en.wiktionary.org/wiki/%E6%9B%B2 - Chinese" xr:uid="{EA3B65E7-2053-4AE2-92E5-0446FF2C2C24}"/>
     <hyperlink ref="B143" r:id="rId7" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
     <hyperlink ref="B182" r:id="rId8" location="Chinese" tooltip="弩" display="https://en.wiktionary.org/wiki/%E5%BC%A9 - Chinese" xr:uid="{BC88329A-0225-48C8-9840-6DFBB20087F4}"/>
-    <hyperlink ref="B291" r:id="rId9" location="Chinese" tooltip="烏" display="https://en.wiktionary.org/wiki/%E7%83%8F - Chinese" xr:uid="{50BC03FC-8827-4C4E-BE29-75698A3D776E}"/>
+    <hyperlink ref="B290" r:id="rId9" location="Chinese" tooltip="烏" display="https://en.wiktionary.org/wiki/%E7%83%8F - Chinese" xr:uid="{50BC03FC-8827-4C4E-BE29-75698A3D776E}"/>
     <hyperlink ref="B43" r:id="rId10" location="Chinese" tooltip="獐" display="https://en.wiktionary.org/wiki/%E7%8D%90 - Chinese" xr:uid="{B2F710A0-F1D7-4D0E-B970-C71BD1159FE0}"/>
-    <hyperlink ref="B297" r:id="rId11" tooltip="挖" display="https://en.wiktionary.org/wiki/%E6%8C%96" xr:uid="{9E027813-4ED7-4788-8449-1A2B1185B401}"/>
-    <hyperlink ref="B340" r:id="rId12" location="Chinese" tooltip="嫌" display="https://en.wiktionary.org/wiki/%E5%AB%8C - Chinese" xr:uid="{715ACB68-9DD0-4FCC-92ED-0DEB24C8B46C}"/>
+    <hyperlink ref="B296" r:id="rId11" tooltip="挖" display="https://en.wiktionary.org/wiki/%E6%8C%96" xr:uid="{9E027813-4ED7-4788-8449-1A2B1185B401}"/>
+    <hyperlink ref="B339" r:id="rId12" location="Chinese" tooltip="嫌" display="https://en.wiktionary.org/wiki/%E5%AB%8C - Chinese" xr:uid="{715ACB68-9DD0-4FCC-92ED-0DEB24C8B46C}"/>
     <hyperlink ref="B54" r:id="rId13" location="Chinese" tooltip="散" display="https://en.wiktionary.org/wiki/%E6%95%A3 - Chinese" xr:uid="{78494AF0-E2B4-49A8-9327-42D21549AE0F}"/>
     <hyperlink ref="B130" r:id="rId14" location="Chinese" tooltip="狗" display="https://en.wiktionary.org/wiki/%E7%8B%97 - Chinese" xr:uid="{6673E652-C2C0-40D1-B778-8BC7868C8253}"/>
     <hyperlink ref="B145" r:id="rId15" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
@@ -8395,9 +9537,9 @@
     <hyperlink ref="B174" r:id="rId17" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
     <hyperlink ref="B64" r:id="rId18" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
     <hyperlink ref="B120" r:id="rId19" location="Chinese" tooltip="攪" display="https://en.wiktionary.org/wiki/%E6%94%AA - Chinese" xr:uid="{EC616AFB-DFE3-464E-8578-12AFEA4E414A}"/>
-    <hyperlink ref="B347" r:id="rId20" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
-    <hyperlink ref="B366" r:id="rId21" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
-    <hyperlink ref="B381" r:id="rId22" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
+    <hyperlink ref="B346" r:id="rId20" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
+    <hyperlink ref="B365" r:id="rId21" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
+    <hyperlink ref="B380" r:id="rId22" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8425,16 +9567,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8470,13 +9612,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8484,13 +9626,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -8503,10 +9645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9E2CE-C9AF-4C2A-A516-EDCC9ADFAFC1}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -8520,16 +9662,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8613,18 +9755,18 @@
         <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8635,355 +9777,533 @@
         <v>248</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>769</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="24"/>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="D40" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="D40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="11" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="24"/>
-      <c r="B41" s="26" t="s">
+      <c r="C41" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="D41" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>1005</v>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -8996,10 +10316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A1A9B7-25AD-4A8E-9D69-9C5CD27544E5}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9011,13 +10331,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -9025,55 +10345,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -9081,100 +10401,109 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>544</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>588</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>682</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>700</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>713</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>722</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>754</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -9212,49 +10541,49 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D9" s="13"/>
     </row>

--- a/qmuen.xlsx
+++ b/qmuen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lap trinh\QMun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A8BE2-8112-4C1A-8E15-34C866089EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6AF65C-29AC-423F-9F38-6A8787181C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" activeTab="2" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="1258">
   <si>
     <t>一</t>
   </si>
@@ -40,9 +40,6 @@
     <t>二</t>
   </si>
   <si>
-    <t>nheic, nhic</t>
-  </si>
-  <si>
     <t>三</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>王</t>
   </si>
   <si>
-    <t>fanh, bônh</t>
-  </si>
-  <si>
     <t>hungh</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>發</t>
   </si>
   <si>
-    <t>fŭts, fatr</t>
-  </si>
-  <si>
     <t>yungh</t>
   </si>
   <si>
@@ -313,21 +304,12 @@
     <t>民</t>
   </si>
   <si>
-    <t>tăngc, dăngc</t>
-  </si>
-  <si>
     <t>sĭnh</t>
   </si>
   <si>
     <t>dênh</t>
   </si>
   <si>
-    <t>nhanh, ngănh</t>
-  </si>
-  <si>
-    <t>xŏmr, kiŏmr</t>
-  </si>
-  <si>
     <t>nhănh</t>
   </si>
   <si>
@@ -490,9 +472,6 @@
     <t>家</t>
   </si>
   <si>
-    <t>car, kiar</t>
-  </si>
-  <si>
     <t>公</t>
   </si>
   <si>
@@ -643,9 +622,6 @@
     <t>行</t>
   </si>
   <si>
-    <t>hangh, hengh</t>
-  </si>
-  <si>
     <t>hongh</t>
   </si>
   <si>
@@ -685,9 +661,6 @@
     <t>李</t>
   </si>
   <si>
-    <t>geix, lix</t>
-  </si>
-  <si>
     <t>季</t>
   </si>
   <si>
@@ -706,12 +679,6 @@
     <t>theiz</t>
   </si>
   <si>
-    <t>他</t>
-  </si>
-  <si>
-    <t>thal</t>
-  </si>
-  <si>
     <t>兔</t>
   </si>
   <si>
@@ -721,15 +688,9 @@
     <t>點</t>
   </si>
   <si>
-    <t xml:space="preserve"> tĭmd, kiŏmd</t>
-  </si>
-  <si>
     <t>本</t>
   </si>
   <si>
-    <t>fŏnd, pônd</t>
-  </si>
-  <si>
     <t>cŏngr</t>
   </si>
   <si>
@@ -877,12 +838,6 @@
     <t>tăngs</t>
   </si>
   <si>
-    <t>𠘩</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
     <t>鐵</t>
   </si>
   <si>
@@ -961,24 +916,12 @@
     <t>明</t>
   </si>
   <si>
-    <t>冥</t>
-  </si>
-  <si>
-    <t>鳴</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
     <t>mĕngh</t>
   </si>
   <si>
-    <t>迎</t>
-  </si>
-  <si>
-    <t>ngĕngh</t>
-  </si>
-  <si>
     <t>瓦</t>
   </si>
   <si>
@@ -1015,9 +958,6 @@
     <t>難</t>
   </si>
   <si>
-    <t>nanh, nanc</t>
-  </si>
-  <si>
     <t>灾</t>
   </si>
   <si>
@@ -1360,9 +1300,6 @@
     <t>新</t>
   </si>
   <si>
-    <t>xăngl, xăngb</t>
-  </si>
-  <si>
     <t>sănr</t>
   </si>
   <si>
@@ -1534,9 +1471,6 @@
     <t>daic</t>
   </si>
   <si>
-    <t>taix</t>
-  </si>
-  <si>
     <t>ah</t>
   </si>
   <si>
@@ -3590,6 +3524,285 @@
   </si>
   <si>
     <t>hình thanh: 尸子</t>
+  </si>
+  <si>
+    <t>鱔</t>
+  </si>
+  <si>
+    <t>dênx</t>
+  </si>
+  <si>
+    <t>鰐鱔</t>
+  </si>
+  <si>
+    <t>ngŭkc dênx</t>
+  </si>
+  <si>
+    <t>𥯟</t>
+  </si>
+  <si>
+    <t>piais</t>
+  </si>
+  <si>
+    <t>hình thanh:  竹拜</t>
+  </si>
+  <si>
+    <t>沱</t>
+  </si>
+  <si>
+    <t>dôr</t>
+  </si>
+  <si>
+    <t>hình thanh:  水它</t>
+  </si>
+  <si>
+    <t>濞</t>
+  </si>
+  <si>
+    <t>blŭtc</t>
+  </si>
+  <si>
+    <t>hội ý: nước 水 mũi 鼻</t>
+  </si>
+  <si>
+    <t>𤜵</t>
+  </si>
+  <si>
+    <t>gianh</t>
+  </si>
+  <si>
+    <t>hình thanh:  犬幵</t>
+  </si>
+  <si>
+    <t>㾁</t>
+  </si>
+  <si>
+    <t>bŭts</t>
+  </si>
+  <si>
+    <t>hình thanh:  疒术</t>
+  </si>
+  <si>
+    <t>𤷍</t>
+  </si>
+  <si>
+    <t>kiăic</t>
+  </si>
+  <si>
+    <t>hình thanh:  疒其</t>
+  </si>
+  <si>
+    <t>𤷱</t>
+  </si>
+  <si>
+    <t>mŭnr</t>
+  </si>
+  <si>
+    <t>hình thanh:  疒門</t>
+  </si>
+  <si>
+    <t>𣔂</t>
+  </si>
+  <si>
+    <t>mengr</t>
+  </si>
+  <si>
+    <t>hình thanh:  木明</t>
+  </si>
+  <si>
+    <t>𠀴</t>
+  </si>
+  <si>
+    <t>chŭtl</t>
+  </si>
+  <si>
+    <t>hình thanh:  下出</t>
+  </si>
+  <si>
+    <t>䚗</t>
+  </si>
+  <si>
+    <t>kiongr</t>
+  </si>
+  <si>
+    <t>hình thanh:  角公</t>
+  </si>
+  <si>
+    <t>起</t>
+  </si>
+  <si>
+    <t>kuex</t>
+  </si>
+  <si>
+    <t>hib</t>
+  </si>
+  <si>
+    <t>𪿗</t>
+  </si>
+  <si>
+    <t>nib</t>
+  </si>
+  <si>
+    <t>hình thanh:  石尼</t>
+  </si>
+  <si>
+    <t>鉸</t>
+  </si>
+  <si>
+    <t>zêud</t>
+  </si>
+  <si>
+    <t>𥙵</t>
+  </si>
+  <si>
+    <t>mvanb</t>
+  </si>
+  <si>
+    <t>hình thanh:  示免</t>
+  </si>
+  <si>
+    <t>𫋎</t>
+  </si>
+  <si>
+    <t>xoub</t>
+  </si>
+  <si>
+    <t>hình thanh:  虫首</t>
+  </si>
+  <si>
+    <t>𨋞</t>
+  </si>
+  <si>
+    <t>plŭir</t>
+  </si>
+  <si>
+    <t>Thĕngl Mĕngh</t>
+  </si>
+  <si>
+    <t>清明</t>
+  </si>
+  <si>
+    <t>homh</t>
+  </si>
+  <si>
+    <t>seis,seir</t>
+  </si>
+  <si>
+    <t>pous</t>
+  </si>
+  <si>
+    <t>sair nanc</t>
+  </si>
+  <si>
+    <t>灾難</t>
+  </si>
+  <si>
+    <t>cêus</t>
+  </si>
+  <si>
+    <t>nheic,nhic</t>
+  </si>
+  <si>
+    <t>car,kiar</t>
+  </si>
+  <si>
+    <t>xăngl,xăngb</t>
+  </si>
+  <si>
+    <t>fŏnd,pônd</t>
+  </si>
+  <si>
+    <t>geix,lix</t>
+  </si>
+  <si>
+    <t>fŭts,fatr</t>
+  </si>
+  <si>
+    <t>fanh,bônh</t>
+  </si>
+  <si>
+    <t>hangh,hengh</t>
+  </si>
+  <si>
+    <t>tăngc,dăngc</t>
+  </si>
+  <si>
+    <t>nhanh,ngănh</t>
+  </si>
+  <si>
+    <t>nanh,nanc</t>
+  </si>
+  <si>
+    <t>tĭmd,kiŏmd</t>
+  </si>
+  <si>
+    <t>hình thanh:  車布</t>
+  </si>
+  <si>
+    <t>𭑆</t>
+  </si>
+  <si>
+    <t>bvŏns</t>
+  </si>
+  <si>
+    <t>hình thanh:  天云</t>
+  </si>
+  <si>
+    <t>篗</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>hình thanh:  竹隻</t>
+  </si>
+  <si>
+    <t>𭷽</t>
+  </si>
+  <si>
+    <t>ngongh</t>
+  </si>
+  <si>
+    <t>hình thanh:  犬牛</t>
+  </si>
+  <si>
+    <t>𮡒</t>
+  </si>
+  <si>
+    <t>hình thanh:  云里</t>
+  </si>
+  <si>
+    <t>giăngl</t>
+  </si>
+  <si>
+    <t>芽</t>
+  </si>
+  <si>
+    <t>帽</t>
+  </si>
+  <si>
+    <t>mouc</t>
+  </si>
+  <si>
+    <t>毛</t>
+  </si>
+  <si>
+    <t>mouh</t>
+  </si>
+  <si>
+    <t>圖</t>
+  </si>
+  <si>
+    <t>touh</t>
+  </si>
+  <si>
+    <t>鋸</t>
+  </si>
+  <si>
+    <t>䶉</t>
+  </si>
+  <si>
+    <t>䗜</t>
   </si>
 </sst>
 </file>
@@ -4431,10 +4644,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D462" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:D462" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D344">
-    <sortCondition ref="C1:C344"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D458" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D458" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D449">
+    <sortCondition ref="B1:B449"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="25"/>
@@ -4460,8 +4673,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D56" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:D56" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D74" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:D74" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{09378F0C-E887-4A25-8D92-F2E090F546FC}" name="常用度" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{C520B322-D4C5-499D-8776-6E4C84E0410B}" name="字" dataDxfId="8"/>
@@ -4473,8 +4686,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C19" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C19" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C22" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C22" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7AC3F4C8-5FD1-4214-9B7A-F689A5C70CEC}" name="常用度" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{064FDE33-43CB-4142-B2B2-693F96D35F89}" name="字" dataDxfId="1"/>
@@ -4781,10 +4994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C37EFB-A8EE-4DC7-8A99-5510C4649B02}">
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D458"/>
   <sheetViews>
-    <sheetView topLeftCell="A454" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463"/>
+    <sheetView topLeftCell="A449" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4799,2478 +5012,2470 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>794</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>808</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>795</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>261</v>
+        <v>824</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>821</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>827</v>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>779</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>983</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>882</v>
+        <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>880</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>881</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>751</v>
+        <v>604</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>445</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>446</v>
+        <v>1223</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
-        <v>821</v>
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>864</v>
+        <v>665</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>866</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>803</v>
+        <v>89</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>360</v>
+        <v>609</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>611</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>470</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>633</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>634</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>781</v>
+        <v>153</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>782</v>
+        <v>154</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>770</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>764</v>
+        <v>216</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>765</v>
+        <v>217</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>211</v>
+        <v>613</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>212</v>
+        <v>614</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>749</v>
+        <v>615</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>750</v>
+        <v>616</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>783</v>
+        <v>97</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>784</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>785</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
       <c r="B32" s="4" t="s">
-        <v>20</v>
+        <v>617</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>398</v>
+        <v>953</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>954</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>407</v>
+        <v>206</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
       <c r="B40" s="4" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>396</v>
+        <v>622</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="22" t="s">
-        <v>841</v>
+      <c r="B43" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>834</v>
+        <v>624</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>835</v>
+        <v>625</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>669</v>
+        <v>355</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>893</v>
+        <v>377</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>895</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>125</v>
+        <v>688</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>357</v>
+        <v>224</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>391</v>
+        <v>296</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>401</v>
+        <v>878</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>496</v>
+        <v>244</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>500</v>
+        <v>245</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="22" t="s">
-        <v>850</v>
+        <v>743</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>632</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>851</v>
+        <v>633</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>873</v>
+        <v>837</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>872</v>
+        <v>339</v>
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>803</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>831</v>
+        <v>232</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>830</v>
+        <v>284</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
       <c r="B59" s="4" t="s">
-        <v>690</v>
+        <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1218</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>654</v>
+        <v>536</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>392</v>
+        <v>282</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>393</v>
+        <v>283</v>
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>297</v>
+        <v>713</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>298</v>
+        <v>714</v>
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>692</v>
+        <v>96</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="22" t="s">
-        <v>885</v>
+        <v>95</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>868</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>537</v>
+        <v>869</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
-        <v>799</v>
+        <v>848</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>849</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>275</v>
+        <v>960</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" s="2"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>3</v>
+      </c>
       <c r="B69" s="4" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
-        <v>644</v>
+        <v>278</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>645</v>
+        <v>279</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>534</v>
-      </c>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>1</v>
-      </c>
       <c r="B72" s="4" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>547</v>
+        <v>675</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>548</v>
+        <v>676</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>536</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>2</v>
-      </c>
       <c r="B75" s="4" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>532</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="22" t="s">
-        <v>187</v>
+      <c r="B77" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>424</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>165</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="4" t="s">
-        <v>217</v>
+      <c r="B79" s="22" t="s">
+        <v>826</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>535</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
-        <v>637</v>
+        <v>538</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
-        <v>860</v>
+        <v>111</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="D81" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
-        <v>432</v>
+        <v>210</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>161</v>
+        <v>471</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>162</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>1</v>
-      </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>876</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>877</v>
+      </c>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
-        <v>818</v>
+        <v>681</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>817</v>
+        <v>682</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>503</v>
+        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
-        <v>635</v>
+        <v>264</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
-        <v>284</v>
+        <v>871</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>285</v>
+        <v>872</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>286</v>
+        <v>873</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
-        <v>586</v>
+        <v>686</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>584</v>
+        <v>687</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>535</v>
+        <v>687</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
-        <v>639</v>
+        <v>146</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>640</v>
+        <v>1224</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>641</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>535</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>732</v>
+        <v>273</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>734</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>814</v>
+        <v>474</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>815</v>
+        <v>477</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
-        <v>900</v>
+        <v>473</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="D96" s="25"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>1</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>1</v>
+      </c>
       <c r="B105" s="4" t="s">
-        <v>902</v>
+        <v>23</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>703</v>
+        <v>896</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>595</v>
+        <v>347</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>596</v>
+        <v>348</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>710</v>
+        <v>149</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>711</v>
+        <v>984</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
-        <v>859</v>
+        <v>306</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>145</v>
+        <v>527</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
-        <v>714</v>
+        <v>161</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>715</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
-        <v>364</v>
+        <v>705</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D113" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
-        <v>646</v>
+        <v>198</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>647</v>
+        <v>199</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
-        <v>1</v>
-      </c>
       <c r="B115" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>66</v>
+        <v>407</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>67</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
-        <v>1</v>
-      </c>
       <c r="B116" s="4" t="s">
-        <v>69</v>
+        <v>740</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
-        <v>723</v>
+        <v>894</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>698</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
-        <v>414</v>
+        <v>888</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>454</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="22" t="s">
-        <v>888</v>
+      <c r="B120" s="4" t="s">
+        <v>729</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="D120" s="2"/>
+        <v>730</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
-        <v>370</v>
+        <v>174</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>371</v>
+        <v>175</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>371</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D122" s="2"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="D122" s="25"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
-        <v>809</v>
+        <v>974</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>810</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>118</v>
+        <v>911</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
-        <v>737</v>
+        <v>958</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>120</v>
+        <v>959</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="4" t="s">
-        <v>253</v>
+      <c r="B126" s="22" t="s">
+        <v>805</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
-        <v>473</v>
+        <v>311</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>474</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="4" t="s">
-        <v>739</v>
+      <c r="B128" s="22" t="s">
+        <v>823</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" s="22" t="s">
-        <v>853</v>
+        <v>825</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D129" s="25"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
-        <v>201</v>
+        <v>976</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>202</v>
+        <v>882</v>
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
-        <v>154</v>
+        <v>956</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
-        <v>102</v>
+        <v>972</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134" s="4" t="s">
-        <v>254</v>
+        <v>973</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="22" t="s">
+        <v>866</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
-        <v>318</v>
+        <v>653</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>319</v>
+        <v>654</v>
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
-        <v>320</v>
+        <v>892</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>319</v>
+        <v>893</v>
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
-        <v>321</v>
+        <v>747</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138" s="4" t="s">
-        <v>436</v>
+        <v>454</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="22" t="s">
+        <v>828</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>437</v>
+        <v>829</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>1006</v>
+        <v>289</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
-        <v>439</v>
+        <v>941</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+        <v>942</v>
+      </c>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>219</v>
+        <v>884</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>220</v>
+        <v>885</v>
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>434</v>
+        <v>723</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>435</v>
+        <v>722</v>
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B143" s="22" t="s">
-        <v>839</v>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1225</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>701</v>
+        <v>129</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B145" s="22" t="s">
-        <v>856</v>
+      <c r="B145" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>858</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>1</v>
+      </c>
       <c r="B146" s="4" t="s">
-        <v>825</v>
+        <v>21</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="D146" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
-        <v>671</v>
+        <v>845</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>846</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
-        <v>1</v>
-      </c>
       <c r="B148" s="4" t="s">
-        <v>9</v>
+        <v>684</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
-        <v>598</v>
+        <v>294</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D149" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B152" s="22" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
-        <v>735</v>
+        <v>401</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="D153" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>1</v>
+      </c>
       <c r="B154" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>550</v>
+        <v>22</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="D155" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
-        <v>545</v>
+        <v>735</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>546</v>
+        <v>736</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
-        <v>760</v>
+        <v>698</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="D157" s="2"/>
+        <v>696</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
-        <v>335</v>
+        <v>783</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>336</v>
+        <v>765</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
-        <v>1</v>
-      </c>
       <c r="B159" s="4" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>19</v>
+        <v>1226</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>19</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
-        <v>757</v>
+        <v>209</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>758</v>
+        <v>1227</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>759</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B161" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D161" s="2"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="23" t="s">
+        <v>997</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="D161" s="25"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
-        <v>243</v>
+        <v>907</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>244</v>
+        <v>908</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="4">
-        <v>3</v>
-      </c>
       <c r="B164" s="4" t="s">
-        <v>83</v>
+        <v>787</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="4">
-        <v>1</v>
-      </c>
       <c r="B165" s="4" t="s">
-        <v>93</v>
+        <v>727</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
-        <v>786</v>
+        <v>840</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
-        <v>805</v>
+        <v>251</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>787</v>
+        <v>252</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
-        <v>259</v>
+        <v>414</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>538</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B169" s="4" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
-        <v>310</v>
+        <v>777</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
-        <v>311</v>
+        <v>838</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
-        <v>312</v>
+        <v>666</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B174" s="22" t="s">
-        <v>874</v>
+      <c r="B174" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>875</v>
+        <v>386</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>369</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B176" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D176" s="2"/>
+      <c r="A176" s="23"/>
+      <c r="B176" s="23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D176" s="25"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>1</v>
+      </c>
       <c r="B177" s="4" t="s">
-        <v>720</v>
+        <v>90</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>718</v>
+        <v>94</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>719</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="s">
-        <v>249</v>
+        <v>662</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>250</v>
+        <v>663</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>250</v>
+        <v>664</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
-        <v>886</v>
+        <v>184</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="D179" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
-        <v>806</v>
+        <v>103</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>807</v>
+        <v>100</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
-        <v>325</v>
+        <v>936</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D181" s="2"/>
+        <v>937</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B182" s="22" t="s">
-        <v>325</v>
+      <c r="B182" s="4" t="s">
+        <v>784</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>326</v>
+        <v>785</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B185" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A185" s="23"/>
+      <c r="B185" s="23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D185" s="25"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B187" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D187" s="2"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D187" s="25"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B188" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="A188" s="23"/>
+      <c r="B188" s="23" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D188" s="25"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
-        <v>1</v>
-      </c>
       <c r="B189" s="4" t="s">
-        <v>24</v>
+        <v>860</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>41</v>
+        <v>858</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>42</v>
+        <v>859</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B190" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D190" s="2"/>
+      <c r="A190" s="23"/>
+      <c r="B190" s="23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
-        <v>626</v>
+        <v>967</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>627</v>
+        <v>968</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
-        <v>127</v>
+        <v>809</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>128</v>
+        <v>807</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
-        <v>342</v>
+        <v>808</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>341</v>
+        <v>810</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>99</v>
+        <v>811</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="s">
-        <v>896</v>
+        <v>180</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>897</v>
+        <v>181</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B195" s="4" t="s">
-        <v>314</v>
+      <c r="B195" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>315</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
-        <v>1</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A196" s="23"/>
+      <c r="B196" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D196" s="25"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
-        <v>316</v>
+        <v>670</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>317</v>
+        <v>671</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B198" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="D198" s="2"/>
+      <c r="A198" s="23"/>
+      <c r="B198" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D198" s="25"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="4">
-        <v>1</v>
-      </c>
       <c r="B199" s="4" t="s">
-        <v>90</v>
+        <v>861</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>341</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="4">
-        <v>1</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A200" s="23"/>
+      <c r="B200" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D200" s="25"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="4">
-        <v>1</v>
-      </c>
       <c r="B201" s="4" t="s">
-        <v>22</v>
+        <v>943</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="D201" s="2"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
-        <v>1</v>
-      </c>
       <c r="B202" s="4" t="s">
-        <v>2</v>
+        <v>576</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>507</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="4">
-        <v>1</v>
-      </c>
       <c r="B203" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D203" s="2"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
-        <v>372</v>
+        <v>558</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>373</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B205" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="D205" s="2"/>
+      <c r="A205" s="23"/>
+      <c r="B205" s="23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D205" s="25"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
-        <v>801</v>
+        <v>900</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>802</v>
+        <v>901</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B207" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D207" s="2"/>
+      <c r="A207" s="23"/>
+      <c r="B207" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D207" s="25"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B208" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="A208" s="23"/>
+      <c r="B208" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="D208" s="25"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
-        <v>331</v>
+        <v>647</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B211" s="4" t="s">
-        <v>333</v>
+        <v>651</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>334</v>
+        <v>652</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B212" s="4" t="s">
-        <v>134</v>
+        <v>577</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D212" s="2"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B213" s="4" t="s">
-        <v>551</v>
+        <v>176</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>552</v>
+        <v>177</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>552</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B214" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>340</v>
+      <c r="A214" s="23"/>
+      <c r="B214" s="23" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B215" s="4" t="s">
-        <v>791</v>
+        <v>142</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>793</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D215" s="2"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="4">
-        <v>1</v>
-      </c>
       <c r="B216" s="4" t="s">
-        <v>14</v>
+        <v>655</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>15</v>
+        <v>656</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>39</v>
+        <v>590</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="4">
-        <v>1</v>
-      </c>
       <c r="B217" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C217" s="5"/>
       <c r="D217" s="2" t="s">
-        <v>30</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="D218" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B219" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D219" s="2"/>
+      <c r="A219" s="23"/>
+      <c r="B219" s="23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D219" s="25"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
-        <v>589</v>
+        <v>249</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B221" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="D221" s="2"/>
+      <c r="A221" s="23"/>
+      <c r="B221" s="23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D221" s="25"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
-        <v>193</v>
+        <v>890</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B223" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D223" s="2"/>
+      <c r="A223" s="23"/>
+      <c r="B223" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D223" s="25"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B224" s="4" t="s">
-        <v>329</v>
+      <c r="B224" s="22" t="s">
+        <v>831</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D224" s="2"/>
+        <v>832</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B225" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D225" s="2"/>
+      <c r="A225" s="23"/>
+      <c r="B225" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D225" s="25"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="4">
+      <c r="B226" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
         <v>1</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
-        <v>462</v>
+        <v>63</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D227" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>425</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D228" s="2"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B229" s="4" t="s">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D229" s="2"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
-        <v>455</v>
+        <v>297</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
-        <v>426</v>
+        <v>641</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>539</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D231" s="2"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="4" t="s">
-        <v>663</v>
+        <v>394</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="D232" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="4">
-        <v>1</v>
-      </c>
       <c r="B233" s="4" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B234" s="4" t="s">
-        <v>110</v>
+        <v>792</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>107</v>
+        <v>793</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B235" s="4" t="s">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D235" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B236" s="4" t="s">
-        <v>354</v>
+        <v>136</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>355</v>
+        <v>137</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>356</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B237" s="4" t="s">
-        <v>727</v>
+        <v>190</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>728</v>
+        <v>191</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>729</v>
+        <v>192</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B238" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="A238" s="23"/>
+      <c r="B238" s="23" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D238" s="25"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>2</v>
+      </c>
       <c r="B239" s="4" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>305</v>
+        <v>1228</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>307</v>
+        <v>510</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -7278,2272 +7483,2246 @@
         <v>1</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>1</v>
+      </c>
       <c r="B241" s="4" t="s">
-        <v>683</v>
+        <v>67</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="D241" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B242" s="4" t="s">
-        <v>495</v>
+        <v>761</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>498</v>
+        <v>762</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>499</v>
+        <v>763</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>1</v>
+      </c>
       <c r="B243" s="4" t="s">
-        <v>386</v>
+        <v>62</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D243" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B244" s="4" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>497</v>
+        <v>172</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>540</v>
+        <v>173</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
+        <v>1</v>
+      </c>
       <c r="B245" s="4" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>292</v>
+        <v>84</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
-        <v>421</v>
+        <v>970</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>971</v>
+      </c>
+      <c r="D246" s="2"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B247" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="D247" s="2"/>
+      <c r="A247" s="23"/>
+      <c r="B247" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D247" s="25"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B248" s="4" t="s">
-        <v>491</v>
+        <v>368</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
-        <v>181</v>
+        <v>874</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B250" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D250" s="2"/>
+      <c r="A250" s="23"/>
+      <c r="B250" s="23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C250" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D250" s="25"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="4" t="s">
-        <v>615</v>
+        <v>230</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="4">
-        <v>3</v>
-      </c>
       <c r="B253" s="4" t="s">
-        <v>88</v>
+        <v>661</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D253" s="2"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B254" s="4" t="s">
-        <v>280</v>
+        <v>923</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>281</v>
+        <v>924</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B255" s="4" t="s">
-        <v>303</v>
+        <v>774</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>304</v>
+        <v>776</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>304</v>
+        <v>775</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B256" s="4" t="s">
-        <v>624</v>
+        <v>797</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>625</v>
+        <v>798</v>
       </c>
       <c r="D256" s="2"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B257" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A257" s="23"/>
+      <c r="B257" s="23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C257" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D257" s="25"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B258" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="D258" s="2"/>
+      <c r="A258" s="23"/>
+      <c r="B258" s="23" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C258" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D258" s="25" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B259" s="4" t="s">
-        <v>620</v>
+        <v>913</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>621</v>
+        <v>914</v>
       </c>
       <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B260" s="4" t="s">
-        <v>485</v>
+        <v>159</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>486</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B261" s="22" t="s">
-        <v>816</v>
+        <v>951</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>487</v>
+        <v>952</v>
       </c>
       <c r="D261" s="2"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="4">
-        <v>1</v>
-      </c>
       <c r="B262" s="4" t="s">
-        <v>70</v>
+        <v>749</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>68</v>
+        <v>751</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>71</v>
+        <v>750</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B263" s="4" t="s">
-        <v>622</v>
+        <v>752</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>623</v>
+        <v>751</v>
       </c>
       <c r="D263" s="2"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B264" s="4" t="s">
-        <v>610</v>
+        <v>464</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>611</v>
+        <v>466</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>612</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B265" s="4" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D265" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B266" s="4" t="s">
-        <v>289</v>
+        <v>721</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>287</v>
+        <v>722</v>
       </c>
       <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B267" s="4" t="s">
-        <v>293</v>
+      <c r="B267" s="22" t="s">
+        <v>863</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>294</v>
+        <v>515</v>
       </c>
       <c r="D267" s="2"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B268" s="4" t="s">
-        <v>296</v>
+        <v>759</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D268" s="2"/>
+        <v>760</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B269" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="D269" s="2"/>
+      <c r="A269" s="23"/>
+      <c r="B269" s="23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C269" s="24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D269" s="25"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B270" s="4" t="s">
-        <v>236</v>
+        <v>679</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>537</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="D270" s="2"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B271" s="4" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>537</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="D271" s="2"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B272" s="4" t="s">
-        <v>601</v>
+        <v>717</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>602</v>
+        <v>718</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>603</v>
+        <v>719</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B273" s="4" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>130</v>
+        <v>516</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B274" s="4" t="s">
-        <v>239</v>
+        <v>781</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B275" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D275" s="2"/>
+      <c r="A275" s="23"/>
+      <c r="B275" s="23" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C275" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D275" s="25"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B276" s="4" t="s">
-        <v>878</v>
+        <v>909</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>879</v>
+        <v>910</v>
       </c>
       <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B277" s="4" t="s">
-        <v>395</v>
+        <v>582</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>394</v>
+        <v>583</v>
       </c>
       <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B278" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="A278" s="23"/>
+      <c r="B278" s="23" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C278" s="24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D278" s="25"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B279" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D279" s="2"/>
+      <c r="A279" s="23"/>
+      <c r="B279" s="23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C279" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D279" s="25"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B280" s="4" t="s">
-        <v>599</v>
+        <v>200</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="D280" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B281" s="4" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D281" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B282" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D282" s="2"/>
+      <c r="A282" s="23"/>
+      <c r="B282" s="23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C282" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D282" s="25"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B283" s="4" t="s">
-        <v>618</v>
+        <v>931</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>619</v>
+        <v>932</v>
       </c>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="4">
-        <v>1</v>
-      </c>
       <c r="B284" s="4" t="s">
-        <v>16</v>
+        <v>969</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B285" s="4" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="D285" s="2"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B286" s="4" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>175</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="4">
+        <v>2</v>
+      </c>
       <c r="B287" s="4" t="s">
-        <v>608</v>
+        <v>76</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D287" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B288" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="23"/>
+      <c r="B288" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C288" s="24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D288" s="25"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B289" s="4" t="s">
-        <v>183</v>
+        <v>915</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B290" s="22" t="s">
-        <v>183</v>
+        <v>916</v>
+      </c>
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B290" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>184</v>
+        <v>950</v>
       </c>
       <c r="D290" s="2"/>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B291" s="4" t="s">
-        <v>197</v>
+        <v>710</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>198</v>
+        <v>711</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B292" s="4" t="s">
-        <v>200</v>
+        <v>905</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B293" s="4" t="s">
-        <v>166</v>
+        <v>812</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>167</v>
+        <v>813</v>
       </c>
       <c r="D293" s="2"/>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B294" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="23"/>
+      <c r="B294" s="23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D294" s="25"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B295" s="4" t="s">
-        <v>688</v>
+        <v>584</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>689</v>
+        <v>585</v>
       </c>
       <c r="D295" s="2"/>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B296" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B297" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="23"/>
+      <c r="B296" s="23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C296" s="24" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D296" s="25"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="23"/>
+      <c r="B297" s="23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C297" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D297" s="25"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B298" s="4" t="s">
-        <v>430</v>
+        <v>965</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B299" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+        <v>966</v>
+      </c>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="23"/>
+      <c r="B299" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="C299" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="D299" s="25"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B300" s="4" t="s">
-        <v>743</v>
+        <v>344</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>744</v>
+        <v>343</v>
       </c>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B301" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="23"/>
+      <c r="B301" s="23" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C301" s="24" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D301" s="25"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B302" s="4" t="s">
-        <v>775</v>
+        <v>345</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>776</v>
+        <v>346</v>
       </c>
       <c r="D302" s="2"/>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B303" s="4" t="s">
-        <v>746</v>
+        <v>139</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>747</v>
+        <v>140</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B304" s="22" t="s">
-        <v>746</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B304" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>747</v>
+        <v>341</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>748</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B305" s="4" t="s">
-        <v>140</v>
+        <v>939</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="4" t="s">
-        <v>442</v>
+        <v>560</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>444</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="D306" s="2"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B307" s="4" t="s">
-        <v>428</v>
+        <v>525</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D307" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="4">
+        <v>1</v>
+      </c>
       <c r="B308" s="4" t="s">
-        <v>560</v>
+        <v>17</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>561</v>
+        <v>18</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>562</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="4">
-        <v>1</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A309" s="23"/>
+      <c r="B309" s="23" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C309" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D309" s="25"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B310" s="4" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>630</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B311" s="4" t="s">
-        <v>103</v>
+      <c r="B311" s="22" t="s">
+        <v>921</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="D311" s="2"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B312" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="D312" s="2"/>
+      <c r="A312" s="23"/>
+      <c r="B312" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C312" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D312" s="25"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B313" s="4" t="s">
-        <v>673</v>
+        <v>366</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>674</v>
+        <v>367</v>
       </c>
       <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B314" s="22" t="s">
-        <v>673</v>
+      <c r="B314" s="4" t="s">
+        <v>961</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>674</v>
+        <v>962</v>
       </c>
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B315" s="4" t="s">
-        <v>684</v>
+        <v>372</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>686</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B316" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>533</v>
-      </c>
+      <c r="A316" s="23"/>
+      <c r="B316" s="23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C316" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D316" s="25"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="4">
-        <v>1</v>
-      </c>
       <c r="B317" s="4" t="s">
-        <v>91</v>
+        <v>935</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>533</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B318" s="4" t="s">
-        <v>796</v>
+      <c r="B318" s="22" t="s">
+        <v>799</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>797</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="4">
-        <v>1</v>
-      </c>
       <c r="B319" s="4" t="s">
-        <v>12</v>
+        <v>945</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" s="4" t="s">
-        <v>675</v>
+        <v>864</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>676</v>
+        <v>865</v>
       </c>
       <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B321" s="4" t="s">
-        <v>582</v>
+        <v>196</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D321" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B322" s="4" t="s">
-        <v>191</v>
+        <v>796</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>192</v>
+        <v>795</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>192</v>
+        <v>481</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B323" s="4" t="s">
-        <v>677</v>
+      <c r="B323" s="22" t="s">
+        <v>794</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>612</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="D323" s="2"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B324" s="4" t="s">
-        <v>696</v>
+        <v>564</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>82</v>
+        <v>513</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B325" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>698</v>
-      </c>
+      <c r="A325" s="23"/>
+      <c r="B325" s="23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C325" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D325" s="25"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="4">
-        <v>1</v>
-      </c>
       <c r="B326" s="4" t="s">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="D326" s="2"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B327" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>379</v>
-      </c>
+      <c r="A327" s="23"/>
+      <c r="B327" s="23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C327" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D327" s="25"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B328" s="4" t="s">
-        <v>374</v>
+        <v>764</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>380</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="D328" s="2"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B329" s="4" t="s">
-        <v>694</v>
+        <v>127</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>695</v>
+        <v>132</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>380</v>
+        <v>132</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B330" s="4" t="s">
-        <v>375</v>
+        <v>649</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>378</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D330" s="2"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B331" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="D331" s="2"/>
+      <c r="A331" s="23"/>
+      <c r="B331" s="23" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C331" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D331" s="25" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B332" s="4" t="s">
-        <v>553</v>
+        <v>408</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="D332" s="5" t="s">
-        <v>554</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="D332" s="2"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="4">
-        <v>2</v>
-      </c>
       <c r="B333" s="4" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B334" s="4" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D334" s="2"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B335" s="4" t="s">
-        <v>846</v>
+      <c r="B335" s="22" t="s">
+        <v>883</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>844</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="D335" s="2"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B336" s="4" t="s">
-        <v>769</v>
+        <v>588</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>475</v>
+        <v>589</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B337" s="4" t="s">
-        <v>819</v>
+        <v>375</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>820</v>
+        <v>374</v>
       </c>
       <c r="D337" s="2"/>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B338" s="4" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B339" s="22" t="s">
-        <v>848</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="D339" s="2"/>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B340" s="4" t="s">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B341" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B342" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="23"/>
+      <c r="B341" s="23" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C341" s="24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D341" s="25"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="23"/>
+      <c r="B342" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="C342" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="D342" s="25"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B343" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C343" s="5"/>
+        <v>529</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>530</v>
+      </c>
       <c r="D343" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B344" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C344" s="5"/>
-      <c r="D344" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B345" s="4" t="s">
-        <v>998</v>
+        <v>441</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>904</v>
+        <v>442</v>
       </c>
       <c r="D345" s="2"/>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B346" s="22" t="s">
-        <v>905</v>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>747</v>
+        <v>592</v>
       </c>
       <c r="D346" s="2"/>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B347" s="4" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B348" s="4" t="s">
-        <v>908</v>
+        <v>334</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B349" s="4" t="s">
-        <v>910</v>
+        <v>531</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="D349" s="2"/>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B350" s="4" t="s">
-        <v>912</v>
+        <v>313</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>913</v>
+        <v>314</v>
       </c>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B351" s="4" t="s">
-        <v>914</v>
+        <v>419</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B352" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="C352" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="23"/>
+      <c r="B352" s="23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C352" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D352" s="25" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B353" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B354" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B355" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="23"/>
+      <c r="B356" s="23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C356" s="24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D356" s="25" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B357" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B358" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="23"/>
+      <c r="B359" s="23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C359" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D359" s="25"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B360" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B361" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B362" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B363" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B364" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B353" s="4" t="s">
+      <c r="C364" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="C353" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B354" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B355" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B356" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B357" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B358" s="4" t="s">
+      <c r="D364" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="23"/>
+      <c r="B365" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C365" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D365" s="25"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B366" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B367" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B368" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="23"/>
+      <c r="B369" s="23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C369" s="24" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D369" s="25"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="4">
+        <v>3</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B371" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B372" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B373" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="23"/>
+      <c r="B374" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C374" s="24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D374" s="25"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B375" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="23"/>
+      <c r="B376" s="23" t="s">
+        <v>999</v>
+      </c>
+      <c r="C376" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="D376" s="25"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="4">
+        <v>1</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B378" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B379" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B380" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="C358" s="5" t="s">
+      <c r="C380" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B359" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B360" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B361" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B362" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="D362" s="2"/>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B363" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B364" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B365" s="22" t="s">
-        <v>943</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B366" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B367" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B368" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B369" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B370" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B371" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B372" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B373" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B374" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B375" s="4" t="s">
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="23"/>
+      <c r="B381" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C381" s="24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D381" s="25"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="4">
+        <v>1</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B383" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="C375" s="5" t="s">
+      <c r="C383" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B376" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B377" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B378" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="C378" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B379" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>972</v>
-      </c>
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B380" s="22" t="s">
-        <v>973</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B381" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B382" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B383" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>981</v>
-      </c>
       <c r="D383" s="2"/>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B384" s="4" t="s">
-        <v>982</v>
+        <v>715</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>649</v>
+        <v>114</v>
       </c>
       <c r="D384" s="2"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B385" s="4" t="s">
-        <v>983</v>
+        <v>222</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>984</v>
+        <v>220</v>
       </c>
       <c r="D385" s="2"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B386" s="4" t="s">
-        <v>985</v>
+        <v>933</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>986</v>
+        <v>934</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B387" s="4" t="s">
-        <v>987</v>
+        <v>269</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="D387" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B388" s="4" t="s">
-        <v>989</v>
+        <v>643</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>990</v>
+        <v>644</v>
       </c>
       <c r="D388" s="2"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B389" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D389" s="2"/>
+      <c r="A389" s="23"/>
+      <c r="B389" s="23" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C389" s="24" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D389" s="25"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B390" s="4" t="s">
-        <v>992</v>
+        <v>802</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>993</v>
+        <v>801</v>
       </c>
       <c r="D390" s="2"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B391" s="4" t="s">
-        <v>994</v>
+        <v>236</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="D391" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B392" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="D392" s="2"/>
+      <c r="A392" s="23"/>
+      <c r="B392" s="23" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C392" s="24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D392" s="25" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="23" t="s">
-        <v>1007</v>
+        <v>1105</v>
       </c>
       <c r="C393" s="24" t="s">
-        <v>1008</v>
+        <v>1106</v>
       </c>
       <c r="D393" s="25"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" s="23"/>
-      <c r="B394" s="23" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C394" s="24" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D394" s="25"/>
+      <c r="B394" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D394" s="2"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="23" t="s">
-        <v>1011</v>
+        <v>1107</v>
       </c>
       <c r="C395" s="24" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D395" s="25"/>
+        <v>1109</v>
+      </c>
+      <c r="D395" s="25" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396" s="23"/>
-      <c r="B396" s="23" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C396" s="24" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D396" s="25"/>
+      <c r="B396" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397" s="23"/>
-      <c r="B397" s="23" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C397" s="24" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D397" s="25"/>
+      <c r="B397" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398" s="23"/>
-      <c r="B398" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C398" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D398" s="25"/>
+      <c r="B398" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399" s="23"/>
-      <c r="B399" s="23" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C399" s="24" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D399" s="25"/>
+      <c r="B399" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400" s="23"/>
-      <c r="B400" s="23" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C400" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D400" s="25"/>
+      <c r="B400" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A401" s="23"/>
-      <c r="B401" s="23" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C401" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="D401" s="25"/>
+      <c r="B401" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A402" s="23"/>
-      <c r="B402" s="23" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C402" s="24" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D402" s="25"/>
+      <c r="B402" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A403" s="23"/>
-      <c r="B403" s="23" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C403" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D403" s="25"/>
+      <c r="B403" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D403" s="2"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="23" t="s">
-        <v>1029</v>
+        <v>1110</v>
       </c>
       <c r="C404" s="24" t="s">
-        <v>1030</v>
+        <v>793</v>
       </c>
       <c r="D404" s="25"/>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A405" s="23"/>
-      <c r="B405" s="23" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C405" s="24" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D405" s="25" t="s">
-        <v>1033</v>
-      </c>
+      <c r="B405" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D405" s="2"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="23"/>
       <c r="B406" s="23" t="s">
-        <v>1034</v>
+        <v>1111</v>
       </c>
       <c r="C406" s="24" t="s">
-        <v>1035</v>
+        <v>1112</v>
       </c>
       <c r="D406" s="25"/>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A407" s="23"/>
-      <c r="B407" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C407" s="24" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D407" s="25"/>
+      <c r="B407" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D407" s="2"/>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A408" s="23"/>
-      <c r="B408" s="23" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C408" s="24" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D408" s="25"/>
+      <c r="B408" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D408" s="2"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409" s="23"/>
-      <c r="B409" s="23" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C409" s="24" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D409" s="25"/>
+      <c r="B409" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A410" s="23"/>
-      <c r="B410" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="C410" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="D410" s="25"/>
+      <c r="B410" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D410" s="2"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A411" s="23"/>
-      <c r="B411" s="23" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C411" s="24" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D411" s="25"/>
+      <c r="B411" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D411" s="2"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A412" s="23"/>
-      <c r="B412" s="23" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C412" s="24" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D412" s="25"/>
+      <c r="B412" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="D412" s="2"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="23" t="s">
-        <v>1046</v>
+        <v>1113</v>
       </c>
       <c r="C413" s="24" t="s">
-        <v>1047</v>
+        <v>780</v>
       </c>
       <c r="D413" s="25"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A414" s="23"/>
-      <c r="B414" s="23" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C414" s="24" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D414" s="25"/>
+      <c r="B414" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="23" t="s">
-        <v>1050</v>
+        <v>1114</v>
       </c>
       <c r="C415" s="24" t="s">
-        <v>1051</v>
+        <v>1115</v>
       </c>
       <c r="D415" s="25"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A416" s="23"/>
-      <c r="B416" s="23" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C416" s="24" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D416" s="25"/>
+      <c r="B416" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D416" s="2"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A417" s="23"/>
-      <c r="B417" s="23" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C417" s="24" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D417" s="25"/>
+      <c r="B417" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A418" s="23"/>
-      <c r="B418" s="23" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C418" s="24" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D418" s="25"/>
+      <c r="B418" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A419" s="23"/>
-      <c r="B419" s="23" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C419" s="24" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D419" s="25"/>
+      <c r="B419" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A420" s="23"/>
-      <c r="B420" s="23" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C420" s="24" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D420" s="25"/>
+      <c r="B420" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D420" s="2"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A421" s="23"/>
-      <c r="B421" s="23" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C421" s="24" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D421" s="25" t="s">
-        <v>1064</v>
-      </c>
+      <c r="B421" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D421" s="2"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A422" s="23"/>
-      <c r="B422" s="23" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C422" s="24" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D422" s="25"/>
+      <c r="B422" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A423" s="23"/>
-      <c r="B423" s="23" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C423" s="24" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D423" s="25"/>
+      <c r="B423" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D423" s="2"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="23" t="s">
-        <v>1068</v>
+        <v>1152</v>
       </c>
       <c r="C424" s="24" t="s">
-        <v>1069</v>
+        <v>1153</v>
       </c>
       <c r="D424" s="25"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A425" s="23"/>
-      <c r="B425" s="23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C425" s="24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D425" s="25"/>
+      <c r="B425" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A426" s="23"/>
-      <c r="B426" s="23" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C426" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D426" s="25"/>
+      <c r="B426" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A427" s="23"/>
-      <c r="B427" s="23" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C427" s="24" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D427" s="25"/>
+      <c r="B427" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A428" s="23"/>
-      <c r="B428" s="23" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C428" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D428" s="25"/>
+      <c r="B428" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D428" s="2"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A429" s="23"/>
-      <c r="B429" s="23" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C429" s="24" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D429" s="25"/>
+      <c r="B429" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D429" s="2"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A430" s="23"/>
-      <c r="B430" s="23" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C430" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D430" s="25"/>
+      <c r="B430" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D430" s="2"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="23"/>
       <c r="B431" s="23" t="s">
-        <v>1084</v>
+        <v>1165</v>
       </c>
       <c r="C431" s="24" t="s">
-        <v>1085</v>
+        <v>1166</v>
       </c>
       <c r="D431" s="25"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A432" s="23"/>
-      <c r="B432" s="23" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C432" s="24" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D432" s="25"/>
+      <c r="B432" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A433" s="23"/>
-      <c r="B433" s="23" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C433" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D433" s="25"/>
+      <c r="B433" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
       <c r="B434" s="23" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
       <c r="C434" s="24" t="s">
-        <v>409</v>
+        <v>1117</v>
       </c>
       <c r="D434" s="25"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A435" s="23"/>
-      <c r="B435" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C435" s="24" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D435" s="25"/>
+      <c r="A435" s="4">
+        <v>2</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="23" t="s">
-        <v>1094</v>
+        <v>1120</v>
       </c>
       <c r="C436" s="24" t="s">
-        <v>1095</v>
+        <v>689</v>
       </c>
       <c r="D436" s="25"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="23"/>
       <c r="B437" s="23" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="C437" s="24" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D437" s="25" t="s">
-        <v>1102</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="D437" s="25"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A438" s="23"/>
-      <c r="B438" s="23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C438" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D438" s="25"/>
+      <c r="A438" s="4">
+        <v>2</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A439" s="23"/>
-      <c r="B439" s="23" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C439" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D439" s="25" t="s">
-        <v>1101</v>
-      </c>
+      <c r="B439" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D439" s="2"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A440" s="23"/>
-      <c r="B440" s="23" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C440" s="24" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D440" s="25" t="s">
-        <v>1109</v>
-      </c>
+      <c r="B440" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D440" s="2"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A441" s="23"/>
-      <c r="B441" s="23" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C441" s="24" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D441" s="25"/>
+      <c r="B441" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A442" s="23"/>
-      <c r="B442" s="23" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C442" s="24" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D442" s="25"/>
+      <c r="B442" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A443" s="23"/>
-      <c r="B443" s="23" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C443" s="24" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D443" s="25"/>
+      <c r="B443" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D443" s="2"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A444" s="23"/>
-      <c r="B444" s="23" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C444" s="24" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D444" s="25"/>
+      <c r="B444" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D444" s="2"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="23"/>
       <c r="B445" s="23" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="C445" s="24" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="D445" s="25"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A446" s="23"/>
-      <c r="B446" s="23" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C446" s="24" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D446" s="25"/>
+      <c r="B446" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A447" s="23"/>
-      <c r="B447" s="23" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C447" s="24" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D447" s="25"/>
+      <c r="B447" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C447" s="5"/>
+      <c r="D447" s="2" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="23" t="s">
-        <v>1124</v>
+        <v>1139</v>
       </c>
       <c r="C448" s="24" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D448" s="25" t="s">
-        <v>1126</v>
-      </c>
+        <v>1140</v>
+      </c>
+      <c r="D448" s="25"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" s="23"/>
-      <c r="B449" s="23" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C449" s="24" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D449" s="25"/>
+      <c r="B449" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D449" s="2"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="23"/>
       <c r="B450" s="23" t="s">
-        <v>1129</v>
+        <v>1199</v>
       </c>
       <c r="C450" s="24" t="s">
-        <v>1131</v>
+        <v>1200</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1130</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="23"/>
       <c r="B451" s="23" t="s">
-        <v>1132</v>
+        <v>1205</v>
       </c>
       <c r="C451" s="24" t="s">
-        <v>815</v>
+        <v>1206</v>
       </c>
       <c r="D451" s="25"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="23"/>
-      <c r="B452" s="23" t="s">
-        <v>1133</v>
+      <c r="B452" s="4" t="s">
+        <v>1248</v>
       </c>
       <c r="C452" s="24" t="s">
-        <v>1134</v>
+        <v>1025</v>
       </c>
       <c r="D452" s="25"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="23" t="s">
-        <v>1135</v>
+        <v>1249</v>
       </c>
       <c r="C453" s="24" t="s">
-        <v>802</v>
+        <v>1250</v>
       </c>
       <c r="D453" s="25"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="23"/>
       <c r="B454" s="23" t="s">
-        <v>1136</v>
+        <v>1251</v>
       </c>
       <c r="C454" s="24" t="s">
-        <v>1137</v>
+        <v>1252</v>
       </c>
       <c r="D454" s="25"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="23" t="s">
-        <v>1138</v>
+        <v>1253</v>
       </c>
       <c r="C455" s="24" t="s">
-        <v>1139</v>
+        <v>1254</v>
       </c>
       <c r="D455" s="25"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="23" t="s">
-        <v>1142</v>
+        <v>1255</v>
       </c>
       <c r="C456" s="24" t="s">
-        <v>711</v>
+        <v>428</v>
       </c>
       <c r="D456" s="25"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="23" t="s">
-        <v>1143</v>
+        <v>1256</v>
       </c>
       <c r="C457" s="24" t="s">
-        <v>1144</v>
+        <v>137</v>
       </c>
       <c r="D457" s="25"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="23"/>
       <c r="B458" s="23" t="s">
-        <v>1145</v>
+        <v>1257</v>
       </c>
       <c r="C458" s="24" t="s">
-        <v>1146</v>
+        <v>137</v>
       </c>
       <c r="D458" s="25"/>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A459" s="23"/>
-      <c r="B459" s="23" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C459" s="24" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D459" s="25"/>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A460" s="23"/>
-      <c r="B460" s="23" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C460" s="24" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D460" s="25"/>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A461" s="23"/>
-      <c r="B461" s="23" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C461" s="24" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D461" s="25"/>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A462" s="23"/>
-      <c r="B462" s="23" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C462" s="24" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D462" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B261" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
-    <hyperlink ref="B314" r:id="rId2" location="Chinese" tooltip="炙" display="https://en.wiktionary.org/wiki/%E7%82%99 - Chinese" xr:uid="{3B2915AD-EB41-4981-A81B-13043D1ACD90}"/>
-    <hyperlink ref="B13" r:id="rId3" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
-    <hyperlink ref="B6" r:id="rId4" location="Chinese" tooltip="拍" display="https://en.wiktionary.org/wiki/%E6%8B%8D - Chinese" xr:uid="{4720F63B-AB11-46A2-B0DB-301C28EB4467}"/>
-    <hyperlink ref="B304" r:id="rId5" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
-    <hyperlink ref="B152" r:id="rId6" location="Chinese" tooltip="曲" display="https://en.wiktionary.org/wiki/%E6%9B%B2 - Chinese" xr:uid="{EA3B65E7-2053-4AE2-92E5-0446FF2C2C24}"/>
-    <hyperlink ref="B143" r:id="rId7" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
-    <hyperlink ref="B182" r:id="rId8" location="Chinese" tooltip="弩" display="https://en.wiktionary.org/wiki/%E5%BC%A9 - Chinese" xr:uid="{BC88329A-0225-48C8-9840-6DFBB20087F4}"/>
-    <hyperlink ref="B290" r:id="rId9" location="Chinese" tooltip="烏" display="https://en.wiktionary.org/wiki/%E7%83%8F - Chinese" xr:uid="{50BC03FC-8827-4C4E-BE29-75698A3D776E}"/>
-    <hyperlink ref="B43" r:id="rId10" location="Chinese" tooltip="獐" display="https://en.wiktionary.org/wiki/%E7%8D%90 - Chinese" xr:uid="{B2F710A0-F1D7-4D0E-B970-C71BD1159FE0}"/>
-    <hyperlink ref="B296" r:id="rId11" tooltip="挖" display="https://en.wiktionary.org/wiki/%E6%8C%96" xr:uid="{9E027813-4ED7-4788-8449-1A2B1185B401}"/>
-    <hyperlink ref="B339" r:id="rId12" location="Chinese" tooltip="嫌" display="https://en.wiktionary.org/wiki/%E5%AB%8C - Chinese" xr:uid="{715ACB68-9DD0-4FCC-92ED-0DEB24C8B46C}"/>
-    <hyperlink ref="B54" r:id="rId13" location="Chinese" tooltip="散" display="https://en.wiktionary.org/wiki/%E6%95%A3 - Chinese" xr:uid="{78494AF0-E2B4-49A8-9327-42D21549AE0F}"/>
-    <hyperlink ref="B130" r:id="rId14" location="Chinese" tooltip="狗" display="https://en.wiktionary.org/wiki/%E7%8B%97 - Chinese" xr:uid="{6673E652-C2C0-40D1-B778-8BC7868C8253}"/>
-    <hyperlink ref="B145" r:id="rId15" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
-    <hyperlink ref="B77" r:id="rId16" location="Chinese" tooltip="渴" display="https://en.wiktionary.org/wiki/%E6%B8%B4 - Chinese" xr:uid="{BA50169C-CC12-4B8B-897A-538C7836FD04}"/>
-    <hyperlink ref="B174" r:id="rId17" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
-    <hyperlink ref="B64" r:id="rId18" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
-    <hyperlink ref="B120" r:id="rId19" location="Chinese" tooltip="攪" display="https://en.wiktionary.org/wiki/%E6%94%AA - Chinese" xr:uid="{EC616AFB-DFE3-464E-8578-12AFEA4E414A}"/>
-    <hyperlink ref="B346" r:id="rId20" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
-    <hyperlink ref="B365" r:id="rId21" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
-    <hyperlink ref="B380" r:id="rId22" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
+    <hyperlink ref="B323" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
+    <hyperlink ref="B318" r:id="rId2" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
+    <hyperlink ref="B126" r:id="rId3" location="Chinese" tooltip="拍" display="https://en.wiktionary.org/wiki/%E6%8B%8D - Chinese" xr:uid="{4720F63B-AB11-46A2-B0DB-301C28EB4467}"/>
+    <hyperlink ref="B400" r:id="rId4" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
+    <hyperlink ref="B152" r:id="rId5" location="Chinese" tooltip="曲" display="https://en.wiktionary.org/wiki/%E6%9B%B2 - Chinese" xr:uid="{EA3B65E7-2053-4AE2-92E5-0446FF2C2C24}"/>
+    <hyperlink ref="B366" r:id="rId6" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
+    <hyperlink ref="B226" r:id="rId7" location="Chinese" tooltip="獐" display="https://en.wiktionary.org/wiki/%E7%8D%90 - Chinese" xr:uid="{B2F710A0-F1D7-4D0E-B970-C71BD1159FE0}"/>
+    <hyperlink ref="B128" r:id="rId8" tooltip="挖" display="https://en.wiktionary.org/wiki/%E6%8C%96" xr:uid="{9E027813-4ED7-4788-8449-1A2B1185B401}"/>
+    <hyperlink ref="B79" r:id="rId9" location="Chinese" tooltip="嫌" display="https://en.wiktionary.org/wiki/%E5%AB%8C - Chinese" xr:uid="{715ACB68-9DD0-4FCC-92ED-0DEB24C8B46C}"/>
+    <hyperlink ref="B138" r:id="rId10" location="Chinese" tooltip="散" display="https://en.wiktionary.org/wiki/%E6%95%A3 - Chinese" xr:uid="{78494AF0-E2B4-49A8-9327-42D21549AE0F}"/>
+    <hyperlink ref="B224" r:id="rId11" location="Chinese" tooltip="狗" display="https://en.wiktionary.org/wiki/%E7%8B%97 - Chinese" xr:uid="{6673E652-C2C0-40D1-B778-8BC7868C8253}"/>
+    <hyperlink ref="B446" r:id="rId12" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
+    <hyperlink ref="B195" r:id="rId13" location="Chinese" tooltip="渴" display="https://en.wiktionary.org/wiki/%E6%B8%B4 - Chinese" xr:uid="{BA50169C-CC12-4B8B-897A-538C7836FD04}"/>
+    <hyperlink ref="B407" r:id="rId14" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
+    <hyperlink ref="B267" r:id="rId15" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
+    <hyperlink ref="B134" r:id="rId16" location="Chinese" tooltip="攪" display="https://en.wiktionary.org/wiki/%E6%94%AA - Chinese" xr:uid="{EC616AFB-DFE3-464E-8578-12AFEA4E414A}"/>
+    <hyperlink ref="B335" r:id="rId17" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
+    <hyperlink ref="B311" r:id="rId18" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
+    <hyperlink ref="B261" r:id="rId19" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9567,16 +9746,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9584,13 +9763,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9598,13 +9777,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9612,13 +9791,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9626,13 +9805,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -9645,10 +9824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9E2CE-C9AF-4C2A-A516-EDCC9ADFAFC1}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9656,22 +9835,22 @@
     <col min="1" max="1" width="9.9140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.58203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="9" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9679,13 +9858,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9693,13 +9872,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9707,13 +9886,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9721,13 +9900,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9735,13 +9914,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9749,561 +9928,777 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="12" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="11" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="11" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="25"/>
       <c r="B43" s="26" t="s">
-        <v>1081</v>
+        <v>1059</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>1082</v>
+        <v>1060</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="25"/>
       <c r="B44" s="26" t="s">
-        <v>1086</v>
+        <v>1064</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
-        <v>1147</v>
+        <v>1125</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1149</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
-        <v>1150</v>
+        <v>1128</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1152</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
-        <v>1153</v>
+        <v>1131</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>1154</v>
+        <v>1132</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1155</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="25"/>
       <c r="B49" s="26" t="s">
-        <v>1156</v>
+        <v>1134</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>1157</v>
+        <v>1135</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1158</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1164</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
-        <v>1165</v>
+        <v>1143</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>1166</v>
+        <v>1144</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>1169</v>
+        <v>1147</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1170</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="25"/>
       <c r="B53" s="26" t="s">
-        <v>1171</v>
+        <v>1149</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>1172</v>
+        <v>1150</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1173</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="25"/>
       <c r="B54" s="26" t="s">
-        <v>1178</v>
+        <v>1156</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>1179</v>
+        <v>1157</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1180</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
-        <v>1181</v>
+        <v>1159</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1183</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="25"/>
+      <c r="B61" s="26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26" t="s">
         <v>1184</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C62" s="27" t="s">
         <v>1185</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>1186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="25"/>
+      <c r="B63" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="25"/>
+      <c r="B64" s="26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="25"/>
+      <c r="B65" s="26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="25"/>
+      <c r="B66" s="26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="25"/>
+      <c r="B67" s="26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="25"/>
+      <c r="B68" s="26" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="25"/>
+      <c r="B69" s="26" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="25"/>
+      <c r="B70" s="26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="25"/>
+      <c r="B71" s="26" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="25"/>
+      <c r="B72" s="26" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="25"/>
+      <c r="B73" s="26" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="25"/>
+      <c r="B74" s="26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -10316,28 +10711,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A1A9B7-25AD-4A8E-9D69-9C5CD27544E5}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -10345,55 +10740,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -10401,109 +10796,136 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>1140</v>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -10519,7 +10941,7 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10541,49 +10963,49 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="15" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="15" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="D9" s="13"/>
     </row>

--- a/qmuen.xlsx
+++ b/qmuen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lap trinh\QMun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6AF65C-29AC-423F-9F38-6A8787181C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4299846F-FE64-4516-9DB3-9161ABB2A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" activeTab="2" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="1260">
   <si>
     <t>一</t>
   </si>
@@ -1114,12 +1114,6 @@
     <t>yŏmr</t>
   </si>
   <si>
-    <t>nhêtc</t>
-  </si>
-  <si>
-    <t>熱</t>
-  </si>
-  <si>
     <t>餉</t>
   </si>
   <si>
@@ -1159,9 +1153,6 @@
     <t>豚</t>
   </si>
   <si>
-    <t>豬</t>
-  </si>
-  <si>
     <t>句</t>
   </si>
   <si>
@@ -1180,9 +1171,6 @@
     <t>choul</t>
   </si>
   <si>
-    <t>cŭir</t>
-  </si>
-  <si>
     <t>cous</t>
   </si>
   <si>
@@ -3652,15 +3640,9 @@
     <t>zêud</t>
   </si>
   <si>
-    <t>𥙵</t>
-  </si>
-  <si>
     <t>mvanb</t>
   </si>
   <si>
-    <t>hình thanh:  示免</t>
-  </si>
-  <si>
     <t>𫋎</t>
   </si>
   <si>
@@ -3803,6 +3785,30 @@
   </si>
   <si>
     <t>䗜</t>
+  </si>
+  <si>
+    <t>păngr</t>
+  </si>
+  <si>
+    <t>sŏngs</t>
+  </si>
+  <si>
+    <t>yăuh</t>
+  </si>
+  <si>
+    <t>kur</t>
+  </si>
+  <si>
+    <t>𩲡</t>
+  </si>
+  <si>
+    <t>hội ý: quỷ thần thường ở nơi thờ cúng</t>
+  </si>
+  <si>
+    <t>băih</t>
+  </si>
+  <si>
+    <t>排</t>
   </si>
 </sst>
 </file>
@@ -3998,7 +4004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4057,10 +4063,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -4644,10 +4646,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D458" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:D458" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D449">
-    <sortCondition ref="B1:B449"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D457" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D457" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D447">
+    <sortCondition ref="B1:B447"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="25"/>
@@ -4994,10 +4996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C37EFB-A8EE-4DC7-8A99-5510C4649B02}">
-  <dimension ref="A1:D458"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView topLeftCell="A449" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C459" sqref="C459"/>
+    <sheetView topLeftCell="A452" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5012,16 +5014,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5068,13 +5070,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5093,7 +5095,7 @@
         <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>220</v>
@@ -5137,10 +5139,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -5152,10 +5154,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5174,7 +5176,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>351</v>
@@ -5208,30 +5210,30 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -5278,10 +5280,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -5337,10 +5339,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -5366,13 +5368,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5395,13 +5397,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5417,10 +5419,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -5474,16 +5476,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>123</v>
@@ -5494,10 +5496,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -5514,33 +5516,33 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5551,7 +5553,7 @@
         <v>225</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5567,13 +5569,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5589,29 +5591,29 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>339</v>
@@ -5620,10 +5622,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -5653,7 +5655,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>25</v>
@@ -5661,10 +5663,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -5679,10 +5681,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -5699,19 +5701,19 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>107</v>
@@ -5719,31 +5721,30 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23" t="s">
-        <v>989</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>990</v>
-      </c>
-      <c r="D67" s="25"/>
+      <c r="B67" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -5771,35 +5772,34 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D71" s="25"/>
+      <c r="B71" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -5846,36 +5846,36 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" s="22" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>111</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>210</v>
       </c>
@@ -5895,38 +5895,38 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>264</v>
       </c>
@@ -5937,40 +5937,40 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>299</v>
       </c>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>112</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>273</v>
       </c>
@@ -5999,29 +5999,29 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>337</v>
       </c>
@@ -6030,43 +6030,44 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23" t="s">
-        <v>993</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>994</v>
-      </c>
-      <c r="D96" s="25"/>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="D98" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -6085,42 +6086,42 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -6139,19 +6140,19 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D107" s="2"/>
     </row>
@@ -6171,7 +6172,7 @@
         <v>149</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>150</v>
@@ -6188,13 +6189,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -6208,18 +6209,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>198</v>
       </c>
@@ -6228,65 +6229,65 @@
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>174</v>
       </c>
@@ -6297,53 +6298,52 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23" t="s">
-        <v>995</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>996</v>
-      </c>
-      <c r="D122" s="25"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="22" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
         <v>311</v>
       </c>
@@ -6354,111 +6354,110 @@
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="22" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
-      <c r="B129" s="23" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D129" s="25"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B130" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B131" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B132" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B133" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B134" s="22" t="s">
-        <v>866</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B135" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B136" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B137" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B138" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>829</v>
-      </c>
       <c r="D138" s="2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
         <v>288</v>
       </c>
@@ -6469,45 +6468,45 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>129</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>130</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -6543,21 +6542,21 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -6596,24 +6595,24 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B152" s="22" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -6632,43 +6631,43 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -6677,10 +6676,10 @@
         <v>219</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -6688,23 +6687,22 @@
         <v>209</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="23"/>
-      <c r="B161" s="23" t="s">
-        <v>997</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>998</v>
-      </c>
-      <c r="D161" s="25"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
         <v>126</v>
       </c>
@@ -6715,45 +6713,45 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
         <v>251</v>
       </c>
@@ -6762,16 +6760,16 @@
       </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="4" t="s">
         <v>169</v>
       </c>
@@ -6780,7 +6778,7 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
         <v>212</v>
       </c>
@@ -6789,60 +6787,59 @@
       </c>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="23"/>
-      <c r="B176" s="23" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D176" s="25"/>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
@@ -6860,13 +6857,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -6891,21 +6888,21 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -6923,19 +6920,18 @@
         <v>248</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="23"/>
-      <c r="B185" s="23" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C185" s="24" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D185" s="25"/>
+      <c r="B185" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
@@ -6947,80 +6943,77 @@
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="23"/>
-      <c r="B187" s="23" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C187" s="24" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D187" s="25"/>
+      <c r="B187" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="23"/>
-      <c r="B188" s="23" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D188" s="25"/>
+      <c r="B188" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="23"/>
-      <c r="B190" s="23" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C190" s="24" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D190" s="25" t="s">
-        <v>1011</v>
+      <c r="B190" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B193" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="s">
         <v>180</v>
       </c>
@@ -7029,7 +7022,7 @@
       </c>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="22" t="s">
         <v>180</v>
       </c>
@@ -7038,130 +7031,124 @@
       </c>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="23"/>
-      <c r="B196" s="23" t="s">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B197" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="C196" s="24" t="s">
+      <c r="C198" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="D196" s="25"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B197" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="23"/>
-      <c r="B198" s="23" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C198" s="24" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D198" s="25"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="23" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D200" s="25"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" s="4" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="23"/>
-      <c r="B205" s="23" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C205" s="24" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D205" s="25"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="23"/>
-      <c r="B207" s="23" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C207" s="24" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D207" s="25"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="23"/>
-      <c r="B208" s="23" t="s">
-        <v>985</v>
-      </c>
-      <c r="C208" s="24" t="s">
-        <v>986</v>
-      </c>
-      <c r="D208" s="25"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
         <v>309</v>
       </c>
@@ -7170,34 +7157,34 @@
       </c>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B211" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C211" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B211" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>652</v>
-      </c>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="4" t="s">
         <v>176</v>
       </c>
@@ -7208,19 +7195,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="23"/>
-      <c r="B214" s="23" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C214" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D214" s="25" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B214" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="4" t="s">
         <v>142</v>
       </c>
@@ -7229,253 +7215,253 @@
       </c>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C217" s="5"/>
+        <v>575</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>576</v>
+      </c>
       <c r="D217" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
-        <v>579</v>
+        <v>1018</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="23"/>
-      <c r="B219" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="C219" s="24" t="s">
+      <c r="C222" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="D219" s="25"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B220" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="23"/>
-      <c r="B221" s="23" t="s">
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="C221" s="24" t="s">
+      <c r="C224" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="D221" s="25"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B222" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="23"/>
-      <c r="B223" s="23" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C223" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D223" s="25"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B224" s="22" t="s">
-        <v>831</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>833</v>
-      </c>
+      <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="23"/>
-      <c r="B225" s="23" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C225" s="24" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D225" s="25"/>
+      <c r="B225" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="D225" s="2"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B226" s="22" t="s">
-        <v>819</v>
+      <c r="A226" s="4">
+        <v>1</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="D226" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="4">
-        <v>1</v>
-      </c>
       <c r="B227" s="4" t="s">
-        <v>63</v>
+        <v>377</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="D227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>387</v>
+        <v>303</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B229" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D229" s="2"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
-        <v>297</v>
+        <v>637</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>298</v>
+        <v>638</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
-        <v>641</v>
+        <v>390</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="D231" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="4" t="s">
-        <v>394</v>
+        <v>134</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>433</v>
+        <v>135</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B233" s="4" t="s">
-        <v>134</v>
+        <v>788</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>432</v>
+        <v>789</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B234" s="4" t="s">
-        <v>792</v>
+        <v>125</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>793</v>
+        <v>123</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B235" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B236" s="4" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B237" s="4" t="s">
-        <v>190</v>
+        <v>1026</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="D237" s="2"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="23"/>
-      <c r="B238" s="23" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C238" s="24" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D238" s="25"/>
+      <c r="A238" s="4">
+        <v>2</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>1228</v>
+        <v>14</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>510</v>
+        <v>38</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -7483,2242 +7469,2178 @@
         <v>1</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="4">
+      <c r="B241" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
         <v>1</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B242" s="4" t="s">
-        <v>761</v>
+        <v>62</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>762</v>
+        <v>1223</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>763</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="4">
+      <c r="B243" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
         <v>1</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B244" s="4" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="4">
-        <v>1</v>
-      </c>
       <c r="B245" s="4" t="s">
-        <v>82</v>
+        <v>966</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="D245" s="2"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
-        <v>970</v>
+        <v>1027</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>971</v>
+        <v>1028</v>
       </c>
       <c r="D246" s="2"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="23"/>
-      <c r="B247" s="23" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C247" s="24" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D247" s="25"/>
+      <c r="B247" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D247" s="2"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B248" s="4" t="s">
-        <v>368</v>
+        <v>870</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>369</v>
+        <v>871</v>
       </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
-        <v>874</v>
+        <v>1029</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>875</v>
+        <v>1030</v>
       </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="23"/>
-      <c r="B250" s="23" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C250" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D250" s="25"/>
+      <c r="B250" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D250" s="2"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="4" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D251" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
-        <v>186</v>
+        <v>657</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B253" s="4" t="s">
-        <v>661</v>
+        <v>919</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>517</v>
+        <v>920</v>
       </c>
       <c r="D253" s="2"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B254" s="4" t="s">
-        <v>923</v>
+        <v>770</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="D254" s="2"/>
+        <v>772</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B255" s="4" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>775</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B256" s="4" t="s">
-        <v>797</v>
+        <v>1034</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>798</v>
+        <v>1035</v>
       </c>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="23"/>
-      <c r="B257" s="23" t="s">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B257" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="C257" s="24" t="s">
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B258" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B259" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B260" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B261" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B263" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B264" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B265" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B266" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B267" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B268" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="D257" s="25"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="23"/>
-      <c r="B258" s="23" t="s">
+      <c r="C268" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="C258" s="24" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D258" s="25" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B259" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B260" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D260" s="2"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B261" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D261" s="2"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B262" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B263" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B264" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B265" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B266" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="D266" s="2"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B267" s="22" t="s">
-        <v>863</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B268" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="23"/>
-      <c r="B269" s="23" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C269" s="24" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D269" s="25"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B269" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" s="4" t="s">
-        <v>679</v>
+        <v>375</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>680</v>
+        <v>381</v>
       </c>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="4" t="s">
-        <v>378</v>
+        <v>713</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D271" s="2"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="4" t="s">
-        <v>717</v>
+        <v>246</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>718</v>
+        <v>247</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>719</v>
+        <v>512</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B273" s="4" t="s">
-        <v>246</v>
+        <v>777</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>516</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B274" s="4" t="s">
-        <v>781</v>
+        <v>1041</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>782</v>
+        <v>1031</v>
       </c>
       <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="23"/>
-      <c r="B275" s="23" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C275" s="24" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D275" s="25"/>
+      <c r="B275" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="D275" s="2"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B276" s="4" t="s">
-        <v>909</v>
+        <v>578</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>910</v>
+        <v>579</v>
       </c>
       <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B277" s="4" t="s">
-        <v>582</v>
+        <v>1042</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>583</v>
+        <v>1043</v>
       </c>
       <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="23"/>
-      <c r="B278" s="23" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C278" s="24" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D278" s="25"/>
+      <c r="B278" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="23"/>
-      <c r="B279" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C279" s="24" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D279" s="25"/>
+      <c r="B279" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B280" s="4" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B281" s="4" t="s">
-        <v>350</v>
+        <v>1044</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>1045</v>
+      </c>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="23"/>
-      <c r="B282" s="23" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C282" s="24" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D282" s="25"/>
+      <c r="B282" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B283" s="4" t="s">
-        <v>931</v>
+        <v>965</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>932</v>
+        <v>721</v>
       </c>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B284" s="4" t="s">
-        <v>969</v>
+        <v>262</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>725</v>
+        <v>263</v>
       </c>
       <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B285" s="4" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D285" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="4">
+        <v>2</v>
+      </c>
       <c r="B286" s="4" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>277</v>
+        <v>79</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="4">
-        <v>2</v>
-      </c>
       <c r="B287" s="4" t="s">
-        <v>76</v>
+        <v>1088</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="D287" s="2"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="23"/>
-      <c r="B288" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C288" s="24" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D288" s="25"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B288" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="4" t="s">
-        <v>915</v>
+        <v>945</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>916</v>
+        <v>946</v>
       </c>
       <c r="D289" s="2"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" s="4" t="s">
-        <v>949</v>
+        <v>706</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="D290" s="2"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" s="4" t="s">
-        <v>710</v>
+        <v>901</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" s="4" t="s">
-        <v>905</v>
+        <v>808</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>906</v>
+        <v>809</v>
       </c>
       <c r="D292" s="2"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" s="4" t="s">
-        <v>812</v>
+        <v>1050</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>813</v>
+        <v>1051</v>
       </c>
       <c r="D293" s="2"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="23"/>
-      <c r="B294" s="23" t="s">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B295" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B296" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="C294" s="24" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D294" s="25"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B295" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D295" s="2"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="23"/>
-      <c r="B296" s="23" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C296" s="24" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D296" s="25"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="23"/>
-      <c r="B297" s="23" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C297" s="24" t="s">
+      <c r="C296" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D297" s="25"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B297" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" s="4" t="s">
-        <v>965</v>
+        <v>988</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>966</v>
+        <v>987</v>
       </c>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="23"/>
-      <c r="B299" s="23" t="s">
-        <v>992</v>
-      </c>
-      <c r="C299" s="24" t="s">
-        <v>991</v>
-      </c>
-      <c r="D299" s="25"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B299" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" s="4" t="s">
-        <v>344</v>
+        <v>1133</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>343</v>
+        <v>1134</v>
       </c>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="23"/>
-      <c r="B301" s="23" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C301" s="24" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D301" s="25"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B301" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" s="4" t="s">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" s="4" t="s">
-        <v>139</v>
+        <v>340</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" s="4" t="s">
-        <v>340</v>
+        <v>935</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B305" s="4" t="s">
-        <v>939</v>
+        <v>556</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>940</v>
+        <v>557</v>
       </c>
       <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B306" s="4" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D306" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="4">
+        <v>1</v>
+      </c>
       <c r="B307" s="4" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>526</v>
+        <v>18</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="4">
-        <v>1</v>
-      </c>
       <c r="B308" s="4" t="s">
-        <v>17</v>
+        <v>1064</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="23"/>
-      <c r="B309" s="23" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C309" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D309" s="25"/>
+      <c r="B309" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D309" s="2"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B310" s="4" t="s">
-        <v>586</v>
+      <c r="B310" s="22" t="s">
+        <v>917</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>587</v>
+        <v>918</v>
       </c>
       <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B311" s="22" t="s">
-        <v>921</v>
+      <c r="B311" s="4" t="s">
+        <v>1061</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>922</v>
+        <v>1062</v>
       </c>
       <c r="D311" s="2"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="23"/>
-      <c r="B312" s="23" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C312" s="24" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D312" s="25"/>
+      <c r="B312" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B313" s="4" t="s">
-        <v>366</v>
+        <v>957</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>367</v>
+        <v>958</v>
       </c>
       <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B314" s="4" t="s">
-        <v>961</v>
+        <v>370</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>962</v>
+        <v>371</v>
       </c>
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B315" s="4" t="s">
-        <v>372</v>
+        <v>1065</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="23"/>
-      <c r="B316" s="23" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C316" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D316" s="25"/>
+      <c r="B316" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B317" s="4" t="s">
-        <v>935</v>
+      <c r="B317" s="22" t="s">
+        <v>795</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>343</v>
+        <v>796</v>
       </c>
       <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B318" s="22" t="s">
-        <v>799</v>
+      <c r="B318" s="4" t="s">
+        <v>941</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>800</v>
+        <v>942</v>
       </c>
       <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B319" s="4" t="s">
-        <v>945</v>
+        <v>860</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>946</v>
+        <v>861</v>
       </c>
       <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" s="4" t="s">
-        <v>864</v>
+        <v>196</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="D320" s="2"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1224</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B321" s="4" t="s">
-        <v>196</v>
+        <v>792</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>1230</v>
+        <v>791</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B322" s="4" t="s">
-        <v>796</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B322" s="22" t="s">
+        <v>790</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B323" s="22" t="s">
-        <v>794</v>
+        <v>462</v>
+      </c>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B323" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B324" s="4" t="s">
-        <v>564</v>
+        <v>1068</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="23"/>
-      <c r="B325" s="23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B325" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B326" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B327" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B328" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B331" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B332" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B335" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B336" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B337" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="C325" s="24" t="s">
+      <c r="C339" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="D325" s="25"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B326" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>920</v>
-      </c>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="23"/>
-      <c r="B327" s="23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C327" s="24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D327" s="25"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B328" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B329" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B330" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="23"/>
-      <c r="B331" s="23" t="s">
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B344" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B348" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B349" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C331" s="24" t="s">
+      <c r="C350" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D350" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="D331" s="25" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B332" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B333" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B334" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B335" s="22" t="s">
-        <v>883</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B336" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C336" s="5" t="s">
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="C351" s="5" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B337" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B338" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B339" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B340" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="23"/>
-      <c r="B341" s="23" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C341" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D341" s="25"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="23"/>
-      <c r="B342" s="23" t="s">
-        <v>987</v>
-      </c>
-      <c r="C342" s="24" t="s">
-        <v>988</v>
-      </c>
-      <c r="D342" s="25"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B343" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B344" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B345" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B346" s="4" t="s">
+      <c r="D351" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C346" s="5" t="s">
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B347" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B348" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B349" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B350" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B351" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="23"/>
-      <c r="B352" s="23" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C352" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D352" s="25" t="s">
-        <v>1079</v>
-      </c>
+      <c r="C352" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D352" s="2"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B353" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="D353" s="2" t="s">
         <v>595</v>
       </c>
+      <c r="D353" s="2"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B354" s="4" t="s">
-        <v>596</v>
+        <v>1081</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D354" s="2"/>
+        <v>1082</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B355" s="4" t="s">
-        <v>598</v>
+        <v>119</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>599</v>
+        <v>120</v>
       </c>
       <c r="D355" s="2"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="23"/>
-      <c r="B356" s="23" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C356" s="24" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D356" s="25" t="s">
-        <v>1087</v>
-      </c>
+      <c r="B356" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D356" s="2"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B357" s="4" t="s">
-        <v>119</v>
+        <v>1084</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>120</v>
+        <v>1085</v>
       </c>
       <c r="D357" s="2"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B358" s="4" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D358" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="23"/>
-      <c r="B359" s="23" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C359" s="24" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D359" s="25"/>
+      <c r="B359" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D359" s="2"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B360" s="4" t="s">
-        <v>118</v>
+        <v>923</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>116</v>
+        <v>924</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>117</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B361" s="4" t="s">
-        <v>757</v>
+        <v>167</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="D361" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B362" s="4" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="D362" s="2"/>
+        <v>914</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B363" s="4" t="s">
-        <v>167</v>
+        <v>1010</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>168</v>
+        <v>1011</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>168</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B364" s="4" t="s">
-        <v>917</v>
+      <c r="B364" s="22" t="s">
+        <v>813</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>918</v>
+        <v>814</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>918</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="23"/>
-      <c r="B365" s="23" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C365" s="24" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D365" s="25"/>
+      <c r="B365" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="D365" s="2"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B366" s="22" t="s">
-        <v>817</v>
+      <c r="B366" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="D366" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B367" s="4" t="s">
-        <v>886</v>
+        <v>1086</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>887</v>
+        <v>1087</v>
       </c>
       <c r="D367" s="2"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="4">
+        <v>3</v>
+      </c>
       <c r="B368" s="4" t="s">
-        <v>523</v>
+        <v>85</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>524</v>
+        <v>1225</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="23"/>
-      <c r="B369" s="23" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C369" s="24" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D369" s="25"/>
+      <c r="B369" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="D369" s="2"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="4">
-        <v>3</v>
-      </c>
       <c r="B370" s="4" t="s">
-        <v>85</v>
+        <v>559</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1231</v>
+        <v>363</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>113</v>
+        <v>509</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B371" s="4" t="s">
-        <v>947</v>
+        <v>88</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D371" s="2"/>
+        <v>866</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B372" s="4" t="s">
-        <v>563</v>
+        <v>1090</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>513</v>
-      </c>
+        <v>1091</v>
+      </c>
+      <c r="D372" s="2"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B373" s="4" t="s">
-        <v>88</v>
+        <v>596</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="D373" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B374" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="4">
+        <v>1</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B376" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B377" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374" s="23"/>
-      <c r="B374" s="23" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C374" s="24" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D374" s="25"/>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B375" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" s="23"/>
-      <c r="B376" s="23" t="s">
-        <v>999</v>
-      </c>
-      <c r="C376" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="D376" s="25"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" s="4">
-        <v>1</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B378" s="4" t="s">
-        <v>370</v>
+        <v>925</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="D378" s="2"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B379" s="4" t="s">
-        <v>223</v>
+        <v>1094</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>515</v>
-      </c>
+        <v>1095</v>
+      </c>
+      <c r="D379" s="2"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="4">
+        <v>1</v>
+      </c>
       <c r="B380" s="4" t="s">
-        <v>929</v>
+        <v>86</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="D380" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" s="23"/>
-      <c r="B381" s="23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C381" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D381" s="25"/>
+      <c r="B381" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382" s="4">
-        <v>1</v>
-      </c>
       <c r="B382" s="4" t="s">
-        <v>86</v>
+        <v>711</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B383" s="4" t="s">
-        <v>963</v>
+        <v>222</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>964</v>
+        <v>220</v>
       </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B384" s="4" t="s">
-        <v>715</v>
+        <v>929</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>114</v>
+        <v>930</v>
       </c>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B385" s="4" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B386" s="4" t="s">
-        <v>933</v>
+        <v>639</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>934</v>
+        <v>640</v>
       </c>
       <c r="D386" s="2"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B387" s="4" t="s">
-        <v>269</v>
+        <v>1096</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1097</v>
+      </c>
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B388" s="4" t="s">
-        <v>643</v>
+        <v>798</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>644</v>
+        <v>797</v>
       </c>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" s="23"/>
-      <c r="B389" s="23" t="s">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B389" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B390" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D390" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="C389" s="24" t="s">
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B391" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="D389" s="25"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B390" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B391" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="C391" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" s="23"/>
-      <c r="B392" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="C392" s="24" t="s">
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B392" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B393" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="D392" s="25" t="s">
+      <c r="C393" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D393" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393" s="23"/>
-      <c r="B393" s="23" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C393" s="24" t="s">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B394" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B395" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B396" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B397" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B398" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B399" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B400" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B401" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B402" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="D393" s="25"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B394" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="C394" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="D394" s="2"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395" s="23"/>
-      <c r="B395" s="23" t="s">
+      <c r="C402" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B403" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B404" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="C395" s="24" t="s">
+      <c r="C404" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B405" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B406" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B407" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B408" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B409" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B410" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B411" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="D395" s="25" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B396" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B397" s="4" t="s">
+      <c r="C411" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B412" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B413" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B414" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B415" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B416" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D416" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C397" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B398" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C398" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B399" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B400" s="22" t="s">
-        <v>724</v>
-      </c>
-      <c r="C400" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B401" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="C401" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B402" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B403" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A404" s="23"/>
-      <c r="B404" s="23" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C404" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="D404" s="25"/>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B405" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A406" s="23"/>
-      <c r="B406" s="23" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C406" s="24" t="s">
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B417" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B418" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B419" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B420" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B421" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B422" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B423" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B424" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B425" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B426" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B427" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B428" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D428" s="2"/>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B429" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B430" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B431" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B432" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="D406" s="25"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B407" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="C407" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="D407" s="2"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B408" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C408" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D408" s="2"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B409" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C409" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B410" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C410" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B411" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C411" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B412" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="C412" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="D412" s="2"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A413" s="23"/>
-      <c r="B413" s="23" t="s">
+      <c r="C432" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="C413" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="D413" s="25"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B414" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C414" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A415" s="23"/>
-      <c r="B415" s="23" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C415" s="24" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D415" s="25"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B416" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D416" s="2"/>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B417" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C417" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B418" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="C418" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B419" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C419" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B420" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="D420" s="2"/>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B421" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D421" s="2"/>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B422" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C422" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B423" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="C423" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D423" s="2"/>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424" s="23"/>
-      <c r="B424" s="23" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C424" s="24" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D424" s="25"/>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B425" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C425" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B426" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="C426" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B427" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C427" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B428" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C428" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D428" s="2"/>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B429" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C429" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D429" s="2"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B430" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="C430" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="D430" s="2"/>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A431" s="23"/>
-      <c r="B431" s="23" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C431" s="24" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D431" s="25"/>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B432" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="D432" s="2"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="4">
+        <v>2</v>
+      </c>
       <c r="B433" s="4" t="s">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A434" s="23"/>
-      <c r="B434" s="23" t="s">
+      <c r="B434" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="C434" s="24" t="s">
+      <c r="C434" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B435" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="D434" s="25"/>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A435" s="4">
+      <c r="C435" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="4">
         <v>2</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C435" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A436" s="23"/>
-      <c r="B436" s="23" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C436" s="24" t="s">
-        <v>689</v>
-      </c>
-      <c r="D436" s="25"/>
+      <c r="B436" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A437" s="23"/>
-      <c r="B437" s="23" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C437" s="24" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D437" s="25"/>
+      <c r="B437" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D437" s="2"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A438" s="4">
-        <v>2</v>
-      </c>
       <c r="B438" s="4" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D438" s="2"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B439" s="4" t="s">
-        <v>639</v>
+        <v>151</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="D439" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B440" s="4" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D440" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B441" s="4" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>1228</v>
+      </c>
+      <c r="D441" s="2"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B442" s="4" t="s">
-        <v>452</v>
+        <v>565</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="D442" s="2"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B443" s="4" t="s">
-        <v>218</v>
+        <v>1119</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>1234</v>
+        <v>1120</v>
       </c>
       <c r="D443" s="2"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B444" s="4" t="s">
-        <v>569</v>
+      <c r="B444" s="22" t="s">
+        <v>830</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D444" s="2"/>
+        <v>831</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A445" s="23"/>
-      <c r="B445" s="23" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C445" s="24" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D445" s="25"/>
+      <c r="B445" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C445" s="5"/>
+      <c r="D445" s="2" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B446" s="22" t="s">
-        <v>834</v>
+      <c r="B446" s="4" t="s">
+        <v>1135</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>836</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="D446" s="2"/>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B447" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C447" s="5"/>
-      <c r="D447" s="2" t="s">
-        <v>420</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D447" s="2"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A448" s="23"/>
-      <c r="B448" s="23" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C448" s="24" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D448" s="25"/>
+      <c r="B448" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B449" s="4" t="s">
-        <v>391</v>
+        <v>1201</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>392</v>
+        <v>1202</v>
       </c>
       <c r="D449" s="2"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" s="23"/>
-      <c r="B450" s="23" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C450" s="24" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D450" s="25" t="s">
-        <v>1201</v>
-      </c>
+      <c r="B450" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D450" s="2"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" s="23"/>
-      <c r="B451" s="23" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C451" s="24" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D451" s="25"/>
+      <c r="B451" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D451" s="2"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" s="23"/>
       <c r="B452" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B453" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C453" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="C452" s="24" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D452" s="25"/>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453" s="23"/>
-      <c r="B453" s="23" t="s">
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B454" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="C453" s="24" t="s">
+      <c r="C454" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B455" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D453" s="25"/>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A454" s="23"/>
-      <c r="B454" s="23" t="s">
+      <c r="C455" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D455" s="2"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B456" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="C454" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D454" s="25"/>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A455" s="23"/>
-      <c r="B455" s="23" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C455" s="24" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D455" s="25"/>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A456" s="23"/>
-      <c r="B456" s="23" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C456" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D456" s="25"/>
+      <c r="C456" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D456" s="2"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="23" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C457" s="24" t="s">
-        <v>137</v>
+        <v>1258</v>
       </c>
       <c r="D457" s="25"/>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A458" s="23"/>
-      <c r="B458" s="23" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C458" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D458" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B323" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
-    <hyperlink ref="B318" r:id="rId2" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
+    <hyperlink ref="B322" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
+    <hyperlink ref="B317" r:id="rId2" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
     <hyperlink ref="B126" r:id="rId3" location="Chinese" tooltip="拍" display="https://en.wiktionary.org/wiki/%E6%8B%8D - Chinese" xr:uid="{4720F63B-AB11-46A2-B0DB-301C28EB4467}"/>
-    <hyperlink ref="B400" r:id="rId4" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
+    <hyperlink ref="B398" r:id="rId4" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
     <hyperlink ref="B152" r:id="rId5" location="Chinese" tooltip="曲" display="https://en.wiktionary.org/wiki/%E6%9B%B2 - Chinese" xr:uid="{EA3B65E7-2053-4AE2-92E5-0446FF2C2C24}"/>
-    <hyperlink ref="B366" r:id="rId6" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
-    <hyperlink ref="B226" r:id="rId7" location="Chinese" tooltip="獐" display="https://en.wiktionary.org/wiki/%E7%8D%90 - Chinese" xr:uid="{B2F710A0-F1D7-4D0E-B970-C71BD1159FE0}"/>
+    <hyperlink ref="B364" r:id="rId6" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
+    <hyperlink ref="B225" r:id="rId7" location="Chinese" tooltip="獐" display="https://en.wiktionary.org/wiki/%E7%8D%90 - Chinese" xr:uid="{B2F710A0-F1D7-4D0E-B970-C71BD1159FE0}"/>
     <hyperlink ref="B128" r:id="rId8" tooltip="挖" display="https://en.wiktionary.org/wiki/%E6%8C%96" xr:uid="{9E027813-4ED7-4788-8449-1A2B1185B401}"/>
     <hyperlink ref="B79" r:id="rId9" location="Chinese" tooltip="嫌" display="https://en.wiktionary.org/wiki/%E5%AB%8C - Chinese" xr:uid="{715ACB68-9DD0-4FCC-92ED-0DEB24C8B46C}"/>
     <hyperlink ref="B138" r:id="rId10" location="Chinese" tooltip="散" display="https://en.wiktionary.org/wiki/%E6%95%A3 - Chinese" xr:uid="{78494AF0-E2B4-49A8-9327-42D21549AE0F}"/>
-    <hyperlink ref="B224" r:id="rId11" location="Chinese" tooltip="狗" display="https://en.wiktionary.org/wiki/%E7%8B%97 - Chinese" xr:uid="{6673E652-C2C0-40D1-B778-8BC7868C8253}"/>
-    <hyperlink ref="B446" r:id="rId12" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
+    <hyperlink ref="B223" r:id="rId11" location="Chinese" tooltip="狗" display="https://en.wiktionary.org/wiki/%E7%8B%97 - Chinese" xr:uid="{6673E652-C2C0-40D1-B778-8BC7868C8253}"/>
+    <hyperlink ref="B444" r:id="rId12" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
     <hyperlink ref="B195" r:id="rId13" location="Chinese" tooltip="渴" display="https://en.wiktionary.org/wiki/%E6%B8%B4 - Chinese" xr:uid="{BA50169C-CC12-4B8B-897A-538C7836FD04}"/>
-    <hyperlink ref="B407" r:id="rId14" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
-    <hyperlink ref="B267" r:id="rId15" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
+    <hyperlink ref="B405" r:id="rId14" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
+    <hyperlink ref="B266" r:id="rId15" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
     <hyperlink ref="B134" r:id="rId16" location="Chinese" tooltip="攪" display="https://en.wiktionary.org/wiki/%E6%94%AA - Chinese" xr:uid="{EC616AFB-DFE3-464E-8578-12AFEA4E414A}"/>
-    <hyperlink ref="B335" r:id="rId17" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
-    <hyperlink ref="B311" r:id="rId18" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
-    <hyperlink ref="B261" r:id="rId19" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
+    <hyperlink ref="B334" r:id="rId17" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
+    <hyperlink ref="B310" r:id="rId18" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
+    <hyperlink ref="B260" r:id="rId19" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9746,16 +9668,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9791,13 +9713,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9805,13 +9727,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -9826,8 +9748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9E2CE-C9AF-4C2A-A516-EDCC9ADFAFC1}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9841,16 +9763,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9934,7 +9856,7 @@
         <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9994,711 +9916,678 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>635</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>482</v>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C43" s="27" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>704</v>
+      <c r="C44" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>1082</v>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1078</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="D47" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="D46" s="2" t="s">
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="11" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26" t="s">
+      <c r="C48" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="D48" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="D47" s="2" t="s">
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="11" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26" t="s">
+      <c r="C49" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="D49" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26" t="s">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="D50" s="2" t="s">
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="11" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
+      <c r="C52" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="D52" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="D51" s="2" t="s">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="11" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26" t="s">
+      <c r="C53" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="D53" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="D55" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D54" s="2" t="s">
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="11" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26" t="s">
+      <c r="C56" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="D56" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26" t="s">
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="D58" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="D57" s="2" t="s">
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="11" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26" t="s">
+      <c r="C59" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="D59" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="D58" s="2" t="s">
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="11" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26" t="s">
+      <c r="C60" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="D60" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="D59" s="25" t="s">
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="11" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26" t="s">
+      <c r="C61" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="D61" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="D60" s="2" t="s">
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="11" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26" t="s">
+      <c r="C62" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="D62" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="D61" s="2" t="s">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="11" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26" t="s">
+      <c r="C63" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="D63" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="D62" s="2" t="s">
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="11" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26" t="s">
+      <c r="C64" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="D64" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="D63" s="2" t="s">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="11" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26" t="s">
+      <c r="C65" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="D65" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="D64" s="2" t="s">
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="11" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26" t="s">
+      <c r="C66" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="D66" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D66" s="2" t="s">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="11" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="11" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26" t="s">
+      <c r="C69" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="11" t="s">
         <v>1207</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C70" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>1214</v>
-      </c>
       <c r="D70" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C73" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="11" t="s">
         <v>1239</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C74" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -10726,13 +10615,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -10740,55 +10629,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -10796,136 +10685,136 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>716</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -10963,49 +10852,49 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D9" s="13"/>
     </row>

--- a/qmuen.xlsx
+++ b/qmuen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lap trinh\QMun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4299846F-FE64-4516-9DB3-9161ABB2A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E5402-6F4B-4A1D-89D8-C95910746300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" activeTab="2" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="558" xr2:uid="{98A8C7CD-1134-44F0-A8DC-5E2D9A18A626}"/>
   </bookViews>
   <sheets>
     <sheet name="漢" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1338">
   <si>
     <t>一</t>
   </si>
@@ -721,9 +721,6 @@
     <t>馬</t>
   </si>
   <si>
-    <t>碼</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -1120,9 +1117,6 @@
     <t>năngz</t>
   </si>
   <si>
-    <t>giăngx</t>
-  </si>
-  <si>
     <t>蕉</t>
   </si>
   <si>
@@ -3304,9 +3298,6 @@
     <t>針</t>
   </si>
   <si>
-    <t>sĭml</t>
-  </si>
-  <si>
     <t>捏</t>
   </si>
   <si>
@@ -3809,6 +3800,249 @@
   </si>
   <si>
     <t>排</t>
+  </si>
+  <si>
+    <t>震</t>
+  </si>
+  <si>
+    <t>dănr</t>
+  </si>
+  <si>
+    <t>căns</t>
+  </si>
+  <si>
+    <t>公里</t>
+  </si>
+  <si>
+    <t>kŏngr geix</t>
+  </si>
+  <si>
+    <t>giăngx,geix</t>
+  </si>
+  <si>
+    <t>sĭml,cămr</t>
+  </si>
+  <si>
+    <t>cămr</t>
+  </si>
+  <si>
+    <t>寮</t>
+  </si>
+  <si>
+    <t>gêuh</t>
+  </si>
+  <si>
+    <t>縣</t>
+  </si>
+  <si>
+    <t>guênc</t>
+  </si>
+  <si>
+    <t>yônc</t>
+  </si>
+  <si>
+    <t>癲</t>
+  </si>
+  <si>
+    <t>tênr</t>
+  </si>
+  <si>
+    <t>敬</t>
+  </si>
+  <si>
+    <t>kĕngs</t>
+  </si>
+  <si>
+    <t>雲南</t>
+  </si>
+  <si>
+    <t>Wănh Namh</t>
+  </si>
+  <si>
+    <t>Loux Kair</t>
+  </si>
+  <si>
+    <t>老街</t>
+  </si>
+  <si>
+    <t>河內</t>
+  </si>
+  <si>
+    <t>Hah Noic</t>
+  </si>
+  <si>
+    <t>石崇</t>
+  </si>
+  <si>
+    <t>dĕkc dŏngh</t>
+  </si>
+  <si>
+    <t>石</t>
+  </si>
+  <si>
+    <t>dĕkc,xĕkc</t>
+  </si>
+  <si>
+    <t>dĕkc</t>
+  </si>
+  <si>
+    <t>崇</t>
+  </si>
+  <si>
+    <t>野</t>
+  </si>
+  <si>
+    <t>煙</t>
+  </si>
+  <si>
+    <t>yinr</t>
+  </si>
+  <si>
+    <t>嚇</t>
+  </si>
+  <si>
+    <t>zaz,hal</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>songh,tŭngh</t>
+  </si>
+  <si>
+    <t>艾</t>
+  </si>
+  <si>
+    <t>ngoic</t>
+  </si>
+  <si>
+    <t>yar</t>
+  </si>
+  <si>
+    <t>hình thanh:  人也</t>
+  </si>
+  <si>
+    <t>㐌</t>
+  </si>
+  <si>
+    <t>街</t>
+  </si>
+  <si>
+    <t>kair</t>
+  </si>
+  <si>
+    <t>劍</t>
+  </si>
+  <si>
+    <t>cĭms</t>
+  </si>
+  <si>
+    <t>weih</t>
+  </si>
+  <si>
+    <t>圍</t>
+  </si>
+  <si>
+    <t>逢</t>
+  </si>
+  <si>
+    <t>pŏngh</t>
+  </si>
+  <si>
+    <t>爸</t>
+  </si>
+  <si>
+    <t>pax</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>chab</t>
+  </si>
+  <si>
+    <t>粟</t>
+  </si>
+  <si>
+    <t>chul</t>
+  </si>
+  <si>
+    <t>逨</t>
+  </si>
+  <si>
+    <t>taih</t>
+  </si>
+  <si>
+    <t>hình thanh:  辵來</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>到</t>
+  </si>
+  <si>
+    <t>thăuz</t>
+  </si>
+  <si>
+    <t>tous</t>
+  </si>
+  <si>
+    <t>tŏngr săir</t>
+  </si>
+  <si>
+    <t>東西</t>
+  </si>
+  <si>
+    <t>嘢</t>
+  </si>
+  <si>
+    <t>yad</t>
+  </si>
+  <si>
+    <t>餓</t>
+  </si>
+  <si>
+    <t>ngoc</t>
+  </si>
+  <si>
+    <t>呢</t>
+  </si>
+  <si>
+    <t>nel</t>
+  </si>
+  <si>
+    <t>眉</t>
+  </si>
+  <si>
+    <t>maih</t>
+  </si>
+  <si>
+    <t>giăir</t>
+  </si>
+  <si>
+    <t>菞</t>
+  </si>
+  <si>
+    <t>hình thanh:  艹𥝢</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>duir</t>
+  </si>
+  <si>
+    <t>屏</t>
+  </si>
+  <si>
+    <t>pĭngs</t>
+  </si>
+  <si>
+    <t>疤</t>
+  </si>
+  <si>
+    <t>par</t>
   </si>
 </sst>
 </file>
@@ -4004,7 +4238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4063,6 +4297,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -4646,10 +4884,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D457" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:D457" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D447">
-    <sortCondition ref="B1:B447"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}" name="Table1" displayName="Table1" ref="A1:D483" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:D483" xr:uid="{08909E13-62DF-41FE-8C2C-A42F6EC643CD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D445">
+    <sortCondition ref="B1:B445"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="6" xr3:uid="{DFCA71D3-7D49-47D3-A153-FE63F5630B47}" name="常用度" dataDxfId="25"/>
@@ -4675,8 +4913,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D74" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:D74" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}" name="Table2" displayName="Table2" ref="A1:D77" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:D77" xr:uid="{E3637692-99A4-48DB-81ED-F40C60B19178}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{09378F0C-E887-4A25-8D92-F2E090F546FC}" name="常用度" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{C520B322-D4C5-499D-8776-6E4C84E0410B}" name="字" dataDxfId="8"/>
@@ -4688,8 +4926,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C22" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C22" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}" name="Table4" displayName="Table4" ref="A1:C28" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C28" xr:uid="{011CB7A8-4295-4506-B9CB-8F03B82281C0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7AC3F4C8-5FD1-4214-9B7A-F689A5C70CEC}" name="常用度" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{064FDE33-43CB-4142-B2B2-693F96D35F89}" name="字" dataDxfId="1"/>
@@ -4996,10 +5234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C37EFB-A8EE-4DC7-8A99-5510C4649B02}">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView topLeftCell="A452" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460"/>
+    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D481" sqref="D481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5014,16 +5252,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5070,13 +5308,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5095,7 +5333,7 @@
         <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>220</v>
@@ -5114,13 +5352,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5139,10 +5377,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -5154,10 +5392,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5176,10 +5414,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -5199,10 +5437,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>93</v>
@@ -5210,30 +5448,30 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -5262,10 +5500,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -5280,10 +5518,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -5328,30 +5566,30 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -5368,13 +5606,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5388,22 +5626,22 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5419,10 +5657,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -5476,16 +5714,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>123</v>
@@ -5496,53 +5734,53 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5553,97 +5791,97 @@
         <v>225</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -5655,7 +5893,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>25</v>
@@ -5663,28 +5901,28 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -5701,19 +5939,19 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>107</v>
@@ -5721,30 +5959,30 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -5764,42 +6002,42 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -5815,19 +6053,19 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>140</v>
@@ -5835,44 +6073,44 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" s="22" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -5897,66 +6135,66 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
@@ -5964,18 +6202,18 @@
         <v>146</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -5992,82 +6230,82 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -6086,42 +6324,42 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -6140,31 +6378,31 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,7 +6410,7 @@
         <v>149</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>150</v>
@@ -6180,22 +6418,22 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -6211,13 +6449,13 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
@@ -6231,60 +6469,60 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
@@ -6300,210 +6538,210 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="D127" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>819</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="22" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="D139" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
@@ -6514,7 +6752,7 @@
         <v>130</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -6542,44 +6780,44 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="D150" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -6595,24 +6833,24 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B152" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -6631,43 +6869,43 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -6676,10 +6914,10 @@
         <v>219</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -6687,18 +6925,18 @@
         <v>209</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -6715,57 +6953,57 @@
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -6789,55 +7027,55 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -6857,13 +7095,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -6888,48 +7126,48 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -6944,73 +7182,73 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B187" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>806</v>
-      </c>
       <c r="D193" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
@@ -7033,61 +7271,61 @@
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D201" s="2"/>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>33</v>
@@ -7096,91 +7334,91 @@
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -7197,13 +7435,13 @@
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.3">
@@ -7217,97 +7455,97 @@
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C219" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B225" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -7327,49 +7565,49 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C228" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B229" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="D229" s="2"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -7377,7 +7615,7 @@
         <v>134</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>135</v>
@@ -7385,10 +7623,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B233" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>92</v>
@@ -7429,10 +7667,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B237" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D237" s="2"/>
     </row>
@@ -7444,10 +7682,10 @@
         <v>77</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -7480,13 +7718,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B241" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -7497,10 +7735,10 @@
         <v>62</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -7530,104 +7768,104 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B245" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D245" s="2"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D246" s="2"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B247" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D247" s="2"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B248" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B250" s="4" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D250" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="4" t="s">
-        <v>186</v>
+        <v>655</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
-        <v>657</v>
+        <v>917</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>513</v>
+        <v>918</v>
       </c>
       <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B253" s="4" t="s">
-        <v>919</v>
+        <v>768</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>920</v>
-      </c>
-      <c r="D253" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B254" s="4" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>771</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="D254" s="2"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B255" s="4" t="s">
-        <v>793</v>
+        <v>1032</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>794</v>
+        <v>1033</v>
       </c>
       <c r="D255" s="2"/>
     </row>
@@ -7638,374 +7876,374 @@
       <c r="C256" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="D256" s="2"/>
+      <c r="D256" s="2" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" s="4" t="s">
-        <v>1036</v>
+        <v>907</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>1038</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" s="4" t="s">
-        <v>909</v>
+        <v>159</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>910</v>
+        <v>160</v>
       </c>
       <c r="D258" s="2"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B259" s="4" t="s">
-        <v>159</v>
+      <c r="B259" s="22" t="s">
+        <v>945</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>160</v>
+        <v>946</v>
       </c>
       <c r="D259" s="2"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B260" s="22" t="s">
-        <v>947</v>
+      <c r="B260" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D260" s="2"/>
+        <v>745</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>746</v>
-      </c>
+      <c r="D261" s="2"/>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" s="4" t="s">
-        <v>748</v>
+        <v>458</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D262" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="4" t="s">
-        <v>460</v>
+        <v>318</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>462</v>
+        <v>319</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" s="4" t="s">
-        <v>319</v>
+        <v>715</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>320</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B265" s="4" t="s">
-        <v>717</v>
+      <c r="B265" s="22" t="s">
+        <v>857</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>718</v>
+        <v>509</v>
       </c>
       <c r="D265" s="2"/>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B266" s="22" t="s">
-        <v>859</v>
+      <c r="B266" s="4" t="s">
+        <v>753</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D266" s="2"/>
+        <v>754</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" s="4" t="s">
-        <v>755</v>
+        <v>1037</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>744</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="D267" s="2"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" s="4" t="s">
-        <v>1039</v>
+        <v>673</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1040</v>
+        <v>674</v>
       </c>
       <c r="D268" s="2"/>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" s="4" t="s">
-        <v>675</v>
+        <v>373</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>676</v>
+        <v>379</v>
       </c>
       <c r="D269" s="2"/>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" s="4" t="s">
-        <v>375</v>
+        <v>711</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D270" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="4" t="s">
-        <v>713</v>
+        <v>245</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>714</v>
+        <v>246</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>715</v>
+        <v>510</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="4" t="s">
-        <v>246</v>
+        <v>775</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>512</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D272" s="2"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B273" s="4" t="s">
-        <v>777</v>
+        <v>1039</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>778</v>
+        <v>1029</v>
       </c>
       <c r="D273" s="2"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B274" s="4" t="s">
-        <v>1041</v>
+        <v>903</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>1031</v>
+        <v>904</v>
       </c>
       <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B275" s="4" t="s">
-        <v>905</v>
+        <v>576</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>906</v>
+        <v>577</v>
       </c>
       <c r="D275" s="2"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B276" s="4" t="s">
-        <v>578</v>
+        <v>1040</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>579</v>
+        <v>1041</v>
       </c>
       <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B277" s="4" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B278" s="4" t="s">
-        <v>1032</v>
+        <v>200</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D278" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B279" s="4" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>202</v>
+        <v>350</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B280" s="4" t="s">
-        <v>350</v>
+        <v>1042</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>1043</v>
+      </c>
+      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B281" s="4" t="s">
-        <v>1044</v>
+        <v>925</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>1045</v>
+        <v>926</v>
       </c>
       <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B282" s="4" t="s">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>928</v>
+        <v>719</v>
       </c>
       <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B283" s="4" t="s">
-        <v>965</v>
+        <v>261</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>721</v>
+        <v>262</v>
       </c>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B284" s="4" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D284" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="4">
+        <v>2</v>
+      </c>
       <c r="B285" s="4" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>277</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="4">
-        <v>2</v>
-      </c>
       <c r="B286" s="4" t="s">
-        <v>76</v>
+        <v>1086</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>1087</v>
+      </c>
+      <c r="D286" s="2"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B287" s="4" t="s">
-        <v>1088</v>
+        <v>909</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>1089</v>
+        <v>910</v>
       </c>
       <c r="D287" s="2"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B288" s="4" t="s">
-        <v>911</v>
+        <v>943</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>912</v>
+        <v>944</v>
       </c>
       <c r="D288" s="2"/>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="4" t="s">
-        <v>945</v>
+        <v>704</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="D289" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" s="4" t="s">
-        <v>706</v>
+        <v>899</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>708</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" s="4" t="s">
-        <v>901</v>
+        <v>806</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>902</v>
+        <v>807</v>
       </c>
       <c r="D291" s="2"/>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" s="4" t="s">
-        <v>808</v>
+        <v>1048</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>809</v>
+        <v>1049</v>
       </c>
       <c r="D292" s="2"/>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" s="4" t="s">
-        <v>1050</v>
+        <v>578</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1051</v>
+        <v>579</v>
       </c>
       <c r="D293" s="2"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" s="4" t="s">
-        <v>580</v>
+        <v>1050</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>581</v>
+        <v>1051</v>
       </c>
       <c r="D294" s="2"/>
     </row>
@@ -8014,554 +8252,554 @@
         <v>1052</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1053</v>
+        <v>36</v>
       </c>
       <c r="D295" s="2"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" s="4" t="s">
-        <v>1054</v>
+        <v>959</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>36</v>
+        <v>960</v>
       </c>
       <c r="D296" s="2"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B297" s="4" t="s">
-        <v>961</v>
+        <v>986</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>962</v>
+        <v>985</v>
       </c>
       <c r="D297" s="2"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" s="4" t="s">
-        <v>988</v>
+        <v>343</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>987</v>
+        <v>342</v>
       </c>
       <c r="D298" s="2"/>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" s="4" t="s">
-        <v>344</v>
+        <v>1130</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>343</v>
+        <v>1131</v>
       </c>
       <c r="D299" s="2"/>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" s="4" t="s">
-        <v>1133</v>
+        <v>344</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>1134</v>
+        <v>345</v>
       </c>
       <c r="D300" s="2"/>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" s="4" t="s">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D301" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" s="4" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" s="4" t="s">
-        <v>340</v>
+        <v>933</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" s="4" t="s">
-        <v>935</v>
+        <v>554</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>936</v>
+        <v>555</v>
       </c>
       <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B305" s="4" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="D305" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="4">
+        <v>1</v>
+      </c>
       <c r="B306" s="4" t="s">
-        <v>521</v>
+        <v>17</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="D306" s="5" t="s">
-        <v>522</v>
+        <v>18</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="4">
-        <v>1</v>
-      </c>
       <c r="B307" s="4" t="s">
-        <v>17</v>
+        <v>1062</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D307" s="2"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B308" s="4" t="s">
-        <v>1064</v>
+        <v>580</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>168</v>
+        <v>581</v>
       </c>
       <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B309" s="4" t="s">
-        <v>582</v>
+      <c r="B309" s="22" t="s">
+        <v>915</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>583</v>
+        <v>916</v>
       </c>
       <c r="D309" s="2"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B310" s="22" t="s">
-        <v>917</v>
+      <c r="B310" s="4" t="s">
+        <v>1059</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>918</v>
+        <v>1060</v>
       </c>
       <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B311" s="4" t="s">
-        <v>1061</v>
+        <v>362</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>1062</v>
+        <v>363</v>
       </c>
       <c r="D311" s="2"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B312" s="4" t="s">
-        <v>364</v>
+        <v>955</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>365</v>
+        <v>956</v>
       </c>
       <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B313" s="4" t="s">
-        <v>957</v>
+        <v>368</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>958</v>
+        <v>369</v>
       </c>
       <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B314" s="4" t="s">
-        <v>370</v>
+        <v>1063</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B315" s="4" t="s">
-        <v>1065</v>
+        <v>929</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B316" s="4" t="s">
-        <v>931</v>
+      <c r="B316" s="22" t="s">
+        <v>793</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>343</v>
+        <v>794</v>
       </c>
       <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B317" s="22" t="s">
-        <v>795</v>
+      <c r="B317" s="4" t="s">
+        <v>939</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>796</v>
+        <v>940</v>
       </c>
       <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B318" s="4" t="s">
-        <v>941</v>
+        <v>858</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>942</v>
+        <v>859</v>
       </c>
       <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B319" s="4" t="s">
-        <v>860</v>
+        <v>196</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="D319" s="2"/>
+        <v>1221</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" s="4" t="s">
-        <v>196</v>
+        <v>790</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1224</v>
+        <v>789</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>197</v>
+        <v>475</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B321" s="4" t="s">
-        <v>792</v>
+      <c r="B321" s="22" t="s">
+        <v>788</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>477</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D321" s="2"/>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B322" s="22" t="s">
-        <v>790</v>
+      <c r="B322" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D322" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B323" s="4" t="s">
-        <v>560</v>
+        <v>1066</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="D323" s="2"/>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B324" s="4" t="s">
-        <v>1068</v>
+        <v>913</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>1069</v>
+        <v>914</v>
       </c>
       <c r="D324" s="2"/>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B325" s="4" t="s">
-        <v>915</v>
+        <v>1064</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>916</v>
+        <v>1065</v>
       </c>
       <c r="D325" s="2"/>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B326" s="4" t="s">
-        <v>1066</v>
+        <v>758</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>1067</v>
+        <v>759</v>
       </c>
       <c r="D326" s="2"/>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B327" s="4" t="s">
-        <v>760</v>
+        <v>127</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="D327" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B328" s="4" t="s">
-        <v>127</v>
+        <v>643</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="D328" s="2"/>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="4" t="s">
-        <v>645</v>
+        <v>1068</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="D329" s="2"/>
+        <v>1069</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B330" s="4" t="s">
-        <v>1070</v>
+        <v>402</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>1076</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="D330" s="2"/>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B331" s="4" t="s">
-        <v>404</v>
+        <v>193</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D331" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B332" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>191</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D332" s="2"/>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B333" s="4" t="s">
-        <v>194</v>
+      <c r="B333" s="22" t="s">
+        <v>877</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>195</v>
+        <v>719</v>
       </c>
       <c r="D333" s="2"/>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B334" s="22" t="s">
-        <v>879</v>
+      <c r="B334" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="D334" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B335" s="4" t="s">
-        <v>584</v>
+        <v>371</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>586</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="D335" s="2"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B336" s="4" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D336" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B337" s="4" t="s">
-        <v>240</v>
+        <v>404</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B338" s="4" t="s">
-        <v>406</v>
+        <v>1070</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="D338" s="2"/>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B339" s="4" t="s">
-        <v>1072</v>
+        <v>981</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1073</v>
+        <v>982</v>
       </c>
       <c r="D339" s="2"/>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B340" s="4" t="s">
-        <v>983</v>
+        <v>523</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="D340" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B341" s="4" t="s">
-        <v>525</v>
+        <v>919</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>526</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="D341" s="2"/>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B342" s="4" t="s">
-        <v>921</v>
+        <v>435</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>922</v>
+        <v>436</v>
       </c>
       <c r="D342" s="2"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B343" s="4" t="s">
-        <v>437</v>
+        <v>585</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
       <c r="D343" s="2"/>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B344" s="4" t="s">
-        <v>587</v>
+        <v>874</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>588</v>
+        <v>875</v>
       </c>
       <c r="D344" s="2"/>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B345" s="4" t="s">
-        <v>876</v>
+        <v>333</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="D345" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B346" s="4" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>336</v>
+        <v>526</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B347" s="4" t="s">
-        <v>527</v>
+        <v>312</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="D347" s="5" t="s">
-        <v>528</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D347" s="2"/>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B348" s="4" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D348" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B349" s="4" t="s">
-        <v>415</v>
+        <v>1072</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>417</v>
+        <v>30</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>409</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B350" s="4" t="s">
-        <v>1074</v>
+        <v>587</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>30</v>
+        <v>588</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1075</v>
+        <v>589</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B351" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D351" s="2" t="s">
         <v>591</v>
       </c>
+      <c r="D351" s="2"/>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B352" s="4" t="s">
@@ -8574,378 +8812,382 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B353" s="4" t="s">
-        <v>594</v>
+        <v>1079</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="D353" s="2"/>
+        <v>1080</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>1081</v>
+      </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B354" s="4" t="s">
-        <v>1081</v>
+        <v>119</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>1083</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D354" s="2"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B355" s="4" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="D355" s="2"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B356" s="4" t="s">
-        <v>188</v>
+        <v>1082</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>189</v>
+        <v>1083</v>
       </c>
       <c r="D356" s="2"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B357" s="4" t="s">
-        <v>1084</v>
+        <v>118</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D357" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B358" s="4" t="s">
-        <v>118</v>
+        <v>751</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D358" s="2"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B359" s="4" t="s">
-        <v>753</v>
+        <v>921</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="D359" s="2"/>
+        <v>922</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>1250</v>
+      </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B360" s="4" t="s">
-        <v>923</v>
+        <v>167</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>924</v>
+        <v>168</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>1253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B361" s="4" t="s">
-        <v>167</v>
+        <v>911</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>168</v>
+        <v>912</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>168</v>
+        <v>912</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B362" s="4" t="s">
-        <v>913</v>
+        <v>1008</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>914</v>
+        <v>1009</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>914</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B363" s="4" t="s">
-        <v>1010</v>
+      <c r="B363" s="22" t="s">
+        <v>811</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1011</v>
+        <v>812</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B364" s="22" t="s">
-        <v>813</v>
+      <c r="B364" s="4" t="s">
+        <v>880</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>1255</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="D364" s="2"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B365" s="4" t="s">
-        <v>882</v>
+        <v>517</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="D365" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B366" s="4" t="s">
-        <v>519</v>
+        <v>1084</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>520</v>
-      </c>
+        <v>1085</v>
+      </c>
+      <c r="D366" s="2"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="4">
+        <v>3</v>
+      </c>
       <c r="B367" s="4" t="s">
-        <v>1086</v>
+        <v>85</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D367" s="2"/>
+        <v>1222</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="4">
-        <v>3</v>
-      </c>
       <c r="B368" s="4" t="s">
-        <v>85</v>
+        <v>941</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="D368" s="2"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B369" s="4" t="s">
-        <v>943</v>
+        <v>557</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="D369" s="2"/>
+        <v>1262</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B370" s="4" t="s">
-        <v>559</v>
+        <v>88</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>363</v>
+        <v>864</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B371" s="4" t="s">
-        <v>88</v>
+        <v>1088</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>866</v>
+        <v>1263</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>507</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B372" s="4" t="s">
-        <v>1090</v>
+        <v>594</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1091</v>
+        <v>595</v>
       </c>
       <c r="D372" s="2"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B373" s="4" t="s">
-        <v>596</v>
+        <v>993</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>597</v>
+        <v>504</v>
       </c>
       <c r="D373" s="2"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="4">
+        <v>1</v>
+      </c>
       <c r="B374" s="4" t="s">
-        <v>995</v>
+        <v>87</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D374" s="2"/>
+        <v>1223</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="4">
-        <v>1</v>
-      </c>
       <c r="B375" s="4" t="s">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1226</v>
+        <v>367</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B376" s="4" t="s">
-        <v>368</v>
+        <v>223</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>369</v>
+        <v>225</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>369</v>
+        <v>509</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B377" s="4" t="s">
-        <v>223</v>
+        <v>923</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>511</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="D377" s="2"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B378" s="4" t="s">
-        <v>925</v>
+        <v>1091</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>926</v>
+        <v>1092</v>
       </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="4">
+        <v>1</v>
+      </c>
       <c r="B379" s="4" t="s">
-        <v>1094</v>
+        <v>86</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D379" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" s="4">
-        <v>1</v>
-      </c>
       <c r="B380" s="4" t="s">
-        <v>86</v>
+        <v>957</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="D380" s="2"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B381" s="4" t="s">
-        <v>959</v>
+        <v>709</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>960</v>
+        <v>114</v>
       </c>
       <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B382" s="4" t="s">
-        <v>711</v>
+        <v>222</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B383" s="4" t="s">
-        <v>222</v>
+        <v>927</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>220</v>
+        <v>928</v>
       </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B384" s="4" t="s">
-        <v>929</v>
+        <v>268</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="D384" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B385" s="4" t="s">
-        <v>269</v>
+        <v>637</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="D385" s="2"/>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B386" s="4" t="s">
-        <v>639</v>
+        <v>1093</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>640</v>
+        <v>1094</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B387" s="4" t="s">
-        <v>1096</v>
+        <v>796</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1097</v>
+        <v>795</v>
       </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B388" s="4" t="s">
-        <v>798</v>
+        <v>235</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="D388" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B389" s="4" t="s">
-        <v>236</v>
+        <v>1095</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>237</v>
+        <v>1096</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>237</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.3">
@@ -8955,48 +9197,48 @@
       <c r="C390" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="D390" s="2" t="s">
-        <v>1100</v>
-      </c>
+      <c r="D390" s="2"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B391" s="4" t="s">
-        <v>1101</v>
+        <v>697</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1102</v>
+        <v>698</v>
       </c>
       <c r="D391" s="2"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B392" s="4" t="s">
-        <v>699</v>
+        <v>1100</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="D392" s="2"/>
+        <v>1102</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B393" s="4" t="s">
-        <v>1103</v>
+        <v>651</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1105</v>
+        <v>652</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>1104</v>
+        <v>652</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B394" s="4" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>654</v>
+        <v>359</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.3">
@@ -9004,545 +9246,541 @@
         <v>668</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>669</v>
+        <v>79</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>360</v>
+        <v>79</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B396" s="4" t="s">
-        <v>670</v>
+      <c r="B396" s="22" t="s">
+        <v>718</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>79</v>
+        <v>719</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>79</v>
+        <v>720</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B397" s="4" t="s">
-        <v>720</v>
+        <v>896</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>721</v>
+        <v>897</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>722</v>
+        <v>898</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B398" s="22" t="s">
-        <v>720</v>
+      <c r="B398" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>721</v>
+        <v>157</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>722</v>
+        <v>158</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B399" s="4" t="s">
-        <v>898</v>
+        <v>307</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>900</v>
-      </c>
+        <v>1224</v>
+      </c>
+      <c r="D399" s="2"/>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B400" s="4" t="s">
-        <v>156</v>
+        <v>1103</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="D400" s="2"/>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B401" s="4" t="s">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1227</v>
+        <v>632</v>
       </c>
       <c r="D401" s="2"/>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B402" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>789</v>
+        <v>1105</v>
       </c>
       <c r="D402" s="2"/>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B403" s="4" t="s">
-        <v>633</v>
+      <c r="B403" s="22" t="s">
+        <v>846</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>634</v>
+        <v>847</v>
       </c>
       <c r="D403" s="2"/>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B404" s="4" t="s">
-        <v>1107</v>
+        <v>265</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1108</v>
+        <v>264</v>
       </c>
       <c r="D404" s="2"/>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B405" s="22" t="s">
-        <v>848</v>
+      <c r="B405" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="D405" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B406" s="4" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D406" s="2"/>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B407" s="4" t="s">
-        <v>354</v>
+        <v>596</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="D407" s="2"/>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B408" s="4" t="s">
-        <v>281</v>
+        <v>850</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>280</v>
+        <v>851</v>
       </c>
       <c r="D408" s="2"/>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B409" s="4" t="s">
-        <v>598</v>
+        <v>1106</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>599</v>
+        <v>774</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B410" s="4" t="s">
-        <v>852</v>
+        <v>182</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="D410" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B411" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>776</v>
+        <v>1108</v>
       </c>
       <c r="D411" s="2"/>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B412" s="4" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D412" s="2"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B413" s="4" t="s">
-        <v>1110</v>
+        <v>164</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D413" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B414" s="4" t="s">
-        <v>361</v>
+        <v>695</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D414" s="2"/>
+        <v>696</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B415" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B416" s="4" t="s">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B417" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B418" s="4" t="s">
-        <v>734</v>
+        <v>240</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="D418" s="2"/>
-    </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B419" s="4" t="s">
-        <v>205</v>
+        <v>892</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>206</v>
+        <v>893</v>
       </c>
       <c r="D419" s="2"/>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B420" s="4" t="s">
-        <v>241</v>
+        <v>1145</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1146</v>
+      </c>
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B421" s="4" t="s">
-        <v>894</v>
+        <v>410</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="D421" s="2"/>
-    </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B422" s="4" t="s">
-        <v>1148</v>
+        <v>567</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D422" s="2"/>
-    </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B423" s="4" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B424" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B425" s="4" t="s">
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B426" s="4" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D426" s="2"/>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B427" s="4" t="s">
-        <v>430</v>
+        <v>1158</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>132</v>
+        <v>1159</v>
       </c>
       <c r="D427" s="2"/>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B428" s="4" t="s">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="D428" s="2"/>
-    </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B429" s="4" t="s">
-        <v>1161</v>
+        <v>259</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D429" s="2"/>
-    </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B430" s="4" t="s">
-        <v>178</v>
+        <v>1109</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1110</v>
+      </c>
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="4">
+        <v>2</v>
+      </c>
       <c r="B431" s="4" t="s">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B432" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1113</v>
+        <v>683</v>
       </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A433" s="4">
+      <c r="B433" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="4">
         <v>2</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C433" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B434" s="4" t="s">
-        <v>1116</v>
+        <v>71</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="D434" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B435" s="4" t="s">
-        <v>1117</v>
+        <v>633</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1118</v>
+        <v>634</v>
       </c>
       <c r="D435" s="2"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A436" s="4">
-        <v>2</v>
-      </c>
       <c r="B436" s="4" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D436" s="2"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B437" s="4" t="s">
-        <v>635</v>
+        <v>151</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D437" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B438" s="4" t="s">
-        <v>315</v>
+        <v>446</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D438" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B439" s="4" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="D439" s="2"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B440" s="4" t="s">
-        <v>448</v>
+        <v>563</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>449</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="D440" s="2"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B441" s="4" t="s">
-        <v>218</v>
+        <v>1116</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1228</v>
+        <v>1117</v>
       </c>
       <c r="D441" s="2"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B442" s="4" t="s">
-        <v>565</v>
+      <c r="B442" s="22" t="s">
+        <v>828</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="D442" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B443" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C443" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D443" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C443" s="5"/>
+      <c r="D443" s="2" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B444" s="22" t="s">
-        <v>830</v>
+      <c r="B444" s="4" t="s">
+        <v>1132</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>832</v>
-      </c>
+        <v>1133</v>
+      </c>
+      <c r="D444" s="2"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B445" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C445" s="5"/>
-      <c r="D445" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D445" s="2"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B446" s="4" t="s">
-        <v>1135</v>
+        <v>1192</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D446" s="2"/>
+        <v>1193</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B447" s="4" t="s">
-        <v>387</v>
+        <v>1198</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>388</v>
+        <v>1199</v>
       </c>
       <c r="D447" s="2"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B448" s="4" t="s">
-        <v>1195</v>
+        <v>1239</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1197</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="D448" s="2"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B449" s="4" t="s">
-        <v>1201</v>
+        <v>1240</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>1202</v>
+        <v>1241</v>
       </c>
       <c r="D449" s="2"/>
     </row>
@@ -9551,25 +9789,25 @@
         <v>1242</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>1021</v>
+        <v>1243</v>
       </c>
       <c r="D450" s="2"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B451" s="4" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D451" s="2"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B452" s="4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>1246</v>
+        <v>422</v>
       </c>
       <c r="D452" s="2"/>
     </row>
@@ -9578,69 +9816,338 @@
         <v>1247</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>1248</v>
+        <v>137</v>
       </c>
       <c r="D453" s="2"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B454" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="D454" s="2"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B455" s="4" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>137</v>
+        <v>1255</v>
       </c>
       <c r="D455" s="2"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B456" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D456" s="2"/>
+      <c r="A456" s="23"/>
+      <c r="B456" s="23" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C456" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D456" s="25" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="23" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="C457" s="24" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="D457" s="25"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="23"/>
+      <c r="B458" s="23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C458" s="24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D458" s="25" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="23"/>
+      <c r="B459" s="23" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C459" s="24" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D459" s="25"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="23"/>
+      <c r="B460" s="23" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C460" s="24" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D460" s="25"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="23"/>
+      <c r="B461" s="23" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C461" s="24" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D461" s="25" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="23"/>
+      <c r="B462" s="23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C462" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D462" s="25"/>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="23"/>
+      <c r="B463" s="23" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C463" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D463" s="25"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="23"/>
+      <c r="B464" s="23" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C464" s="24" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D464" s="25"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="23"/>
+      <c r="B465" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C465" s="24" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D465" s="25"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="23"/>
+      <c r="B466" s="23" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C466" s="24" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D466" s="25"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="23"/>
+      <c r="B467" s="23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C467" s="24" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D467" s="25"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="23"/>
+      <c r="B468" s="23" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C468" s="24" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D468" s="25"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="23"/>
+      <c r="B469" s="23" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C469" s="24" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D469" s="25"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="23"/>
+      <c r="B470" s="23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C470" s="24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D470" s="25"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="23"/>
+      <c r="B471" s="23" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C471" s="24" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D471" s="25"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="23"/>
+      <c r="B472" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C472" s="24" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D472" s="25"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="23"/>
+      <c r="B473" s="23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C473" s="24" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D473" s="25"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="23"/>
+      <c r="B474" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C474" s="24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D474" s="25"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="23"/>
+      <c r="B475" s="23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C475" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="D475" s="25"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="23"/>
+      <c r="B476" s="23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C476" s="24" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D476" s="25" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="23"/>
+      <c r="B477" s="23" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C477" s="24" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D477" s="25"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="23"/>
+      <c r="B478" s="23" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C478" s="24" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D478" s="25"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="23"/>
+      <c r="B479" s="23" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C479" s="24" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D479" s="25"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="23"/>
+      <c r="B480" s="23" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C480" s="24" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D480" s="25"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="23"/>
+      <c r="B481" s="23" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C481" s="24" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D481" s="25"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="23"/>
+      <c r="B482" s="23" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C482" s="24" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D482" s="25"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="23"/>
+      <c r="B483" s="23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C483" s="24" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D483" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B322" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
-    <hyperlink ref="B317" r:id="rId2" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
+    <hyperlink ref="B321" r:id="rId1" location="Chinese" tooltip="袋" display="https://en.wiktionary.org/wiki/%E8%A2%8B - Chinese" xr:uid="{4B762A84-2A63-4FF7-8216-AF41FBC97334}"/>
+    <hyperlink ref="B316" r:id="rId2" location="Chinese" tooltip="蝠" display="https://en.wiktionary.org/wiki/%E8%9D%A0 - Chinese" xr:uid="{11AA6548-F600-4015-AA12-D3825E721C10}"/>
     <hyperlink ref="B126" r:id="rId3" location="Chinese" tooltip="拍" display="https://en.wiktionary.org/wiki/%E6%8B%8D - Chinese" xr:uid="{4720F63B-AB11-46A2-B0DB-301C28EB4467}"/>
-    <hyperlink ref="B398" r:id="rId4" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
+    <hyperlink ref="B396" r:id="rId4" location="Chinese" tooltip="隻" display="https://en.wiktionary.org/wiki/%E9%9A%BB - Chinese" xr:uid="{3F2019C9-FD5E-40EF-97AE-8F604AA37381}"/>
     <hyperlink ref="B152" r:id="rId5" location="Chinese" tooltip="曲" display="https://en.wiktionary.org/wiki/%E6%9B%B2 - Chinese" xr:uid="{EA3B65E7-2053-4AE2-92E5-0446FF2C2C24}"/>
-    <hyperlink ref="B364" r:id="rId6" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
+    <hyperlink ref="B363" r:id="rId6" location="Chinese" tooltip="過" display="https://en.wiktionary.org/wiki/%E9%81%8E - Chinese" xr:uid="{9E432682-87FC-4DA0-9755-16945AA78F7E}"/>
     <hyperlink ref="B225" r:id="rId7" location="Chinese" tooltip="獐" display="https://en.wiktionary.org/wiki/%E7%8D%90 - Chinese" xr:uid="{B2F710A0-F1D7-4D0E-B970-C71BD1159FE0}"/>
     <hyperlink ref="B128" r:id="rId8" tooltip="挖" display="https://en.wiktionary.org/wiki/%E6%8C%96" xr:uid="{9E027813-4ED7-4788-8449-1A2B1185B401}"/>
     <hyperlink ref="B79" r:id="rId9" location="Chinese" tooltip="嫌" display="https://en.wiktionary.org/wiki/%E5%AB%8C - Chinese" xr:uid="{715ACB68-9DD0-4FCC-92ED-0DEB24C8B46C}"/>
     <hyperlink ref="B138" r:id="rId10" location="Chinese" tooltip="散" display="https://en.wiktionary.org/wiki/%E6%95%A3 - Chinese" xr:uid="{78494AF0-E2B4-49A8-9327-42D21549AE0F}"/>
     <hyperlink ref="B223" r:id="rId11" location="Chinese" tooltip="狗" display="https://en.wiktionary.org/wiki/%E7%8B%97 - Chinese" xr:uid="{6673E652-C2C0-40D1-B778-8BC7868C8253}"/>
-    <hyperlink ref="B444" r:id="rId12" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
+    <hyperlink ref="B442" r:id="rId12" location="Chinese" tooltip="龍" display="https://en.wiktionary.org/wiki/%E9%BE%8D - Chinese" xr:uid="{A5ECC14D-AAA9-4CB7-AC77-C8822BDC8FC5}"/>
     <hyperlink ref="B195" r:id="rId13" location="Chinese" tooltip="渴" display="https://en.wiktionary.org/wiki/%E6%B8%B4 - Chinese" xr:uid="{BA50169C-CC12-4B8B-897A-538C7836FD04}"/>
-    <hyperlink ref="B405" r:id="rId14" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
-    <hyperlink ref="B266" r:id="rId15" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
+    <hyperlink ref="B403" r:id="rId14" location="Chinese" tooltip="面" display="https://en.wiktionary.org/wiki/%E9%9D%A2 - Chinese" xr:uid="{A35A5A71-5BC6-4CB0-8529-FD1D5C59CBFD}"/>
+    <hyperlink ref="B265" r:id="rId15" location="Chinese" tooltip="筒" display="https://en.wiktionary.org/wiki/%E7%AD%92 - Chinese" xr:uid="{200AC691-9763-4DC5-A803-6DBA6F4B5778}"/>
     <hyperlink ref="B134" r:id="rId16" location="Chinese" tooltip="攪" display="https://en.wiktionary.org/wiki/%E6%94%AA - Chinese" xr:uid="{EC616AFB-DFE3-464E-8578-12AFEA4E414A}"/>
-    <hyperlink ref="B334" r:id="rId17" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
-    <hyperlink ref="B310" r:id="rId18" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
-    <hyperlink ref="B260" r:id="rId19" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
+    <hyperlink ref="B333" r:id="rId17" location="Chinese" tooltip="識" display="https://en.wiktionary.org/wiki/%E8%AD%98 - Chinese" xr:uid="{EE557446-FCC0-4887-B9A4-68DB80293286}"/>
+    <hyperlink ref="B309" r:id="rId18" location="Chinese" tooltip="蒸" display="https://en.wiktionary.org/wiki/%E8%92%B8 - Chinese" xr:uid="{B0A738E3-2446-41ED-A1C3-D1E1D7397368}"/>
+    <hyperlink ref="B259" r:id="rId19" location="Chinese" tooltip="竈" display="https://en.wiktionary.org/wiki/%E7%AB%88 - Chinese" xr:uid="{A4A62CDC-3CCD-421D-B3E0-CCB35FE52A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9668,16 +10175,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9713,13 +10220,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9727,13 +10234,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -9746,10 +10253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD9E2CE-C9AF-4C2A-A516-EDCC9ADFAFC1}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A71" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -9763,16 +10270,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9856,738 +10363,774 @@
         <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="11" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="11" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="11" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="11" t="s">
         <v>1186</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="11" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="11" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="11" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="11" t="s">
         <v>1204</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="11" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>1208</v>
-      </c>
       <c r="D70" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="11" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="11" t="s">
         <v>1230</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="11" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="11" t="s">
         <v>1233</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="11" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="11" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>1240</v>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="25"/>
+      <c r="B75" s="26" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="25"/>
+      <c r="B76" s="26" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="25"/>
+      <c r="B77" s="26" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1331</v>
       </c>
     </row>
   </sheetData>
@@ -10600,10 +11143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A1A9B7-25AD-4A8E-9D69-9C5CD27544E5}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A26" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10615,13 +11158,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -10629,55 +11172,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
@@ -10685,136 +11228,190 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>1214</v>
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -10852,49 +11449,49 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D9" s="13"/>
     </row>
